--- a/Data/Gregory et al 2024 Supplemental File 1.xlsx
+++ b/Data/Gregory et al 2024 Supplemental File 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid.sharepoint.com/sites/bryant_lab/Shared Documents/People/Ben Gregory/Free-living adult behavior manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1007" documentId="8_{015C32A1-34E4-7A4E-B4EA-6A5754358A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF7AEDF8-B9DB-BF41-8D57-C533A6D4F60D}"/>
+  <xr:revisionPtr revIDLastSave="1008" documentId="8_{015C32A1-34E4-7A4E-B4EA-6A5754358A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27064377-B5F9-7247-A1CD-048CF0717020}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="3" xr2:uid="{D64CFAA0-BE6E-A349-8D11-DFB19FB61B00}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="875">
   <si>
     <t>C. elegans</t>
   </si>
@@ -3058,6 +3058,9 @@
   </si>
   <si>
     <t>221207_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3461,7 +3464,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3629,16 +3632,37 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3656,25 +3680,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3704,9 +3713,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3715,9 +3721,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3773,8 +3776,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5814,22 +5815,22 @@
       <c r="A2" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="E2" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
       <c r="M2" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="92"/>
       <c r="Q2" s="62" t="s">
         <v>30</v>
       </c>
@@ -5842,8 +5843,8 @@
       <c r="AA2" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="85"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="92"/>
       <c r="AE2" s="62" t="s">
         <v>30</v>
       </c>
@@ -9579,163 +9580,163 @@
   <sheetData>
     <row r="1" spans="1:144" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="122" t="s">
         <v>645</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="102" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="AP2" s="102"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
-      <c r="BJ2" s="102"/>
-      <c r="BK2" s="102"/>
-      <c r="BL2" s="102"/>
-      <c r="BM2" s="102"/>
-      <c r="BN2" s="102"/>
-      <c r="BO2" s="102"/>
-      <c r="BP2" s="102"/>
-      <c r="BQ2" s="102"/>
-      <c r="BR2" s="102"/>
-      <c r="BS2" s="102"/>
-      <c r="BT2" s="102"/>
-      <c r="BU2" s="102"/>
-      <c r="BV2" s="102"/>
-      <c r="BW2" s="102"/>
-      <c r="BX2" s="102"/>
-      <c r="BY2" s="102"/>
-      <c r="BZ2" s="102"/>
-      <c r="CA2" s="102"/>
-      <c r="CB2" s="102"/>
-      <c r="CC2" s="102"/>
-      <c r="CD2" s="102"/>
-      <c r="CE2" s="102"/>
-      <c r="CF2" s="102"/>
-      <c r="CG2" s="102"/>
-      <c r="CH2" s="102"/>
-      <c r="CI2" s="102"/>
-      <c r="CJ2" s="102"/>
-      <c r="CK2" s="102"/>
-      <c r="CL2" s="102"/>
-      <c r="CM2" s="102" t="s">
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AW2" s="93"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
+      <c r="BJ2" s="93"/>
+      <c r="BK2" s="93"/>
+      <c r="BL2" s="93"/>
+      <c r="BM2" s="93"/>
+      <c r="BN2" s="93"/>
+      <c r="BO2" s="93"/>
+      <c r="BP2" s="93"/>
+      <c r="BQ2" s="93"/>
+      <c r="BR2" s="93"/>
+      <c r="BS2" s="93"/>
+      <c r="BT2" s="93"/>
+      <c r="BU2" s="93"/>
+      <c r="BV2" s="93"/>
+      <c r="BW2" s="93"/>
+      <c r="BX2" s="93"/>
+      <c r="BY2" s="93"/>
+      <c r="BZ2" s="93"/>
+      <c r="CA2" s="93"/>
+      <c r="CB2" s="93"/>
+      <c r="CC2" s="93"/>
+      <c r="CD2" s="93"/>
+      <c r="CE2" s="93"/>
+      <c r="CF2" s="93"/>
+      <c r="CG2" s="93"/>
+      <c r="CH2" s="93"/>
+      <c r="CI2" s="93"/>
+      <c r="CJ2" s="93"/>
+      <c r="CK2" s="93"/>
+      <c r="CL2" s="93"/>
+      <c r="CM2" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="CN2" s="102"/>
-      <c r="CO2" s="102"/>
-      <c r="CP2" s="102"/>
-      <c r="CQ2" s="102"/>
-      <c r="CR2" s="102"/>
-      <c r="CS2" s="102"/>
-      <c r="CT2" s="102"/>
-      <c r="CU2" s="102"/>
-      <c r="CV2" s="102"/>
-      <c r="CW2" s="102"/>
-      <c r="CX2" s="102"/>
-      <c r="CY2" s="102"/>
-      <c r="CZ2" s="102"/>
-      <c r="DA2" s="102"/>
-      <c r="DB2" s="102"/>
-      <c r="DC2" s="102"/>
-      <c r="DD2" s="102"/>
-      <c r="DE2" s="102"/>
-      <c r="DF2" s="102"/>
-      <c r="DG2" s="102"/>
-      <c r="DH2" s="102"/>
-      <c r="DI2" s="102"/>
-      <c r="DJ2" s="102"/>
-      <c r="DK2" s="102"/>
-      <c r="DL2" s="102"/>
-      <c r="DM2" s="102"/>
-      <c r="DN2" s="102"/>
-      <c r="DO2" s="102"/>
-      <c r="DP2" s="102"/>
-      <c r="DQ2" s="102"/>
-      <c r="DR2" s="102"/>
-      <c r="DS2" s="102"/>
-      <c r="DT2" s="102"/>
-      <c r="DU2" s="102"/>
-      <c r="DV2" s="102"/>
-      <c r="DW2" s="102"/>
-      <c r="DX2" s="102"/>
-      <c r="DY2" s="102"/>
-      <c r="DZ2" s="102"/>
-      <c r="EA2" s="102"/>
-      <c r="EB2" s="102"/>
-      <c r="EC2" s="102"/>
-      <c r="ED2" s="102"/>
-      <c r="EE2" s="102"/>
-      <c r="EF2" s="102"/>
-      <c r="EG2" s="102"/>
-      <c r="EH2" s="102"/>
-      <c r="EI2" s="102"/>
-      <c r="EJ2" s="102"/>
-      <c r="EK2" s="102"/>
-      <c r="EL2" s="102"/>
-      <c r="EM2" s="102"/>
-      <c r="EN2" s="106"/>
+      <c r="CN2" s="93"/>
+      <c r="CO2" s="93"/>
+      <c r="CP2" s="93"/>
+      <c r="CQ2" s="93"/>
+      <c r="CR2" s="93"/>
+      <c r="CS2" s="93"/>
+      <c r="CT2" s="93"/>
+      <c r="CU2" s="93"/>
+      <c r="CV2" s="93"/>
+      <c r="CW2" s="93"/>
+      <c r="CX2" s="93"/>
+      <c r="CY2" s="93"/>
+      <c r="CZ2" s="93"/>
+      <c r="DA2" s="93"/>
+      <c r="DB2" s="93"/>
+      <c r="DC2" s="93"/>
+      <c r="DD2" s="93"/>
+      <c r="DE2" s="93"/>
+      <c r="DF2" s="93"/>
+      <c r="DG2" s="93"/>
+      <c r="DH2" s="93"/>
+      <c r="DI2" s="93"/>
+      <c r="DJ2" s="93"/>
+      <c r="DK2" s="93"/>
+      <c r="DL2" s="93"/>
+      <c r="DM2" s="93"/>
+      <c r="DN2" s="93"/>
+      <c r="DO2" s="93"/>
+      <c r="DP2" s="93"/>
+      <c r="DQ2" s="93"/>
+      <c r="DR2" s="93"/>
+      <c r="DS2" s="93"/>
+      <c r="DT2" s="93"/>
+      <c r="DU2" s="93"/>
+      <c r="DV2" s="93"/>
+      <c r="DW2" s="93"/>
+      <c r="DX2" s="93"/>
+      <c r="DY2" s="93"/>
+      <c r="DZ2" s="93"/>
+      <c r="EA2" s="93"/>
+      <c r="EB2" s="93"/>
+      <c r="EC2" s="93"/>
+      <c r="ED2" s="93"/>
+      <c r="EE2" s="93"/>
+      <c r="EF2" s="93"/>
+      <c r="EG2" s="93"/>
+      <c r="EH2" s="93"/>
+      <c r="EI2" s="93"/>
+      <c r="EJ2" s="93"/>
+      <c r="EK2" s="93"/>
+      <c r="EL2" s="93"/>
+      <c r="EM2" s="93"/>
+      <c r="EN2" s="94"/>
     </row>
     <row r="3" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A3" s="97"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="123"/>
       <c r="C3" s="1">
         <v>1</v>
@@ -10127,7 +10128,7 @@
       <c r="EN3" s="8"/>
     </row>
     <row r="4" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A4" s="97"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="123"/>
       <c r="C4" s="1">
         <v>2</v>
@@ -10437,7 +10438,7 @@
       <c r="EN4" s="8"/>
     </row>
     <row r="5" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="123"/>
       <c r="C5" s="1">
         <v>3</v>
@@ -10693,7 +10694,7 @@
       <c r="EN5" s="8"/>
     </row>
     <row r="6" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="123"/>
       <c r="C6" s="1">
         <v>4</v>
@@ -10909,7 +10910,7 @@
       <c r="EN6" s="8"/>
     </row>
     <row r="7" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A7" s="97"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="123"/>
       <c r="C7" s="1">
         <v>5</v>
@@ -11073,7 +11074,7 @@
       <c r="EN7" s="8"/>
     </row>
     <row r="8" spans="1:144" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="124"/>
       <c r="C8" s="32">
         <v>6</v>
@@ -11221,164 +11222,164 @@
       <c r="EN8" s="12"/>
     </row>
     <row r="9" spans="1:144" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="A9" s="99"/>
     </row>
     <row r="10" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A10" s="97"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="122" t="s">
         <v>646</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102" t="s">
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="102"/>
-      <c r="BI10" s="102"/>
-      <c r="BJ10" s="102"/>
-      <c r="BK10" s="102"/>
-      <c r="BL10" s="102"/>
-      <c r="BM10" s="102"/>
-      <c r="BN10" s="102"/>
-      <c r="BO10" s="102"/>
-      <c r="BP10" s="102"/>
-      <c r="BQ10" s="102"/>
-      <c r="BR10" s="102"/>
-      <c r="BS10" s="102"/>
-      <c r="BT10" s="102"/>
-      <c r="BU10" s="102"/>
-      <c r="BV10" s="102"/>
-      <c r="BW10" s="102"/>
-      <c r="BX10" s="102"/>
-      <c r="BY10" s="102"/>
-      <c r="BZ10" s="102"/>
-      <c r="CA10" s="102"/>
-      <c r="CB10" s="102"/>
-      <c r="CC10" s="102"/>
-      <c r="CD10" s="102"/>
-      <c r="CE10" s="102"/>
-      <c r="CF10" s="102"/>
-      <c r="CG10" s="102"/>
-      <c r="CH10" s="102"/>
-      <c r="CI10" s="102"/>
-      <c r="CJ10" s="102"/>
-      <c r="CK10" s="102"/>
-      <c r="CL10" s="102"/>
-      <c r="CM10" s="102" t="s">
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="93"/>
+      <c r="AW10" s="93"/>
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="93"/>
+      <c r="BA10" s="93"/>
+      <c r="BB10" s="93"/>
+      <c r="BC10" s="93"/>
+      <c r="BD10" s="93"/>
+      <c r="BE10" s="93"/>
+      <c r="BF10" s="93"/>
+      <c r="BG10" s="93"/>
+      <c r="BH10" s="93"/>
+      <c r="BI10" s="93"/>
+      <c r="BJ10" s="93"/>
+      <c r="BK10" s="93"/>
+      <c r="BL10" s="93"/>
+      <c r="BM10" s="93"/>
+      <c r="BN10" s="93"/>
+      <c r="BO10" s="93"/>
+      <c r="BP10" s="93"/>
+      <c r="BQ10" s="93"/>
+      <c r="BR10" s="93"/>
+      <c r="BS10" s="93"/>
+      <c r="BT10" s="93"/>
+      <c r="BU10" s="93"/>
+      <c r="BV10" s="93"/>
+      <c r="BW10" s="93"/>
+      <c r="BX10" s="93"/>
+      <c r="BY10" s="93"/>
+      <c r="BZ10" s="93"/>
+      <c r="CA10" s="93"/>
+      <c r="CB10" s="93"/>
+      <c r="CC10" s="93"/>
+      <c r="CD10" s="93"/>
+      <c r="CE10" s="93"/>
+      <c r="CF10" s="93"/>
+      <c r="CG10" s="93"/>
+      <c r="CH10" s="93"/>
+      <c r="CI10" s="93"/>
+      <c r="CJ10" s="93"/>
+      <c r="CK10" s="93"/>
+      <c r="CL10" s="93"/>
+      <c r="CM10" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="CN10" s="102"/>
-      <c r="CO10" s="102"/>
-      <c r="CP10" s="102"/>
-      <c r="CQ10" s="102"/>
-      <c r="CR10" s="102"/>
-      <c r="CS10" s="102"/>
-      <c r="CT10" s="102"/>
-      <c r="CU10" s="102"/>
-      <c r="CV10" s="102"/>
-      <c r="CW10" s="102"/>
-      <c r="CX10" s="102"/>
-      <c r="CY10" s="102"/>
-      <c r="CZ10" s="102"/>
-      <c r="DA10" s="102"/>
-      <c r="DB10" s="102"/>
-      <c r="DC10" s="102"/>
-      <c r="DD10" s="102"/>
-      <c r="DE10" s="102"/>
-      <c r="DF10" s="102"/>
-      <c r="DG10" s="102"/>
-      <c r="DH10" s="102"/>
-      <c r="DI10" s="102"/>
-      <c r="DJ10" s="102"/>
-      <c r="DK10" s="102"/>
-      <c r="DL10" s="102"/>
-      <c r="DM10" s="102"/>
-      <c r="DN10" s="102"/>
-      <c r="DO10" s="102"/>
-      <c r="DP10" s="102"/>
-      <c r="DQ10" s="102"/>
-      <c r="DR10" s="102"/>
-      <c r="DS10" s="102"/>
-      <c r="DT10" s="102"/>
-      <c r="DU10" s="102"/>
-      <c r="DV10" s="102"/>
-      <c r="DW10" s="102"/>
-      <c r="DX10" s="102"/>
-      <c r="DY10" s="102"/>
-      <c r="DZ10" s="102"/>
-      <c r="EA10" s="102"/>
-      <c r="EB10" s="102"/>
-      <c r="EC10" s="102"/>
-      <c r="ED10" s="102"/>
-      <c r="EE10" s="102"/>
-      <c r="EF10" s="102"/>
-      <c r="EG10" s="102"/>
-      <c r="EH10" s="102"/>
-      <c r="EI10" s="102"/>
-      <c r="EJ10" s="102"/>
-      <c r="EK10" s="102"/>
-      <c r="EL10" s="102"/>
-      <c r="EM10" s="102"/>
-      <c r="EN10" s="106"/>
+      <c r="CN10" s="93"/>
+      <c r="CO10" s="93"/>
+      <c r="CP10" s="93"/>
+      <c r="CQ10" s="93"/>
+      <c r="CR10" s="93"/>
+      <c r="CS10" s="93"/>
+      <c r="CT10" s="93"/>
+      <c r="CU10" s="93"/>
+      <c r="CV10" s="93"/>
+      <c r="CW10" s="93"/>
+      <c r="CX10" s="93"/>
+      <c r="CY10" s="93"/>
+      <c r="CZ10" s="93"/>
+      <c r="DA10" s="93"/>
+      <c r="DB10" s="93"/>
+      <c r="DC10" s="93"/>
+      <c r="DD10" s="93"/>
+      <c r="DE10" s="93"/>
+      <c r="DF10" s="93"/>
+      <c r="DG10" s="93"/>
+      <c r="DH10" s="93"/>
+      <c r="DI10" s="93"/>
+      <c r="DJ10" s="93"/>
+      <c r="DK10" s="93"/>
+      <c r="DL10" s="93"/>
+      <c r="DM10" s="93"/>
+      <c r="DN10" s="93"/>
+      <c r="DO10" s="93"/>
+      <c r="DP10" s="93"/>
+      <c r="DQ10" s="93"/>
+      <c r="DR10" s="93"/>
+      <c r="DS10" s="93"/>
+      <c r="DT10" s="93"/>
+      <c r="DU10" s="93"/>
+      <c r="DV10" s="93"/>
+      <c r="DW10" s="93"/>
+      <c r="DX10" s="93"/>
+      <c r="DY10" s="93"/>
+      <c r="DZ10" s="93"/>
+      <c r="EA10" s="93"/>
+      <c r="EB10" s="93"/>
+      <c r="EC10" s="93"/>
+      <c r="ED10" s="93"/>
+      <c r="EE10" s="93"/>
+      <c r="EF10" s="93"/>
+      <c r="EG10" s="93"/>
+      <c r="EH10" s="93"/>
+      <c r="EI10" s="93"/>
+      <c r="EJ10" s="93"/>
+      <c r="EK10" s="93"/>
+      <c r="EL10" s="93"/>
+      <c r="EM10" s="93"/>
+      <c r="EN10" s="94"/>
     </row>
     <row r="11" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A11" s="97"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="123"/>
       <c r="C11" s="1">
         <v>1</v>
@@ -11796,7 +11797,7 @@
       </c>
     </row>
     <row r="12" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A12" s="97"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="123"/>
       <c r="C12" s="1">
         <v>2</v>
@@ -12192,7 +12193,7 @@
       </c>
     </row>
     <row r="13" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A13" s="97"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="123"/>
       <c r="C13" s="1">
         <v>3</v>
@@ -12494,7 +12495,7 @@
       <c r="EN13" s="8"/>
     </row>
     <row r="14" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="123"/>
       <c r="C14" s="1">
         <v>4</v>
@@ -12724,7 +12725,7 @@
       <c r="EN14" s="8"/>
     </row>
     <row r="15" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="123"/>
       <c r="C15" s="1">
         <v>5</v>
@@ -12916,7 +12917,7 @@
       <c r="EN15" s="8"/>
     </row>
     <row r="16" spans="1:144" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="124"/>
       <c r="C16" s="32">
         <v>6</v>
@@ -13064,164 +13065,164 @@
       <c r="EN16" s="12"/>
     </row>
     <row r="17" spans="1:144" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
+      <c r="A17" s="99"/>
     </row>
     <row r="18" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A18" s="97"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="122" t="s">
         <v>647</v>
       </c>
       <c r="C18" s="30"/>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="102"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="102"/>
-      <c r="AE18" s="102"/>
-      <c r="AF18" s="102"/>
-      <c r="AG18" s="102"/>
-      <c r="AH18" s="102"/>
-      <c r="AI18" s="102"/>
-      <c r="AJ18" s="102"/>
-      <c r="AK18" s="102"/>
-      <c r="AL18" s="102"/>
-      <c r="AM18" s="102"/>
-      <c r="AN18" s="102"/>
-      <c r="AO18" s="102" t="s">
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="93"/>
+      <c r="AH18" s="93"/>
+      <c r="AI18" s="93"/>
+      <c r="AJ18" s="93"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
+      <c r="AO18" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="AP18" s="102"/>
-      <c r="AQ18" s="102"/>
-      <c r="AR18" s="102"/>
-      <c r="AS18" s="102"/>
-      <c r="AT18" s="102"/>
-      <c r="AU18" s="102"/>
-      <c r="AV18" s="102"/>
-      <c r="AW18" s="102"/>
-      <c r="AX18" s="102"/>
-      <c r="AY18" s="102"/>
-      <c r="AZ18" s="102"/>
-      <c r="BA18" s="102"/>
-      <c r="BB18" s="102"/>
-      <c r="BC18" s="102"/>
-      <c r="BD18" s="102"/>
-      <c r="BE18" s="102"/>
-      <c r="BF18" s="102"/>
-      <c r="BG18" s="102"/>
-      <c r="BH18" s="102"/>
-      <c r="BI18" s="102"/>
-      <c r="BJ18" s="102"/>
-      <c r="BK18" s="102"/>
-      <c r="BL18" s="102"/>
-      <c r="BM18" s="102"/>
-      <c r="BN18" s="102"/>
-      <c r="BO18" s="102"/>
-      <c r="BP18" s="102"/>
-      <c r="BQ18" s="102"/>
-      <c r="BR18" s="102"/>
-      <c r="BS18" s="102"/>
-      <c r="BT18" s="102"/>
-      <c r="BU18" s="102"/>
-      <c r="BV18" s="102"/>
-      <c r="BW18" s="102"/>
-      <c r="BX18" s="102"/>
-      <c r="BY18" s="102"/>
-      <c r="BZ18" s="102"/>
-      <c r="CA18" s="102"/>
-      <c r="CB18" s="102"/>
-      <c r="CC18" s="102"/>
-      <c r="CD18" s="102"/>
-      <c r="CE18" s="102"/>
-      <c r="CF18" s="102"/>
-      <c r="CG18" s="102"/>
-      <c r="CH18" s="102"/>
-      <c r="CI18" s="102"/>
-      <c r="CJ18" s="102"/>
-      <c r="CK18" s="102"/>
-      <c r="CL18" s="102"/>
-      <c r="CM18" s="102" t="s">
+      <c r="AP18" s="93"/>
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="93"/>
+      <c r="AS18" s="93"/>
+      <c r="AT18" s="93"/>
+      <c r="AU18" s="93"/>
+      <c r="AV18" s="93"/>
+      <c r="AW18" s="93"/>
+      <c r="AX18" s="93"/>
+      <c r="AY18" s="93"/>
+      <c r="AZ18" s="93"/>
+      <c r="BA18" s="93"/>
+      <c r="BB18" s="93"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="93"/>
+      <c r="BE18" s="93"/>
+      <c r="BF18" s="93"/>
+      <c r="BG18" s="93"/>
+      <c r="BH18" s="93"/>
+      <c r="BI18" s="93"/>
+      <c r="BJ18" s="93"/>
+      <c r="BK18" s="93"/>
+      <c r="BL18" s="93"/>
+      <c r="BM18" s="93"/>
+      <c r="BN18" s="93"/>
+      <c r="BO18" s="93"/>
+      <c r="BP18" s="93"/>
+      <c r="BQ18" s="93"/>
+      <c r="BR18" s="93"/>
+      <c r="BS18" s="93"/>
+      <c r="BT18" s="93"/>
+      <c r="BU18" s="93"/>
+      <c r="BV18" s="93"/>
+      <c r="BW18" s="93"/>
+      <c r="BX18" s="93"/>
+      <c r="BY18" s="93"/>
+      <c r="BZ18" s="93"/>
+      <c r="CA18" s="93"/>
+      <c r="CB18" s="93"/>
+      <c r="CC18" s="93"/>
+      <c r="CD18" s="93"/>
+      <c r="CE18" s="93"/>
+      <c r="CF18" s="93"/>
+      <c r="CG18" s="93"/>
+      <c r="CH18" s="93"/>
+      <c r="CI18" s="93"/>
+      <c r="CJ18" s="93"/>
+      <c r="CK18" s="93"/>
+      <c r="CL18" s="93"/>
+      <c r="CM18" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="CN18" s="102"/>
-      <c r="CO18" s="102"/>
-      <c r="CP18" s="102"/>
-      <c r="CQ18" s="102"/>
-      <c r="CR18" s="102"/>
-      <c r="CS18" s="102"/>
-      <c r="CT18" s="102"/>
-      <c r="CU18" s="102"/>
-      <c r="CV18" s="102"/>
-      <c r="CW18" s="102"/>
-      <c r="CX18" s="102"/>
-      <c r="CY18" s="102"/>
-      <c r="CZ18" s="102"/>
-      <c r="DA18" s="102"/>
-      <c r="DB18" s="102"/>
-      <c r="DC18" s="102"/>
-      <c r="DD18" s="102"/>
-      <c r="DE18" s="102"/>
-      <c r="DF18" s="102"/>
-      <c r="DG18" s="102"/>
-      <c r="DH18" s="102"/>
-      <c r="DI18" s="102"/>
-      <c r="DJ18" s="102"/>
-      <c r="DK18" s="102"/>
-      <c r="DL18" s="102"/>
-      <c r="DM18" s="102"/>
-      <c r="DN18" s="102"/>
-      <c r="DO18" s="102"/>
-      <c r="DP18" s="102"/>
-      <c r="DQ18" s="102"/>
-      <c r="DR18" s="102"/>
-      <c r="DS18" s="102"/>
-      <c r="DT18" s="102"/>
-      <c r="DU18" s="102"/>
-      <c r="DV18" s="102"/>
-      <c r="DW18" s="102"/>
-      <c r="DX18" s="102"/>
-      <c r="DY18" s="102"/>
-      <c r="DZ18" s="102"/>
-      <c r="EA18" s="102"/>
-      <c r="EB18" s="102"/>
-      <c r="EC18" s="102"/>
-      <c r="ED18" s="102"/>
-      <c r="EE18" s="102"/>
-      <c r="EF18" s="102"/>
-      <c r="EG18" s="102"/>
-      <c r="EH18" s="102"/>
-      <c r="EI18" s="102"/>
-      <c r="EJ18" s="102"/>
-      <c r="EK18" s="102"/>
-      <c r="EL18" s="102"/>
-      <c r="EM18" s="102"/>
-      <c r="EN18" s="106"/>
+      <c r="CN18" s="93"/>
+      <c r="CO18" s="93"/>
+      <c r="CP18" s="93"/>
+      <c r="CQ18" s="93"/>
+      <c r="CR18" s="93"/>
+      <c r="CS18" s="93"/>
+      <c r="CT18" s="93"/>
+      <c r="CU18" s="93"/>
+      <c r="CV18" s="93"/>
+      <c r="CW18" s="93"/>
+      <c r="CX18" s="93"/>
+      <c r="CY18" s="93"/>
+      <c r="CZ18" s="93"/>
+      <c r="DA18" s="93"/>
+      <c r="DB18" s="93"/>
+      <c r="DC18" s="93"/>
+      <c r="DD18" s="93"/>
+      <c r="DE18" s="93"/>
+      <c r="DF18" s="93"/>
+      <c r="DG18" s="93"/>
+      <c r="DH18" s="93"/>
+      <c r="DI18" s="93"/>
+      <c r="DJ18" s="93"/>
+      <c r="DK18" s="93"/>
+      <c r="DL18" s="93"/>
+      <c r="DM18" s="93"/>
+      <c r="DN18" s="93"/>
+      <c r="DO18" s="93"/>
+      <c r="DP18" s="93"/>
+      <c r="DQ18" s="93"/>
+      <c r="DR18" s="93"/>
+      <c r="DS18" s="93"/>
+      <c r="DT18" s="93"/>
+      <c r="DU18" s="93"/>
+      <c r="DV18" s="93"/>
+      <c r="DW18" s="93"/>
+      <c r="DX18" s="93"/>
+      <c r="DY18" s="93"/>
+      <c r="DZ18" s="93"/>
+      <c r="EA18" s="93"/>
+      <c r="EB18" s="93"/>
+      <c r="EC18" s="93"/>
+      <c r="ED18" s="93"/>
+      <c r="EE18" s="93"/>
+      <c r="EF18" s="93"/>
+      <c r="EG18" s="93"/>
+      <c r="EH18" s="93"/>
+      <c r="EI18" s="93"/>
+      <c r="EJ18" s="93"/>
+      <c r="EK18" s="93"/>
+      <c r="EL18" s="93"/>
+      <c r="EM18" s="93"/>
+      <c r="EN18" s="94"/>
     </row>
     <row r="19" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A19" s="97"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="123"/>
       <c r="C19" s="1">
         <v>1</v>
@@ -13565,7 +13566,7 @@
       <c r="EN19" s="8"/>
     </row>
     <row r="20" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A20" s="97"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="123"/>
       <c r="C20" s="1">
         <v>2</v>
@@ -13871,7 +13872,7 @@
       <c r="EN20" s="8"/>
     </row>
     <row r="21" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A21" s="97"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="123"/>
       <c r="C21" s="1">
         <v>3</v>
@@ -14107,7 +14108,7 @@
       <c r="EN21" s="8"/>
     </row>
     <row r="22" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A22" s="97"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="123"/>
       <c r="C22" s="1">
         <v>4</v>
@@ -14307,7 +14308,7 @@
       <c r="EN22" s="8"/>
     </row>
     <row r="23" spans="1:144" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="124"/>
       <c r="C23" s="32">
         <v>5</v>
@@ -14469,164 +14470,164 @@
       <c r="EN23" s="12"/>
     </row>
     <row r="24" spans="1:144" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
+      <c r="A24" s="99"/>
     </row>
     <row r="25" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A25" s="97"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="122" t="s">
         <v>648</v>
       </c>
       <c r="C25" s="30"/>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="93" t="s">
         <v>296</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="102"/>
-      <c r="W25" s="102"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="102"/>
-      <c r="Z25" s="102"/>
-      <c r="AA25" s="102"/>
-      <c r="AB25" s="102"/>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="102"/>
-      <c r="AE25" s="102"/>
-      <c r="AF25" s="102"/>
-      <c r="AG25" s="102"/>
-      <c r="AH25" s="102"/>
-      <c r="AI25" s="102"/>
-      <c r="AJ25" s="102"/>
-      <c r="AK25" s="102"/>
-      <c r="AL25" s="102"/>
-      <c r="AM25" s="102"/>
-      <c r="AN25" s="102"/>
-      <c r="AO25" s="102" t="s">
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="93"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="93"/>
+      <c r="AG25" s="93"/>
+      <c r="AH25" s="93"/>
+      <c r="AI25" s="93"/>
+      <c r="AJ25" s="93"/>
+      <c r="AK25" s="93"/>
+      <c r="AL25" s="93"/>
+      <c r="AM25" s="93"/>
+      <c r="AN25" s="93"/>
+      <c r="AO25" s="93" t="s">
         <v>297</v>
       </c>
-      <c r="AP25" s="102"/>
-      <c r="AQ25" s="102"/>
-      <c r="AR25" s="102"/>
-      <c r="AS25" s="102"/>
-      <c r="AT25" s="102"/>
-      <c r="AU25" s="102"/>
-      <c r="AV25" s="102"/>
-      <c r="AW25" s="102"/>
-      <c r="AX25" s="102"/>
-      <c r="AY25" s="102"/>
-      <c r="AZ25" s="102"/>
-      <c r="BA25" s="102"/>
-      <c r="BB25" s="102"/>
-      <c r="BC25" s="102"/>
-      <c r="BD25" s="102"/>
-      <c r="BE25" s="102"/>
-      <c r="BF25" s="102"/>
-      <c r="BG25" s="102"/>
-      <c r="BH25" s="102"/>
-      <c r="BI25" s="102"/>
-      <c r="BJ25" s="102"/>
-      <c r="BK25" s="102"/>
-      <c r="BL25" s="102"/>
-      <c r="BM25" s="102"/>
-      <c r="BN25" s="102"/>
-      <c r="BO25" s="102"/>
-      <c r="BP25" s="102"/>
-      <c r="BQ25" s="102"/>
-      <c r="BR25" s="102"/>
-      <c r="BS25" s="102"/>
-      <c r="BT25" s="102"/>
-      <c r="BU25" s="102"/>
-      <c r="BV25" s="102"/>
-      <c r="BW25" s="102"/>
-      <c r="BX25" s="102"/>
-      <c r="BY25" s="102"/>
-      <c r="BZ25" s="102"/>
-      <c r="CA25" s="102"/>
-      <c r="CB25" s="102"/>
-      <c r="CC25" s="102"/>
-      <c r="CD25" s="102"/>
-      <c r="CE25" s="102"/>
-      <c r="CF25" s="102"/>
-      <c r="CG25" s="102"/>
-      <c r="CH25" s="102"/>
-      <c r="CI25" s="102"/>
-      <c r="CJ25" s="102"/>
-      <c r="CK25" s="102"/>
-      <c r="CL25" s="102"/>
-      <c r="CM25" s="102" t="s">
+      <c r="AP25" s="93"/>
+      <c r="AQ25" s="93"/>
+      <c r="AR25" s="93"/>
+      <c r="AS25" s="93"/>
+      <c r="AT25" s="93"/>
+      <c r="AU25" s="93"/>
+      <c r="AV25" s="93"/>
+      <c r="AW25" s="93"/>
+      <c r="AX25" s="93"/>
+      <c r="AY25" s="93"/>
+      <c r="AZ25" s="93"/>
+      <c r="BA25" s="93"/>
+      <c r="BB25" s="93"/>
+      <c r="BC25" s="93"/>
+      <c r="BD25" s="93"/>
+      <c r="BE25" s="93"/>
+      <c r="BF25" s="93"/>
+      <c r="BG25" s="93"/>
+      <c r="BH25" s="93"/>
+      <c r="BI25" s="93"/>
+      <c r="BJ25" s="93"/>
+      <c r="BK25" s="93"/>
+      <c r="BL25" s="93"/>
+      <c r="BM25" s="93"/>
+      <c r="BN25" s="93"/>
+      <c r="BO25" s="93"/>
+      <c r="BP25" s="93"/>
+      <c r="BQ25" s="93"/>
+      <c r="BR25" s="93"/>
+      <c r="BS25" s="93"/>
+      <c r="BT25" s="93"/>
+      <c r="BU25" s="93"/>
+      <c r="BV25" s="93"/>
+      <c r="BW25" s="93"/>
+      <c r="BX25" s="93"/>
+      <c r="BY25" s="93"/>
+      <c r="BZ25" s="93"/>
+      <c r="CA25" s="93"/>
+      <c r="CB25" s="93"/>
+      <c r="CC25" s="93"/>
+      <c r="CD25" s="93"/>
+      <c r="CE25" s="93"/>
+      <c r="CF25" s="93"/>
+      <c r="CG25" s="93"/>
+      <c r="CH25" s="93"/>
+      <c r="CI25" s="93"/>
+      <c r="CJ25" s="93"/>
+      <c r="CK25" s="93"/>
+      <c r="CL25" s="93"/>
+      <c r="CM25" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="CN25" s="102"/>
-      <c r="CO25" s="102"/>
-      <c r="CP25" s="102"/>
-      <c r="CQ25" s="102"/>
-      <c r="CR25" s="102"/>
-      <c r="CS25" s="102"/>
-      <c r="CT25" s="102"/>
-      <c r="CU25" s="102"/>
-      <c r="CV25" s="102"/>
-      <c r="CW25" s="102"/>
-      <c r="CX25" s="102"/>
-      <c r="CY25" s="102"/>
-      <c r="CZ25" s="102"/>
-      <c r="DA25" s="102"/>
-      <c r="DB25" s="102"/>
-      <c r="DC25" s="102"/>
-      <c r="DD25" s="102"/>
-      <c r="DE25" s="102"/>
-      <c r="DF25" s="102"/>
-      <c r="DG25" s="102"/>
-      <c r="DH25" s="102"/>
-      <c r="DI25" s="102"/>
-      <c r="DJ25" s="102"/>
-      <c r="DK25" s="102"/>
-      <c r="DL25" s="102"/>
-      <c r="DM25" s="102"/>
-      <c r="DN25" s="102"/>
-      <c r="DO25" s="102"/>
-      <c r="DP25" s="102"/>
-      <c r="DQ25" s="102"/>
-      <c r="DR25" s="102"/>
-      <c r="DS25" s="102"/>
-      <c r="DT25" s="102"/>
-      <c r="DU25" s="102"/>
-      <c r="DV25" s="102"/>
-      <c r="DW25" s="102"/>
-      <c r="DX25" s="102"/>
-      <c r="DY25" s="102"/>
-      <c r="DZ25" s="102"/>
-      <c r="EA25" s="102"/>
-      <c r="EB25" s="102"/>
-      <c r="EC25" s="102"/>
-      <c r="ED25" s="102"/>
-      <c r="EE25" s="102"/>
-      <c r="EF25" s="102"/>
-      <c r="EG25" s="102"/>
-      <c r="EH25" s="102"/>
-      <c r="EI25" s="102"/>
-      <c r="EJ25" s="102"/>
-      <c r="EK25" s="102"/>
-      <c r="EL25" s="102"/>
-      <c r="EM25" s="102"/>
-      <c r="EN25" s="106"/>
+      <c r="CN25" s="93"/>
+      <c r="CO25" s="93"/>
+      <c r="CP25" s="93"/>
+      <c r="CQ25" s="93"/>
+      <c r="CR25" s="93"/>
+      <c r="CS25" s="93"/>
+      <c r="CT25" s="93"/>
+      <c r="CU25" s="93"/>
+      <c r="CV25" s="93"/>
+      <c r="CW25" s="93"/>
+      <c r="CX25" s="93"/>
+      <c r="CY25" s="93"/>
+      <c r="CZ25" s="93"/>
+      <c r="DA25" s="93"/>
+      <c r="DB25" s="93"/>
+      <c r="DC25" s="93"/>
+      <c r="DD25" s="93"/>
+      <c r="DE25" s="93"/>
+      <c r="DF25" s="93"/>
+      <c r="DG25" s="93"/>
+      <c r="DH25" s="93"/>
+      <c r="DI25" s="93"/>
+      <c r="DJ25" s="93"/>
+      <c r="DK25" s="93"/>
+      <c r="DL25" s="93"/>
+      <c r="DM25" s="93"/>
+      <c r="DN25" s="93"/>
+      <c r="DO25" s="93"/>
+      <c r="DP25" s="93"/>
+      <c r="DQ25" s="93"/>
+      <c r="DR25" s="93"/>
+      <c r="DS25" s="93"/>
+      <c r="DT25" s="93"/>
+      <c r="DU25" s="93"/>
+      <c r="DV25" s="93"/>
+      <c r="DW25" s="93"/>
+      <c r="DX25" s="93"/>
+      <c r="DY25" s="93"/>
+      <c r="DZ25" s="93"/>
+      <c r="EA25" s="93"/>
+      <c r="EB25" s="93"/>
+      <c r="EC25" s="93"/>
+      <c r="ED25" s="93"/>
+      <c r="EE25" s="93"/>
+      <c r="EF25" s="93"/>
+      <c r="EG25" s="93"/>
+      <c r="EH25" s="93"/>
+      <c r="EI25" s="93"/>
+      <c r="EJ25" s="93"/>
+      <c r="EK25" s="93"/>
+      <c r="EL25" s="93"/>
+      <c r="EM25" s="93"/>
+      <c r="EN25" s="94"/>
     </row>
     <row r="26" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A26" s="97"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="123"/>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -15018,7 +15019,7 @@
       <c r="EN26" s="8"/>
     </row>
     <row r="27" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A27" s="97"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="123"/>
       <c r="C27" s="1" t="s">
         <v>1</v>
@@ -15436,7 +15437,7 @@
       </c>
     </row>
     <row r="28" spans="1:144" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="124"/>
       <c r="C28" s="32" t="s">
         <v>2</v>
@@ -15781,7 +15782,7 @@
     </row>
     <row r="29" spans="1:144" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="104" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="119" t="s">
@@ -15802,7 +15803,7 @@
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A31" s="104"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="120"/>
       <c r="C31" s="5"/>
       <c r="D31" s="2"/>
@@ -15813,7 +15814,7 @@
       <c r="K31" s="6"/>
     </row>
     <row r="32" spans="1:144" x14ac:dyDescent="0.2">
-      <c r="A32" s="104"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="120"/>
       <c r="C32" s="5" t="s">
         <v>92</v>
@@ -15828,7 +15829,7 @@
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="120"/>
       <c r="C33" s="5" t="s">
         <v>5</v>
@@ -15843,7 +15844,7 @@
       <c r="K33" s="6"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="120"/>
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
@@ -15854,7 +15855,7 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="120"/>
       <c r="C35" s="5" t="s">
         <v>94</v>
@@ -15875,7 +15876,7 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="104"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="120"/>
       <c r="C36" s="5" t="s">
         <v>96</v>
@@ -15896,7 +15897,7 @@
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="104"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="120"/>
       <c r="C37" s="5" t="s">
         <v>99</v>
@@ -15917,7 +15918,7 @@
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="104"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="120"/>
       <c r="C38" s="5" t="s">
         <v>574</v>
@@ -15938,7 +15939,7 @@
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="104"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="120"/>
       <c r="C39" s="5"/>
       <c r="D39" s="2"/>
@@ -15949,7 +15950,7 @@
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="104"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="120"/>
       <c r="C40" s="5" t="s">
         <v>100</v>
@@ -15972,7 +15973,7 @@
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="104"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="120"/>
       <c r="C41" s="5" t="s">
         <v>96</v>
@@ -15995,7 +15996,7 @@
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="104"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="120"/>
       <c r="C42" s="5" t="s">
         <v>99</v>
@@ -16018,7 +16019,7 @@
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="104"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="120"/>
       <c r="C43" s="5" t="s">
         <v>574</v>
@@ -16041,7 +16042,7 @@
       <c r="K43" s="6"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="104"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="120"/>
       <c r="C44" s="5" t="s">
         <v>111</v>
@@ -16060,7 +16061,7 @@
       <c r="K44" s="6"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="104"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="120"/>
       <c r="C45" s="5"/>
       <c r="D45" s="2"/>
@@ -16071,7 +16072,7 @@
       <c r="K45" s="6"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="104"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="120"/>
       <c r="C46" s="5" t="s">
         <v>41</v>
@@ -16084,7 +16085,7 @@
       <c r="K46" s="6"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="104"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="120"/>
       <c r="C47" s="5" t="s">
         <v>630</v>
@@ -16099,7 +16100,7 @@
       <c r="K47" s="6"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="104"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="120"/>
       <c r="C48" s="5" t="s">
         <v>203</v>
@@ -16114,7 +16115,7 @@
       <c r="K48" s="6"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="104"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="120"/>
       <c r="C49" s="5" t="s">
         <v>132</v>
@@ -16129,7 +16130,7 @@
       <c r="K49" s="6"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="104"/>
+      <c r="A50" s="105"/>
       <c r="B50" s="120"/>
       <c r="C50" s="18"/>
       <c r="D50" s="3"/>
@@ -16142,7 +16143,7 @@
       <c r="K50" s="19"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="104"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="120"/>
       <c r="C51" s="5" t="s">
         <v>612</v>
@@ -16157,7 +16158,7 @@
       <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="104"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="120"/>
       <c r="C52" s="5"/>
       <c r="D52" s="2"/>
@@ -16170,7 +16171,7 @@
       <c r="K52" s="8"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="104"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="120"/>
       <c r="C53" s="5" t="s">
         <v>3</v>
@@ -16187,7 +16188,7 @@
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="104"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="120"/>
       <c r="C54" s="5" t="s">
         <v>4</v>
@@ -16204,7 +16205,7 @@
       <c r="K54" s="8"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="104"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="120"/>
       <c r="C55" s="5" t="s">
         <v>5</v>
@@ -16221,7 +16222,7 @@
       <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="104"/>
+      <c r="A56" s="105"/>
       <c r="B56" s="120"/>
       <c r="C56" s="5"/>
       <c r="D56" s="2"/>
@@ -16234,7 +16235,7 @@
       <c r="K56" s="8"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="104"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="120"/>
       <c r="C57" s="5" t="s">
         <v>205</v>
@@ -16259,7 +16260,7 @@
       <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="104"/>
+      <c r="A58" s="105"/>
       <c r="B58" s="120"/>
       <c r="C58" s="5"/>
       <c r="D58" s="2"/>
@@ -16272,7 +16273,7 @@
       <c r="K58" s="8"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="104"/>
+      <c r="A59" s="105"/>
       <c r="B59" s="120"/>
       <c r="C59" s="5" t="s">
         <v>0</v>
@@ -16287,7 +16288,7 @@
       <c r="K59" s="8"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="104"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="120"/>
       <c r="C60" s="5" t="s">
         <v>600</v>
@@ -16312,7 +16313,7 @@
       <c r="K60" s="8"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="104"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="120"/>
       <c r="C61" s="5" t="s">
         <v>602</v>
@@ -16337,7 +16338,7 @@
       <c r="K61" s="8"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="104"/>
+      <c r="A62" s="105"/>
       <c r="B62" s="120"/>
       <c r="C62" s="5" t="s">
         <v>604</v>
@@ -16362,7 +16363,7 @@
       <c r="K62" s="8"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="104"/>
+      <c r="A63" s="105"/>
       <c r="B63" s="120"/>
       <c r="C63" s="5"/>
       <c r="D63" s="2"/>
@@ -16375,7 +16376,7 @@
       <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="104"/>
+      <c r="A64" s="105"/>
       <c r="B64" s="120"/>
       <c r="C64" s="5" t="s">
         <v>1</v>
@@ -16390,7 +16391,7 @@
       <c r="K64" s="8"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="104"/>
+      <c r="A65" s="105"/>
       <c r="B65" s="120"/>
       <c r="C65" s="5" t="s">
         <v>600</v>
@@ -16415,7 +16416,7 @@
       <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="104"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="120"/>
       <c r="C66" s="5" t="s">
         <v>602</v>
@@ -16440,7 +16441,7 @@
       <c r="K66" s="8"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="104"/>
+      <c r="A67" s="105"/>
       <c r="B67" s="120"/>
       <c r="C67" s="5" t="s">
         <v>604</v>
@@ -16465,7 +16466,7 @@
       <c r="K67" s="8"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="104"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="120"/>
       <c r="C68" s="5"/>
       <c r="D68" s="2"/>
@@ -16478,7 +16479,7 @@
       <c r="K68" s="8"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="104"/>
+      <c r="A69" s="105"/>
       <c r="B69" s="120"/>
       <c r="C69" s="5" t="s">
         <v>2</v>
@@ -16493,7 +16494,7 @@
       <c r="K69" s="8"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="104"/>
+      <c r="A70" s="105"/>
       <c r="B70" s="120"/>
       <c r="C70" s="5" t="s">
         <v>600</v>
@@ -16518,7 +16519,7 @@
       <c r="K70" s="8"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="104"/>
+      <c r="A71" s="105"/>
       <c r="B71" s="120"/>
       <c r="C71" s="5" t="s">
         <v>602</v>
@@ -16543,7 +16544,7 @@
       <c r="K71" s="8"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="104"/>
+      <c r="A72" s="105"/>
       <c r="B72" s="120"/>
       <c r="C72" s="5" t="s">
         <v>604</v>
@@ -16568,7 +16569,7 @@
       <c r="K72" s="8"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="104"/>
+      <c r="A73" s="105"/>
       <c r="B73" s="120"/>
       <c r="C73" s="5"/>
       <c r="D73" s="2"/>
@@ -16581,7 +16582,7 @@
       <c r="K73" s="8"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="104"/>
+      <c r="A74" s="105"/>
       <c r="B74" s="120"/>
       <c r="C74" s="5"/>
       <c r="D74" s="2"/>
@@ -16594,7 +16595,7 @@
       <c r="K74" s="8"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="104"/>
+      <c r="A75" s="105"/>
       <c r="B75" s="120"/>
       <c r="C75" s="5" t="s">
         <v>20</v>
@@ -16625,7 +16626,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="104"/>
+      <c r="A76" s="105"/>
       <c r="B76" s="120"/>
       <c r="C76" s="5"/>
       <c r="D76" s="2"/>
@@ -16638,7 +16639,7 @@
       <c r="K76" s="8"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="104"/>
+      <c r="A77" s="105"/>
       <c r="B77" s="120"/>
       <c r="C77" s="5" t="s">
         <v>0</v>
@@ -16653,7 +16654,7 @@
       <c r="K77" s="8"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="104"/>
+      <c r="A78" s="105"/>
       <c r="B78" s="120"/>
       <c r="C78" s="5" t="s">
         <v>600</v>
@@ -16684,7 +16685,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="104"/>
+      <c r="A79" s="105"/>
       <c r="B79" s="120"/>
       <c r="C79" s="5" t="s">
         <v>602</v>
@@ -16715,7 +16716,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="104"/>
+      <c r="A80" s="105"/>
       <c r="B80" s="120"/>
       <c r="C80" s="5" t="s">
         <v>604</v>
@@ -16746,7 +16747,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="104"/>
+      <c r="A81" s="105"/>
       <c r="B81" s="120"/>
       <c r="C81" s="5"/>
       <c r="D81" s="2"/>
@@ -16759,7 +16760,7 @@
       <c r="K81" s="8"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="104"/>
+      <c r="A82" s="105"/>
       <c r="B82" s="120"/>
       <c r="C82" s="5" t="s">
         <v>1</v>
@@ -16774,7 +16775,7 @@
       <c r="K82" s="8"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="104"/>
+      <c r="A83" s="105"/>
       <c r="B83" s="120"/>
       <c r="C83" s="5" t="s">
         <v>600</v>
@@ -16805,7 +16806,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="104"/>
+      <c r="A84" s="105"/>
       <c r="B84" s="120"/>
       <c r="C84" s="5" t="s">
         <v>602</v>
@@ -16836,7 +16837,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="104"/>
+      <c r="A85" s="105"/>
       <c r="B85" s="120"/>
       <c r="C85" s="5" t="s">
         <v>604</v>
@@ -16867,7 +16868,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="104"/>
+      <c r="A86" s="105"/>
       <c r="B86" s="120"/>
       <c r="C86" s="5"/>
       <c r="D86" s="2"/>
@@ -16880,7 +16881,7 @@
       <c r="K86" s="8"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="104"/>
+      <c r="A87" s="105"/>
       <c r="B87" s="120"/>
       <c r="C87" s="5" t="s">
         <v>2</v>
@@ -16895,7 +16896,7 @@
       <c r="K87" s="8"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="104"/>
+      <c r="A88" s="105"/>
       <c r="B88" s="120"/>
       <c r="C88" s="5" t="s">
         <v>600</v>
@@ -16926,7 +16927,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="104"/>
+      <c r="A89" s="105"/>
       <c r="B89" s="120"/>
       <c r="C89" s="5" t="s">
         <v>602</v>
@@ -16957,7 +16958,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="105"/>
+      <c r="A90" s="106"/>
       <c r="B90" s="121"/>
       <c r="C90" s="20" t="s">
         <v>604</v>
@@ -16989,12 +16990,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D2:AN2"/>
-    <mergeCell ref="AO2:CL2"/>
-    <mergeCell ref="CM2:EN2"/>
-    <mergeCell ref="D10:AN10"/>
-    <mergeCell ref="AO10:CL10"/>
-    <mergeCell ref="CM10:EN10"/>
     <mergeCell ref="B30:B90"/>
     <mergeCell ref="A30:A90"/>
     <mergeCell ref="D25:AN25"/>
@@ -17008,6 +17003,12 @@
     <mergeCell ref="AO18:CL18"/>
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B10:B16"/>
+    <mergeCell ref="D2:AN2"/>
+    <mergeCell ref="AO2:CL2"/>
+    <mergeCell ref="CM2:EN2"/>
+    <mergeCell ref="D10:AN10"/>
+    <mergeCell ref="AO10:CL10"/>
+    <mergeCell ref="CM10:EN10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20148,7 +20149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9491AA1A-E95E-5F43-B7CE-A1613C0196AD}">
   <dimension ref="A1:AK165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X71" zoomScale="125" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N18" zoomScale="125" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -20187,46 +20188,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="85"/>
-      <c r="S1" s="86" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="92"/>
+      <c r="S1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="88"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="87"/>
     </row>
     <row r="2" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
@@ -20318,12 +20319,12 @@
       <c r="Q3" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
       <c r="W3" s="21"/>
       <c r="X3" s="52" t="s">
         <v>299</v>
@@ -20374,11 +20375,11 @@
       <c r="M4" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="N4" s="125">
-        <v>1</v>
-      </c>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="8">
         <v>1</v>
       </c>
@@ -20431,11 +20432,11 @@
       <c r="M5" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="N5" s="125">
-        <v>1</v>
-      </c>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="8">
         <v>1</v>
       </c>
@@ -20498,11 +20499,11 @@
       <c r="M6" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="N6" s="125">
-        <v>1</v>
-      </c>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
       <c r="Q6" s="8">
         <v>1</v>
       </c>
@@ -20573,11 +20574,11 @@
       <c r="M7" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="N7" s="125">
-        <v>1</v>
-      </c>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
       <c r="Q7" s="8">
         <v>1</v>
       </c>
@@ -20648,11 +20649,11 @@
       <c r="M8" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="N8" s="125">
+      <c r="N8" s="2">
         <v>2</v>
       </c>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="8">
         <v>1</v>
       </c>
@@ -20723,11 +20724,11 @@
       <c r="M9" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="N9" s="125">
+      <c r="N9" s="2">
         <v>2</v>
       </c>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="8">
         <v>1</v>
       </c>
@@ -20798,11 +20799,11 @@
       <c r="M10" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="N10" s="125">
+      <c r="N10" s="2">
         <v>2</v>
       </c>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="Q10" s="8">
         <v>1</v>
       </c>
@@ -20865,11 +20866,11 @@
       <c r="M11" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="N11" s="125">
+      <c r="N11" s="2">
         <v>2</v>
       </c>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="8">
         <v>1</v>
       </c>
@@ -20924,11 +20925,11 @@
       <c r="M12" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="N12" s="125">
+      <c r="N12" s="2">
         <v>2</v>
       </c>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="8">
         <v>1</v>
       </c>
@@ -20983,20 +20984,20 @@
       <c r="M13" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="N13" s="125">
+      <c r="N13" s="2">
         <v>2</v>
       </c>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="8">
         <v>1</v>
       </c>
-      <c r="S13" s="79" t="s">
+      <c r="S13" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
       <c r="X13" s="1" t="s">
         <v>301</v>
       </c>
@@ -21052,11 +21053,11 @@
       <c r="M14" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="N14" s="125">
+      <c r="N14" s="2">
         <v>2</v>
       </c>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="8">
         <v>1</v>
       </c>
@@ -21127,11 +21128,11 @@
       <c r="M15" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="N15" s="125">
+      <c r="N15" s="2">
         <v>2</v>
       </c>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="8">
         <v>1</v>
       </c>
@@ -21202,11 +21203,11 @@
       <c r="M16" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="N16" s="125">
+      <c r="N16" s="2">
         <v>2</v>
       </c>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="8">
         <v>1</v>
       </c>
@@ -21275,13 +21276,13 @@
       <c r="M17" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="N17" s="125">
+      <c r="N17" s="2">
         <v>3</v>
       </c>
-      <c r="O17" s="125">
-        <v>1</v>
-      </c>
-      <c r="P17" s="125"/>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" s="8"/>
       <c r="S17" s="16">
         <v>2</v>
@@ -21348,13 +21349,13 @@
       <c r="M18" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="N18" s="125">
-        <v>3</v>
-      </c>
-      <c r="O18" s="125">
-        <v>1</v>
-      </c>
-      <c r="P18" s="125"/>
+      <c r="N18" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2"/>
       <c r="Q18" s="8"/>
       <c r="S18" s="16">
         <v>3</v>
@@ -21403,11 +21404,11 @@
       <c r="M19" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="N19" s="125">
+      <c r="N19" s="2">
         <v>3</v>
       </c>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
       <c r="Q19" s="8">
         <v>1</v>
       </c>
@@ -21468,13 +21469,13 @@
       <c r="M20" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="N20" s="125">
+      <c r="N20" s="2">
         <v>4</v>
       </c>
-      <c r="O20" s="125">
-        <v>1</v>
-      </c>
-      <c r="P20" s="125"/>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2"/>
       <c r="Q20" s="8"/>
       <c r="S20" s="16">
         <v>5</v>
@@ -21541,13 +21542,13 @@
       <c r="M21" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="N21" s="125">
+      <c r="N21" s="2">
         <v>4</v>
       </c>
-      <c r="O21" s="125">
-        <v>1</v>
-      </c>
-      <c r="P21" s="125"/>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2"/>
       <c r="Q21" s="8"/>
       <c r="S21" s="16">
         <v>6</v>
@@ -21612,13 +21613,13 @@
       <c r="M22" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="N22" s="125">
+      <c r="N22" s="2">
         <v>4</v>
       </c>
-      <c r="O22" s="125">
-        <v>1</v>
-      </c>
-      <c r="P22" s="125"/>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2"/>
       <c r="Q22" s="8"/>
       <c r="S22" s="16">
         <v>7</v>
@@ -21689,13 +21690,13 @@
       <c r="M23" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="N23" s="125">
+      <c r="N23" s="2">
         <v>4</v>
       </c>
-      <c r="O23" s="125">
-        <v>1</v>
-      </c>
-      <c r="P23" s="125"/>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2"/>
       <c r="Q23" s="8"/>
       <c r="S23" s="16">
         <v>8</v>
@@ -21766,13 +21767,13 @@
       <c r="M24" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="N24" s="125">
+      <c r="N24" s="2">
         <v>4</v>
       </c>
-      <c r="O24" s="125">
-        <v>1</v>
-      </c>
-      <c r="P24" s="125"/>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2"/>
       <c r="Q24" s="8"/>
       <c r="S24" s="16">
         <v>9</v>
@@ -21825,13 +21826,13 @@
       <c r="M25" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="N25" s="125">
+      <c r="N25" s="2">
         <v>4</v>
       </c>
-      <c r="O25" s="125">
-        <v>1</v>
-      </c>
-      <c r="P25" s="125"/>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2"/>
       <c r="Q25" s="8"/>
       <c r="S25" s="16">
         <v>10</v>
@@ -21895,13 +21896,13 @@
       <c r="M26" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="N26" s="125">
+      <c r="N26" s="2">
         <v>4</v>
       </c>
-      <c r="O26" s="125">
-        <v>1</v>
-      </c>
-      <c r="P26" s="125"/>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2"/>
       <c r="Q26" s="8"/>
       <c r="S26" s="16">
         <v>12</v>
@@ -21965,13 +21966,13 @@
       <c r="M27" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="N27" s="125">
+      <c r="N27" s="2">
         <v>5</v>
       </c>
-      <c r="O27" s="125">
-        <v>1</v>
-      </c>
-      <c r="P27" s="125"/>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" s="8"/>
       <c r="S27" s="16">
         <v>13</v>
@@ -22035,13 +22036,13 @@
       <c r="M28" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="N28" s="125">
+      <c r="N28" s="2">
         <v>5</v>
       </c>
-      <c r="O28" s="125">
-        <v>1</v>
-      </c>
-      <c r="P28" s="125"/>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2"/>
       <c r="Q28" s="8"/>
       <c r="S28" s="16">
         <v>14</v>
@@ -22087,13 +22088,13 @@
       <c r="M29" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="N29" s="125">
+      <c r="N29" s="2">
         <v>5</v>
       </c>
-      <c r="O29" s="125">
-        <v>1</v>
-      </c>
-      <c r="P29" s="125"/>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" s="8"/>
       <c r="S29" s="16">
         <v>15</v>
@@ -22157,13 +22158,13 @@
       <c r="M30" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="N30" s="125">
+      <c r="N30" s="2">
         <v>5</v>
       </c>
-      <c r="O30" s="125">
-        <v>1</v>
-      </c>
-      <c r="P30" s="125"/>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" s="8"/>
       <c r="S30" s="7"/>
       <c r="AA30" s="1" t="s">
@@ -22220,20 +22221,20 @@
       <c r="M31" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="N31" s="125">
+      <c r="N31" s="2">
         <v>5</v>
       </c>
-      <c r="O31" s="125">
-        <v>1</v>
-      </c>
-      <c r="P31" s="125"/>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2"/>
       <c r="Q31" s="8"/>
-      <c r="S31" s="79" t="s">
+      <c r="S31" s="81" t="s">
         <v>313</v>
       </c>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
       <c r="AA31" s="1" t="s">
         <v>317</v>
       </c>
@@ -22288,11 +22289,11 @@
       <c r="M32" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="N32" s="125">
-        <v>1</v>
-      </c>
-      <c r="O32" s="125"/>
-      <c r="P32" s="125"/>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
       <c r="Q32" s="8">
         <v>1</v>
       </c>
@@ -22336,11 +22337,11 @@
       <c r="M33" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="N33" s="125">
-        <v>1</v>
-      </c>
-      <c r="O33" s="125"/>
-      <c r="P33" s="125"/>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
       <c r="Q33" s="8">
         <v>1</v>
       </c>
@@ -22384,11 +22385,11 @@
       <c r="M34" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="N34" s="125">
-        <v>1</v>
-      </c>
-      <c r="O34" s="125"/>
-      <c r="P34" s="125"/>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="8">
         <v>1</v>
       </c>
@@ -22430,11 +22431,11 @@
       <c r="M35" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="N35" s="125">
-        <v>1</v>
-      </c>
-      <c r="O35" s="125"/>
-      <c r="P35" s="125"/>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="8">
         <v>1</v>
       </c>
@@ -22476,11 +22477,11 @@
       <c r="M36" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="N36" s="125">
-        <v>1</v>
-      </c>
-      <c r="O36" s="125"/>
-      <c r="P36" s="125"/>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="8">
         <v>1</v>
       </c>
@@ -22520,11 +22521,11 @@
       <c r="M37" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="N37" s="125">
-        <v>1</v>
-      </c>
-      <c r="O37" s="125"/>
-      <c r="P37" s="125"/>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
       <c r="Q37" s="8">
         <v>1</v>
       </c>
@@ -22566,11 +22567,11 @@
       <c r="M38" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="N38" s="125">
-        <v>1</v>
-      </c>
-      <c r="O38" s="125"/>
-      <c r="P38" s="125"/>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="8">
         <v>1</v>
       </c>
@@ -22612,11 +22613,11 @@
       <c r="M39" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="N39" s="125">
-        <v>1</v>
-      </c>
-      <c r="O39" s="125"/>
-      <c r="P39" s="125"/>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="8">
         <v>1</v>
       </c>
@@ -22656,11 +22657,11 @@
       <c r="M40" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="N40" s="125">
-        <v>1</v>
-      </c>
-      <c r="O40" s="125"/>
-      <c r="P40" s="125"/>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
       <c r="Q40" s="8">
         <v>1</v>
       </c>
@@ -22700,11 +22701,11 @@
       <c r="M41" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="N41" s="125">
+      <c r="N41" s="2">
         <v>2</v>
       </c>
-      <c r="O41" s="125"/>
-      <c r="P41" s="125"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
       <c r="Q41" s="8">
         <v>1</v>
       </c>
@@ -22744,11 +22745,11 @@
       <c r="M42" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="N42" s="125">
+      <c r="N42" s="2">
         <v>2</v>
       </c>
-      <c r="O42" s="125"/>
-      <c r="P42" s="125"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="8">
         <v>1</v>
       </c>
@@ -22788,11 +22789,11 @@
       <c r="M43" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="N43" s="125">
+      <c r="N43" s="2">
         <v>2</v>
       </c>
-      <c r="O43" s="125"/>
-      <c r="P43" s="125">
+      <c r="O43" s="2"/>
+      <c r="P43" s="2">
         <v>1</v>
       </c>
       <c r="Q43" s="8"/>
@@ -22832,11 +22833,11 @@
       <c r="M44" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="N44" s="125">
+      <c r="N44" s="2">
         <v>2</v>
       </c>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125">
+      <c r="O44" s="2"/>
+      <c r="P44" s="2">
         <v>1</v>
       </c>
       <c r="Q44" s="8"/>
@@ -22876,11 +22877,11 @@
       <c r="M45" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="N45" s="125">
+      <c r="N45" s="2">
         <v>2</v>
       </c>
-      <c r="O45" s="125"/>
-      <c r="P45" s="125">
+      <c r="O45" s="2"/>
+      <c r="P45" s="2">
         <v>1</v>
       </c>
       <c r="Q45" s="8"/>
@@ -22920,11 +22921,11 @@
       <c r="M46" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="N46" s="125">
+      <c r="N46" s="2">
         <v>2</v>
       </c>
-      <c r="O46" s="125"/>
-      <c r="P46" s="125">
+      <c r="O46" s="2"/>
+      <c r="P46" s="2">
         <v>1</v>
       </c>
       <c r="Q46" s="8"/>
@@ -22964,11 +22965,11 @@
       <c r="M47" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="N47" s="125">
+      <c r="N47" s="2">
         <v>2</v>
       </c>
-      <c r="O47" s="125"/>
-      <c r="P47" s="125">
+      <c r="O47" s="2"/>
+      <c r="P47" s="2">
         <v>1</v>
       </c>
       <c r="Q47" s="8"/>
@@ -23022,11 +23023,11 @@
       <c r="M48" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="N48" s="125">
+      <c r="N48" s="2">
         <v>2</v>
       </c>
-      <c r="O48" s="125"/>
-      <c r="P48" s="125">
+      <c r="O48" s="2"/>
+      <c r="P48" s="2">
         <v>1</v>
       </c>
       <c r="Q48" s="8"/>
@@ -23057,35 +23058,35 @@
       <c r="M49" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="N49" s="125">
+      <c r="N49" s="2">
         <v>2</v>
       </c>
-      <c r="O49" s="125"/>
-      <c r="P49" s="125">
+      <c r="O49" s="2"/>
+      <c r="P49" s="2">
         <v>1</v>
       </c>
       <c r="Q49" s="8"/>
-      <c r="S49" s="81" t="s">
+      <c r="S49" s="88" t="s">
         <v>643</v>
       </c>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="82"/>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="82"/>
-      <c r="AF49" s="82"/>
-      <c r="AG49" s="82"/>
-      <c r="AH49" s="82"/>
-      <c r="AI49" s="82"/>
-      <c r="AJ49" s="82"/>
-      <c r="AK49" s="83"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="89"/>
+      <c r="V49" s="89"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="89"/>
+      <c r="Y49" s="89"/>
+      <c r="Z49" s="89"/>
+      <c r="AA49" s="89"/>
+      <c r="AB49" s="89"/>
+      <c r="AC49" s="89"/>
+      <c r="AD49" s="89"/>
+      <c r="AE49" s="89"/>
+      <c r="AF49" s="89"/>
+      <c r="AG49" s="89"/>
+      <c r="AH49" s="89"/>
+      <c r="AI49" s="89"/>
+      <c r="AJ49" s="89"/>
+      <c r="AK49" s="90"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
@@ -23113,20 +23114,20 @@
       <c r="M50" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="N50" s="125">
+      <c r="N50" s="2">
         <v>2</v>
       </c>
-      <c r="O50" s="125"/>
-      <c r="P50" s="125">
+      <c r="O50" s="2"/>
+      <c r="P50" s="2">
         <v>1</v>
       </c>
       <c r="Q50" s="8"/>
-      <c r="S50" s="77" t="s">
+      <c r="S50" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="78"/>
+      <c r="T50" s="84"/>
+      <c r="U50" s="84"/>
+      <c r="V50" s="84"/>
       <c r="W50" s="21"/>
       <c r="X50" s="49" t="s">
         <v>299</v>
@@ -23177,11 +23178,11 @@
       <c r="M51" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="N51" s="125">
+      <c r="N51" s="2">
         <v>2</v>
       </c>
-      <c r="O51" s="125"/>
-      <c r="P51" s="125">
+      <c r="O51" s="2"/>
+      <c r="P51" s="2">
         <v>1</v>
       </c>
       <c r="Q51" s="8"/>
@@ -23234,11 +23235,11 @@
       <c r="M52" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="N52" s="125">
+      <c r="N52" s="2">
         <v>3</v>
       </c>
-      <c r="O52" s="125"/>
-      <c r="P52" s="125">
+      <c r="O52" s="2"/>
+      <c r="P52" s="2">
         <v>1</v>
       </c>
       <c r="Q52" s="8"/>
@@ -23301,11 +23302,11 @@
       <c r="M53" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="N53" s="125">
+      <c r="N53" s="2">
         <v>3</v>
       </c>
-      <c r="O53" s="125"/>
-      <c r="P53" s="125">
+      <c r="O53" s="2"/>
+      <c r="P53" s="2">
         <v>1</v>
       </c>
       <c r="Q53" s="8"/>
@@ -23376,11 +23377,11 @@
       <c r="M54" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="N54" s="125">
+      <c r="N54" s="2">
         <v>3</v>
       </c>
-      <c r="O54" s="125"/>
-      <c r="P54" s="125">
+      <c r="O54" s="2"/>
+      <c r="P54" s="2">
         <v>1</v>
       </c>
       <c r="Q54" s="8"/>
@@ -23451,11 +23452,11 @@
       <c r="M55" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="N55" s="125">
+      <c r="N55" s="2">
         <v>3</v>
       </c>
-      <c r="O55" s="125"/>
-      <c r="P55" s="125">
+      <c r="O55" s="2"/>
+      <c r="P55" s="2">
         <v>1</v>
       </c>
       <c r="Q55" s="8"/>
@@ -23526,11 +23527,11 @@
       <c r="M56" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="N56" s="125">
-        <v>1</v>
-      </c>
-      <c r="O56" s="125"/>
-      <c r="P56" s="125">
+      <c r="N56" s="2">
+        <v>1</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2">
         <v>1</v>
       </c>
       <c r="Q56" s="8"/>
@@ -23601,11 +23602,11 @@
       <c r="M57" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="N57" s="125">
-        <v>1</v>
-      </c>
-      <c r="O57" s="125"/>
-      <c r="P57" s="125"/>
+      <c r="N57" s="2">
+        <v>1</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
       <c r="Q57" s="8">
         <v>1</v>
       </c>
@@ -23668,11 +23669,11 @@
       <c r="M58" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="N58" s="125">
-        <v>1</v>
-      </c>
-      <c r="O58" s="125"/>
-      <c r="P58" s="125"/>
+      <c r="N58" s="2">
+        <v>1</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
       <c r="Q58" s="8">
         <v>1</v>
       </c>
@@ -23727,11 +23728,11 @@
       <c r="M59" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="N59" s="125">
+      <c r="N59" s="2">
         <v>2</v>
       </c>
-      <c r="O59" s="125"/>
-      <c r="P59" s="125">
+      <c r="O59" s="2"/>
+      <c r="P59" s="2">
         <v>1</v>
       </c>
       <c r="Q59" s="8"/>
@@ -23786,11 +23787,11 @@
       <c r="M60" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="N60" s="125">
+      <c r="N60" s="2">
         <v>2</v>
       </c>
-      <c r="O60" s="125"/>
-      <c r="P60" s="125">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2">
         <v>1</v>
       </c>
       <c r="Q60" s="8"/>
@@ -23861,11 +23862,11 @@
       <c r="M61" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="N61" s="125">
+      <c r="N61" s="2">
         <v>2</v>
       </c>
-      <c r="O61" s="125"/>
-      <c r="P61" s="125">
+      <c r="O61" s="2"/>
+      <c r="P61" s="2">
         <v>1</v>
       </c>
       <c r="Q61" s="8"/>
@@ -23936,11 +23937,11 @@
       <c r="M62" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="N62" s="125">
+      <c r="N62" s="2">
         <v>2</v>
       </c>
-      <c r="O62" s="125"/>
-      <c r="P62" s="125">
+      <c r="O62" s="2"/>
+      <c r="P62" s="2">
         <v>1</v>
       </c>
       <c r="Q62" s="8"/>
@@ -24011,11 +24012,11 @@
       <c r="M63" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="N63" s="125">
+      <c r="N63" s="2">
         <v>2</v>
       </c>
-      <c r="O63" s="125"/>
-      <c r="P63" s="125"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
       <c r="Q63" s="8">
         <v>1</v>
       </c>
@@ -24086,11 +24087,11 @@
       <c r="M64" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="N64" s="125">
+      <c r="N64" s="2">
         <v>2</v>
       </c>
-      <c r="O64" s="125"/>
-      <c r="P64" s="125"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
       <c r="Q64" s="8">
         <v>1</v>
       </c>
@@ -24161,11 +24162,11 @@
       <c r="M65" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="N65" s="125">
+      <c r="N65" s="2">
         <v>2</v>
       </c>
-      <c r="O65" s="125"/>
-      <c r="P65" s="125"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
       <c r="Q65" s="8">
         <v>1</v>
       </c>
@@ -24218,11 +24219,11 @@
       <c r="M66" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="N66" s="125">
+      <c r="N66" s="2">
         <v>2</v>
       </c>
-      <c r="O66" s="125"/>
-      <c r="P66" s="125"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="8">
         <v>1</v>
       </c>
@@ -24283,11 +24284,11 @@
       <c r="M67" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="N67" s="125">
+      <c r="N67" s="2">
         <v>2</v>
       </c>
-      <c r="O67" s="125"/>
-      <c r="P67" s="125"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
       <c r="Q67" s="8">
         <v>1</v>
       </c>
@@ -24356,11 +24357,11 @@
       <c r="M68" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="N68" s="125">
+      <c r="N68" s="2">
         <v>2</v>
       </c>
-      <c r="O68" s="125"/>
-      <c r="P68" s="125"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="8">
         <v>1</v>
       </c>
@@ -24427,11 +24428,11 @@
       <c r="M69" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="N69" s="125">
+      <c r="N69" s="2">
         <v>2</v>
       </c>
-      <c r="O69" s="125"/>
-      <c r="P69" s="125"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="8">
         <v>1</v>
       </c>
@@ -24504,11 +24505,11 @@
       <c r="M70" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="N70" s="125">
+      <c r="N70" s="2">
         <v>3</v>
       </c>
-      <c r="O70" s="125"/>
-      <c r="P70" s="125">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2">
         <v>1</v>
       </c>
       <c r="Q70" s="8"/>
@@ -24577,11 +24578,11 @@
       <c r="M71" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="N71" s="125">
+      <c r="N71" s="2">
         <v>3</v>
       </c>
-      <c r="O71" s="125"/>
-      <c r="P71" s="125">
+      <c r="O71" s="2"/>
+      <c r="P71" s="2">
         <v>1</v>
       </c>
       <c r="Q71" s="8"/>
@@ -24629,20 +24630,20 @@
       <c r="M72" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="N72" s="125">
+      <c r="N72" s="2">
         <v>3</v>
       </c>
-      <c r="O72" s="125"/>
-      <c r="P72" s="125">
+      <c r="O72" s="2"/>
+      <c r="P72" s="2">
         <v>1</v>
       </c>
       <c r="Q72" s="8"/>
-      <c r="S72" s="79" t="s">
+      <c r="S72" s="81" t="s">
         <v>313</v>
       </c>
-      <c r="T72" s="80"/>
-      <c r="U72" s="80"/>
-      <c r="V72" s="80"/>
+      <c r="T72" s="82"/>
+      <c r="U72" s="82"/>
+      <c r="V72" s="82"/>
       <c r="Z72" s="2"/>
       <c r="AA72" s="1" t="s">
         <v>318</v>
@@ -24698,11 +24699,11 @@
       <c r="M73" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="N73" s="125">
+      <c r="N73" s="2">
         <v>4</v>
       </c>
-      <c r="O73" s="125"/>
-      <c r="P73" s="125">
+      <c r="O73" s="2"/>
+      <c r="P73" s="2">
         <v>1</v>
       </c>
       <c r="Q73" s="8"/>
@@ -24772,11 +24773,11 @@
       <c r="M74" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="N74" s="125">
+      <c r="N74" s="2">
         <v>4</v>
       </c>
-      <c r="O74" s="125"/>
-      <c r="P74" s="125">
+      <c r="O74" s="2"/>
+      <c r="P74" s="2">
         <v>1</v>
       </c>
       <c r="Q74" s="8"/>
@@ -24846,13 +24847,13 @@
       <c r="M75" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="N75" s="125">
+      <c r="N75" s="2">
         <v>2</v>
       </c>
-      <c r="O75" s="125">
-        <v>1</v>
-      </c>
-      <c r="P75" s="125"/>
+      <c r="O75" s="2">
+        <v>1</v>
+      </c>
+      <c r="P75" s="2"/>
       <c r="Q75" s="8"/>
       <c r="S75" s="16">
         <v>1</v>
@@ -24902,13 +24903,13 @@
       <c r="M76" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="N76" s="125">
+      <c r="N76" s="2">
         <v>3</v>
       </c>
-      <c r="O76" s="125">
-        <v>1</v>
-      </c>
-      <c r="P76" s="125"/>
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+      <c r="P76" s="2"/>
       <c r="Q76" s="8"/>
       <c r="S76" s="16">
         <v>2</v>
@@ -24976,13 +24977,13 @@
       <c r="M77" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="N77" s="125">
+      <c r="N77" s="2">
         <v>3</v>
       </c>
-      <c r="O77" s="125">
-        <v>1</v>
-      </c>
-      <c r="P77" s="125"/>
+      <c r="O77" s="2">
+        <v>1</v>
+      </c>
+      <c r="P77" s="2"/>
       <c r="Q77" s="8"/>
       <c r="S77" s="16">
         <v>3</v>
@@ -25050,13 +25051,13 @@
       <c r="M78" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="N78" s="125">
+      <c r="N78" s="2">
         <v>3</v>
       </c>
-      <c r="O78" s="125">
-        <v>1</v>
-      </c>
-      <c r="P78" s="125"/>
+      <c r="O78" s="2">
+        <v>1</v>
+      </c>
+      <c r="P78" s="2"/>
       <c r="Q78" s="8"/>
       <c r="S78" s="16">
         <v>4</v>
@@ -25122,13 +25123,13 @@
       <c r="M79" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="N79" s="125">
+      <c r="N79" s="2">
         <v>3</v>
       </c>
-      <c r="O79" s="125">
-        <v>1</v>
-      </c>
-      <c r="P79" s="125"/>
+      <c r="O79" s="2">
+        <v>1</v>
+      </c>
+      <c r="P79" s="2"/>
       <c r="Q79" s="8"/>
       <c r="S79" s="16">
         <v>5</v>
@@ -25168,13 +25169,13 @@
       <c r="M80" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="N80" s="125">
+      <c r="N80" s="2">
         <v>3</v>
       </c>
-      <c r="O80" s="125">
-        <v>1</v>
-      </c>
-      <c r="P80" s="125"/>
+      <c r="O80" s="2">
+        <v>1</v>
+      </c>
+      <c r="P80" s="2"/>
       <c r="Q80" s="8"/>
       <c r="S80" s="16">
         <v>6</v>
@@ -25214,13 +25215,13 @@
       <c r="M81" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="N81" s="125">
+      <c r="N81" s="2">
         <v>4</v>
       </c>
-      <c r="O81" s="125">
-        <v>1</v>
-      </c>
-      <c r="P81" s="125"/>
+      <c r="O81" s="2">
+        <v>1</v>
+      </c>
+      <c r="P81" s="2"/>
       <c r="Q81" s="8"/>
       <c r="S81" s="16">
         <v>7</v>
@@ -25258,11 +25259,11 @@
       <c r="M82" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="N82" s="125">
+      <c r="N82" s="2">
         <v>2</v>
       </c>
-      <c r="O82" s="125"/>
-      <c r="P82" s="125">
+      <c r="O82" s="2"/>
+      <c r="P82" s="2">
         <v>1</v>
       </c>
       <c r="Q82" s="8"/>
@@ -25316,11 +25317,11 @@
       <c r="M83" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="N83" s="125">
+      <c r="N83" s="2">
         <v>3</v>
       </c>
-      <c r="O83" s="125"/>
-      <c r="P83" s="125">
+      <c r="O83" s="2"/>
+      <c r="P83" s="2">
         <v>1</v>
       </c>
       <c r="Q83" s="8"/>
@@ -25351,35 +25352,35 @@
       <c r="M84" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="N84" s="125">
+      <c r="N84" s="2">
         <v>3</v>
       </c>
-      <c r="O84" s="125"/>
-      <c r="P84" s="125">
+      <c r="O84" s="2"/>
+      <c r="P84" s="2">
         <v>1</v>
       </c>
       <c r="Q84" s="8"/>
-      <c r="S84" s="81" t="s">
+      <c r="S84" s="88" t="s">
         <v>644</v>
       </c>
-      <c r="T84" s="82"/>
-      <c r="U84" s="82"/>
-      <c r="V84" s="82"/>
-      <c r="W84" s="82"/>
-      <c r="X84" s="82"/>
-      <c r="Y84" s="82"/>
-      <c r="Z84" s="82"/>
-      <c r="AA84" s="82"/>
-      <c r="AB84" s="82"/>
-      <c r="AC84" s="82"/>
-      <c r="AD84" s="82"/>
-      <c r="AE84" s="82"/>
-      <c r="AF84" s="82"/>
-      <c r="AG84" s="82"/>
-      <c r="AH84" s="82"/>
-      <c r="AI84" s="82"/>
-      <c r="AJ84" s="82"/>
-      <c r="AK84" s="83"/>
+      <c r="T84" s="89"/>
+      <c r="U84" s="89"/>
+      <c r="V84" s="89"/>
+      <c r="W84" s="89"/>
+      <c r="X84" s="89"/>
+      <c r="Y84" s="89"/>
+      <c r="Z84" s="89"/>
+      <c r="AA84" s="89"/>
+      <c r="AB84" s="89"/>
+      <c r="AC84" s="89"/>
+      <c r="AD84" s="89"/>
+      <c r="AE84" s="89"/>
+      <c r="AF84" s="89"/>
+      <c r="AG84" s="89"/>
+      <c r="AH84" s="89"/>
+      <c r="AI84" s="89"/>
+      <c r="AJ84" s="89"/>
+      <c r="AK84" s="90"/>
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -25407,20 +25408,20 @@
       <c r="M85" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="N85" s="125">
+      <c r="N85" s="2">
         <v>3</v>
       </c>
-      <c r="O85" s="125"/>
-      <c r="P85" s="125">
+      <c r="O85" s="2"/>
+      <c r="P85" s="2">
         <v>1</v>
       </c>
       <c r="Q85" s="8"/>
-      <c r="S85" s="77" t="s">
+      <c r="S85" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="T85" s="78"/>
-      <c r="U85" s="78"/>
-      <c r="V85" s="78"/>
+      <c r="T85" s="84"/>
+      <c r="U85" s="84"/>
+      <c r="V85" s="84"/>
       <c r="W85" s="21"/>
       <c r="X85" s="30" t="s">
         <v>299</v>
@@ -25471,11 +25472,11 @@
       <c r="M86" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="N86" s="125">
+      <c r="N86" s="2">
         <v>3</v>
       </c>
-      <c r="O86" s="125"/>
-      <c r="P86" s="125">
+      <c r="O86" s="2"/>
+      <c r="P86" s="2">
         <v>1</v>
       </c>
       <c r="Q86" s="8"/>
@@ -25528,11 +25529,11 @@
       <c r="M87" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="N87" s="125">
+      <c r="N87" s="2">
         <v>3</v>
       </c>
-      <c r="O87" s="125"/>
-      <c r="P87" s="125">
+      <c r="O87" s="2"/>
+      <c r="P87" s="2">
         <v>1</v>
       </c>
       <c r="Q87" s="8"/>
@@ -25595,13 +25596,13 @@
       <c r="M88" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="N88" s="125">
+      <c r="N88" s="2">
         <v>3</v>
       </c>
-      <c r="O88" s="125">
-        <v>1</v>
-      </c>
-      <c r="P88" s="125"/>
+      <c r="O88" s="2">
+        <v>1</v>
+      </c>
+      <c r="P88" s="2"/>
       <c r="Q88" s="8"/>
       <c r="S88" s="5" t="s">
         <v>307</v>
@@ -25670,13 +25671,13 @@
       <c r="M89" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="N89" s="125">
+      <c r="N89" s="2">
         <v>3</v>
       </c>
-      <c r="O89" s="125">
-        <v>1</v>
-      </c>
-      <c r="P89" s="125"/>
+      <c r="O89" s="2">
+        <v>1</v>
+      </c>
+      <c r="P89" s="2"/>
       <c r="Q89" s="8"/>
       <c r="S89" s="5" t="s">
         <v>308</v>
@@ -25745,13 +25746,13 @@
       <c r="M90" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="N90" s="125">
+      <c r="N90" s="2">
         <v>3</v>
       </c>
-      <c r="O90" s="125">
-        <v>1</v>
-      </c>
-      <c r="P90" s="125"/>
+      <c r="O90" s="2">
+        <v>1</v>
+      </c>
+      <c r="P90" s="2"/>
       <c r="Q90" s="8"/>
       <c r="S90" s="5" t="s">
         <v>309</v>
@@ -25820,13 +25821,13 @@
       <c r="M91" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="N91" s="125">
+      <c r="N91" s="2">
         <v>4</v>
       </c>
-      <c r="O91" s="125">
-        <v>1</v>
-      </c>
-      <c r="P91" s="125"/>
+      <c r="O91" s="2">
+        <v>1</v>
+      </c>
+      <c r="P91" s="2"/>
       <c r="Q91" s="8"/>
       <c r="S91" s="5" t="s">
         <v>310</v>
@@ -25895,13 +25896,13 @@
       <c r="M92" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="N92" s="125">
+      <c r="N92" s="2">
         <v>4</v>
       </c>
-      <c r="O92" s="125">
-        <v>1</v>
-      </c>
-      <c r="P92" s="125"/>
+      <c r="O92" s="2">
+        <v>1</v>
+      </c>
+      <c r="P92" s="2"/>
       <c r="Q92" s="8"/>
       <c r="S92" s="5"/>
       <c r="T92" s="2"/>
@@ -25962,13 +25963,13 @@
       <c r="M93" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="N93" s="125">
+      <c r="N93" s="2">
         <v>4</v>
       </c>
-      <c r="O93" s="125">
-        <v>1</v>
-      </c>
-      <c r="P93" s="125"/>
+      <c r="O93" s="2">
+        <v>1</v>
+      </c>
+      <c r="P93" s="2"/>
       <c r="Q93" s="8"/>
       <c r="S93" s="5" t="s">
         <v>311</v>
@@ -26021,13 +26022,13 @@
       <c r="M94" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="N94" s="125">
+      <c r="N94" s="2">
         <v>4</v>
       </c>
-      <c r="O94" s="125">
-        <v>1</v>
-      </c>
-      <c r="P94" s="125"/>
+      <c r="O94" s="2">
+        <v>1</v>
+      </c>
+      <c r="P94" s="2"/>
       <c r="Q94" s="8"/>
       <c r="S94" s="7"/>
       <c r="X94" s="1" t="s">
@@ -26077,20 +26078,20 @@
       <c r="M95" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="N95" s="125">
+      <c r="N95" s="2">
         <v>4</v>
       </c>
-      <c r="O95" s="125">
-        <v>1</v>
-      </c>
-      <c r="P95" s="125"/>
+      <c r="O95" s="2">
+        <v>1</v>
+      </c>
+      <c r="P95" s="2"/>
       <c r="Q95" s="8"/>
-      <c r="S95" s="79" t="s">
+      <c r="S95" s="81" t="s">
         <v>312</v>
       </c>
-      <c r="T95" s="80"/>
-      <c r="U95" s="80"/>
-      <c r="V95" s="80"/>
+      <c r="T95" s="82"/>
+      <c r="U95" s="82"/>
+      <c r="V95" s="82"/>
       <c r="X95" s="1" t="s">
         <v>301</v>
       </c>
@@ -26146,13 +26147,13 @@
       <c r="M96" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="N96" s="125">
+      <c r="N96" s="2">
         <v>4</v>
       </c>
-      <c r="O96" s="125">
-        <v>1</v>
-      </c>
-      <c r="P96" s="125"/>
+      <c r="O96" s="2">
+        <v>1</v>
+      </c>
+      <c r="P96" s="2"/>
       <c r="Q96" s="8"/>
       <c r="S96" s="18" t="s">
         <v>332</v>
@@ -26221,13 +26222,13 @@
       <c r="M97" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="N97" s="125">
+      <c r="N97" s="2">
         <v>5</v>
       </c>
-      <c r="O97" s="125">
-        <v>1</v>
-      </c>
-      <c r="P97" s="125"/>
+      <c r="O97" s="2">
+        <v>1</v>
+      </c>
+      <c r="P97" s="2"/>
       <c r="Q97" s="8"/>
       <c r="S97" s="16">
         <v>0</v>
@@ -26296,11 +26297,11 @@
       <c r="M98" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="N98" s="125">
-        <v>1</v>
-      </c>
-      <c r="O98" s="125"/>
-      <c r="P98" s="125"/>
+      <c r="N98" s="2">
+        <v>1</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="8">
         <v>1</v>
       </c>
@@ -26371,11 +26372,11 @@
       <c r="M99" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="N99" s="125">
-        <v>1</v>
-      </c>
-      <c r="O99" s="125"/>
-      <c r="P99" s="125"/>
+      <c r="N99" s="2">
+        <v>1</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
       <c r="Q99" s="8">
         <v>1</v>
       </c>
@@ -26446,11 +26447,11 @@
       <c r="M100" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="N100" s="125">
-        <v>1</v>
-      </c>
-      <c r="O100" s="125"/>
-      <c r="P100" s="125"/>
+      <c r="N100" s="2">
+        <v>1</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
       <c r="Q100" s="8">
         <v>1</v>
       </c>
@@ -26505,11 +26506,11 @@
       <c r="M101" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="N101" s="125">
+      <c r="N101" s="2">
         <v>2</v>
       </c>
-      <c r="O101" s="125"/>
-      <c r="P101" s="125"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
       <c r="Q101" s="8">
         <v>1</v>
       </c>
@@ -26572,13 +26573,12 @@
       <c r="M102" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="N102" s="126">
+      <c r="N102" s="4">
         <v>4</v>
       </c>
-      <c r="O102" s="126">
+      <c r="O102" s="4">
         <v>0</v>
       </c>
-      <c r="P102" s="126"/>
       <c r="Q102" s="6"/>
       <c r="S102" s="16">
         <v>5</v>
@@ -26643,11 +26643,9 @@
       <c r="M103" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="N103" s="126">
-        <v>1</v>
-      </c>
-      <c r="O103" s="126"/>
-      <c r="P103" s="126"/>
+      <c r="N103" s="4">
+        <v>1</v>
+      </c>
       <c r="Q103" s="6">
         <v>0</v>
       </c>
@@ -26707,20 +26705,19 @@
       <c r="M104" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="N104" s="126">
+      <c r="N104" s="4">
         <v>3</v>
       </c>
-      <c r="O104" s="126"/>
-      <c r="P104" s="126">
+      <c r="P104" s="4">
         <v>0</v>
       </c>
       <c r="Q104" s="6"/>
-      <c r="S104" s="79" t="s">
+      <c r="S104" s="81" t="s">
         <v>313</v>
       </c>
-      <c r="T104" s="80"/>
-      <c r="U104" s="80"/>
-      <c r="V104" s="80"/>
+      <c r="T104" s="82"/>
+      <c r="U104" s="82"/>
+      <c r="V104" s="82"/>
       <c r="X104" s="1" t="s">
         <v>34</v>
       </c>
@@ -26782,11 +26779,10 @@
       <c r="M105" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="N105" s="126">
+      <c r="N105" s="4">
         <v>2</v>
       </c>
-      <c r="O105" s="126"/>
-      <c r="P105" s="126">
+      <c r="P105" s="4">
         <v>0</v>
       </c>
       <c r="Q105" s="6"/>
@@ -26863,11 +26859,9 @@
       <c r="M106" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="N106" s="126">
-        <v>1</v>
-      </c>
-      <c r="O106" s="126"/>
-      <c r="P106" s="126"/>
+      <c r="N106" s="4">
+        <v>1</v>
+      </c>
       <c r="Q106" s="6">
         <v>0</v>
       </c>
@@ -26926,11 +26920,9 @@
       <c r="M107" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="N107" s="126">
-        <v>1</v>
-      </c>
-      <c r="O107" s="126"/>
-      <c r="P107" s="126"/>
+      <c r="N107" s="4">
+        <v>1</v>
+      </c>
       <c r="Q107" s="6">
         <v>0</v>
       </c>
@@ -27003,11 +26995,9 @@
       <c r="M108" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="N108" s="126">
+      <c r="N108" s="4">
         <v>4</v>
       </c>
-      <c r="O108" s="126"/>
-      <c r="P108" s="126"/>
       <c r="Q108" s="6">
         <v>0</v>
       </c>
@@ -27077,11 +27067,9 @@
       <c r="M109" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="N109" s="126">
+      <c r="N109" s="4">
         <v>2</v>
       </c>
-      <c r="O109" s="126"/>
-      <c r="P109" s="126"/>
       <c r="Q109" s="6">
         <v>0</v>
       </c>
@@ -27151,11 +27139,9 @@
       <c r="M110" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="N110" s="126">
-        <v>1</v>
-      </c>
-      <c r="O110" s="126"/>
-      <c r="P110" s="126"/>
+      <c r="N110" s="4">
+        <v>1</v>
+      </c>
       <c r="Q110" s="6">
         <v>0</v>
       </c>
@@ -27207,13 +27193,12 @@
       <c r="M111" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="N111" s="126">
-        <v>1</v>
-      </c>
-      <c r="O111" s="126">
+      <c r="N111" s="4">
+        <v>1</v>
+      </c>
+      <c r="O111" s="4">
         <v>0</v>
       </c>
-      <c r="P111" s="126"/>
       <c r="Q111" s="6"/>
       <c r="S111" s="16">
         <v>5</v>
@@ -27277,13 +27262,12 @@
       <c r="M112" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="N112" s="126">
-        <v>1</v>
-      </c>
-      <c r="O112" s="126">
+      <c r="N112" s="4">
+        <v>1</v>
+      </c>
+      <c r="O112" s="4">
         <v>0</v>
       </c>
-      <c r="P112" s="126"/>
       <c r="Q112" s="6"/>
       <c r="S112" s="7"/>
       <c r="AA112" s="1" t="s">
@@ -27340,13 +27324,12 @@
       <c r="M113" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="N113" s="126">
-        <v>1</v>
-      </c>
-      <c r="O113" s="126">
+      <c r="N113" s="4">
+        <v>1</v>
+      </c>
+      <c r="O113" s="4">
         <v>0</v>
       </c>
-      <c r="P113" s="126"/>
       <c r="Q113" s="6"/>
       <c r="S113" s="53"/>
       <c r="T113" s="50"/>
@@ -27412,11 +27395,10 @@
       <c r="M114" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="N114" s="126">
-        <v>1</v>
-      </c>
-      <c r="O114" s="126"/>
-      <c r="P114" s="126">
+      <c r="N114" s="4">
+        <v>1</v>
+      </c>
+      <c r="P114" s="4">
         <v>0</v>
       </c>
       <c r="Q114" s="6"/>
@@ -27447,11 +27429,10 @@
       <c r="M115" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="N115" s="126">
-        <v>1</v>
-      </c>
-      <c r="O115" s="126"/>
-      <c r="P115" s="126">
+      <c r="N115" s="4">
+        <v>1</v>
+      </c>
+      <c r="P115" s="4">
         <v>0</v>
       </c>
       <c r="Q115" s="6"/>
@@ -27504,26 +27485,26 @@
       <c r="Q116" s="51"/>
       <c r="S116" s="7"/>
       <c r="T116" s="58"/>
-      <c r="U116" s="91" t="s">
+      <c r="U116" s="79" t="s">
         <v>850</v>
       </c>
-      <c r="V116" s="91"/>
-      <c r="W116" s="91"/>
-      <c r="X116" s="91" t="s">
+      <c r="V116" s="79"/>
+      <c r="W116" s="79"/>
+      <c r="X116" s="79" t="s">
         <v>851</v>
       </c>
-      <c r="Y116" s="91"/>
-      <c r="Z116" s="91"/>
-      <c r="AA116" s="91"/>
-      <c r="AB116" s="91"/>
-      <c r="AC116" s="91"/>
-      <c r="AD116" s="91" t="s">
+      <c r="Y116" s="79"/>
+      <c r="Z116" s="79"/>
+      <c r="AA116" s="79"/>
+      <c r="AB116" s="79"/>
+      <c r="AC116" s="79"/>
+      <c r="AD116" s="79" t="s">
         <v>852</v>
       </c>
-      <c r="AE116" s="91"/>
-      <c r="AF116" s="91"/>
-      <c r="AG116" s="91"/>
-      <c r="AH116" s="92"/>
+      <c r="AE116" s="79"/>
+      <c r="AF116" s="79"/>
+      <c r="AG116" s="79"/>
+      <c r="AH116" s="80"/>
     </row>
     <row r="117" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
@@ -28192,23 +28173,23 @@
       <c r="S126" s="57" t="s">
         <v>848</v>
       </c>
-      <c r="T126" s="89" t="s">
+      <c r="T126" s="77" t="s">
         <v>849</v>
       </c>
-      <c r="U126" s="89"/>
-      <c r="V126" s="89"/>
-      <c r="W126" s="89"/>
-      <c r="X126" s="89"/>
-      <c r="Y126" s="89"/>
-      <c r="Z126" s="89"/>
-      <c r="AA126" s="89"/>
-      <c r="AB126" s="89"/>
-      <c r="AC126" s="89"/>
-      <c r="AD126" s="89"/>
-      <c r="AE126" s="89"/>
-      <c r="AF126" s="89"/>
-      <c r="AG126" s="89"/>
-      <c r="AH126" s="90"/>
+      <c r="U126" s="77"/>
+      <c r="V126" s="77"/>
+      <c r="W126" s="77"/>
+      <c r="X126" s="77"/>
+      <c r="Y126" s="77"/>
+      <c r="Z126" s="77"/>
+      <c r="AA126" s="77"/>
+      <c r="AB126" s="77"/>
+      <c r="AC126" s="77"/>
+      <c r="AD126" s="77"/>
+      <c r="AE126" s="77"/>
+      <c r="AF126" s="77"/>
+      <c r="AG126" s="77"/>
+      <c r="AH126" s="78"/>
     </row>
     <row r="127" spans="1:37" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G127" s="5" t="s">
@@ -28620,109 +28601,99 @@
       <c r="G157" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="H157" s="125">
+      <c r="H157" s="2">
         <v>3</v>
       </c>
-      <c r="I157" s="125"/>
-      <c r="J157" s="125">
+      <c r="I157" s="2"/>
+      <c r="J157" s="2">
         <v>1</v>
       </c>
       <c r="K157" s="8"/>
     </row>
     <row r="158" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F158" s="6"/>
-      <c r="G158" s="126" t="s">
+      <c r="G158" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="H158" s="126">
-        <v>1</v>
-      </c>
-      <c r="I158" s="126"/>
-      <c r="J158" s="126"/>
+      <c r="H158" s="4">
+        <v>1</v>
+      </c>
       <c r="K158" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F159" s="6"/>
-      <c r="G159" s="126" t="s">
+      <c r="G159" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="H159" s="126">
-        <v>1</v>
-      </c>
-      <c r="I159" s="126">
+      <c r="H159" s="4">
+        <v>1</v>
+      </c>
+      <c r="I159" s="4">
         <v>0</v>
       </c>
-      <c r="J159" s="126"/>
       <c r="K159" s="6"/>
     </row>
     <row r="160" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F160" s="6"/>
-      <c r="G160" s="126" t="s">
+      <c r="G160" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="H160" s="126">
-        <v>1</v>
-      </c>
-      <c r="I160" s="126">
+      <c r="H160" s="4">
+        <v>1</v>
+      </c>
+      <c r="I160" s="4">
         <v>0</v>
       </c>
-      <c r="J160" s="126"/>
       <c r="K160" s="6"/>
     </row>
     <row r="161" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F161" s="6"/>
-      <c r="G161" s="126" t="s">
+      <c r="G161" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="H161" s="126">
+      <c r="H161" s="4">
         <v>2</v>
       </c>
-      <c r="I161" s="126">
+      <c r="I161" s="4">
         <v>0</v>
       </c>
-      <c r="J161" s="126"/>
       <c r="K161" s="6"/>
     </row>
     <row r="162" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F162" s="6"/>
-      <c r="G162" s="126" t="s">
+      <c r="G162" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="H162" s="126">
+      <c r="H162" s="4">
         <v>2</v>
       </c>
-      <c r="I162" s="126">
+      <c r="I162" s="4">
         <v>0</v>
       </c>
-      <c r="J162" s="126"/>
       <c r="K162" s="6"/>
     </row>
     <row r="163" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F163" s="6"/>
-      <c r="G163" s="126" t="s">
+      <c r="G163" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="H163" s="126">
-        <v>1</v>
-      </c>
-      <c r="I163" s="126"/>
-      <c r="J163" s="126"/>
+      <c r="H163" s="4">
+        <v>1</v>
+      </c>
       <c r="K163" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F164" s="6"/>
-      <c r="G164" s="126" t="s">
+      <c r="G164" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H164" s="126">
-        <v>1</v>
-      </c>
-      <c r="I164" s="126"/>
-      <c r="J164" s="126"/>
+      <c r="H164" s="4">
+        <v>1</v>
+      </c>
       <c r="K164" s="6">
         <v>0</v>
       </c>
@@ -28743,27 +28714,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="T126:AH126"/>
-    <mergeCell ref="S115:AH115"/>
-    <mergeCell ref="U116:W116"/>
-    <mergeCell ref="X116:AC116"/>
-    <mergeCell ref="AD116:AH116"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="S31:V31"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="S49:AK49"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:AK2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="S85:V85"/>
     <mergeCell ref="S95:V95"/>
     <mergeCell ref="S104:V104"/>
     <mergeCell ref="S50:V50"/>
     <mergeCell ref="S72:V72"/>
     <mergeCell ref="S84:AK84"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:AK2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S31:V31"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="S49:AK49"/>
+    <mergeCell ref="T126:AH126"/>
+    <mergeCell ref="S115:AH115"/>
+    <mergeCell ref="U116:W116"/>
+    <mergeCell ref="X116:AC116"/>
+    <mergeCell ref="AD116:AH116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28845,181 +28816,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:161" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="95" t="s">
         <v>640</v>
       </c>
       <c r="C1" s="30"/>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
-      <c r="AN1" s="102"/>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="102"/>
-      <c r="AQ1" s="102"/>
-      <c r="AR1" s="102"/>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="102"/>
-      <c r="AU1" s="102"/>
-      <c r="AV1" s="102"/>
-      <c r="AW1" s="102"/>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
-      <c r="BC1" s="102"/>
-      <c r="BD1" s="102"/>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="102"/>
-      <c r="BI1" s="102"/>
-      <c r="BJ1" s="102"/>
-      <c r="BK1" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL1" s="102"/>
-      <c r="BM1" s="102"/>
-      <c r="BN1" s="102"/>
-      <c r="BO1" s="102"/>
-      <c r="BP1" s="102"/>
-      <c r="BQ1" s="102"/>
-      <c r="BR1" s="102"/>
-      <c r="BS1" s="102"/>
-      <c r="BT1" s="102"/>
-      <c r="BU1" s="102"/>
-      <c r="BV1" s="102"/>
-      <c r="BW1" s="102"/>
-      <c r="BX1" s="102"/>
-      <c r="BY1" s="102"/>
-      <c r="BZ1" s="102"/>
-      <c r="CA1" s="102"/>
-      <c r="CB1" s="102"/>
-      <c r="CC1" s="102"/>
-      <c r="CD1" s="102"/>
-      <c r="CE1" s="102"/>
-      <c r="CF1" s="102"/>
-      <c r="CG1" s="102"/>
-      <c r="CH1" s="102"/>
-      <c r="CI1" s="102"/>
-      <c r="CJ1" s="102"/>
-      <c r="CK1" s="102"/>
-      <c r="CL1" s="102"/>
-      <c r="CM1" s="102"/>
-      <c r="CN1" s="102"/>
-      <c r="CO1" s="102"/>
-      <c r="CP1" s="102"/>
-      <c r="CQ1" s="102"/>
-      <c r="CR1" s="102"/>
-      <c r="CS1" s="102"/>
-      <c r="CT1" s="102"/>
-      <c r="CU1" s="102"/>
-      <c r="CV1" s="102"/>
-      <c r="CW1" s="102"/>
-      <c r="CX1" s="102"/>
-      <c r="CY1" s="102"/>
-      <c r="CZ1" s="102"/>
-      <c r="DA1" s="102"/>
-      <c r="DB1" s="102"/>
-      <c r="DC1" s="102"/>
-      <c r="DD1" s="102"/>
-      <c r="DE1" s="102"/>
-      <c r="DF1" s="102"/>
-      <c r="DG1" s="102"/>
-      <c r="DH1" s="102"/>
-      <c r="DI1" s="102"/>
-      <c r="DJ1" s="102"/>
-      <c r="DK1" s="102"/>
-      <c r="DL1" s="102"/>
-      <c r="DM1" s="102"/>
-      <c r="DN1" s="102"/>
-      <c r="DO1" s="102"/>
-      <c r="DP1" s="102"/>
-      <c r="DQ1" s="102"/>
-      <c r="DR1" s="102"/>
-      <c r="DS1" s="102" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="93"/>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+      <c r="AU1" s="93"/>
+      <c r="AV1" s="93"/>
+      <c r="AW1" s="93"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="93"/>
+      <c r="BA1" s="93"/>
+      <c r="BB1" s="93"/>
+      <c r="BC1" s="93"/>
+      <c r="BD1" s="93"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
+      <c r="BJ1" s="93"/>
+      <c r="BK1" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL1" s="93"/>
+      <c r="BM1" s="93"/>
+      <c r="BN1" s="93"/>
+      <c r="BO1" s="93"/>
+      <c r="BP1" s="93"/>
+      <c r="BQ1" s="93"/>
+      <c r="BR1" s="93"/>
+      <c r="BS1" s="93"/>
+      <c r="BT1" s="93"/>
+      <c r="BU1" s="93"/>
+      <c r="BV1" s="93"/>
+      <c r="BW1" s="93"/>
+      <c r="BX1" s="93"/>
+      <c r="BY1" s="93"/>
+      <c r="BZ1" s="93"/>
+      <c r="CA1" s="93"/>
+      <c r="CB1" s="93"/>
+      <c r="CC1" s="93"/>
+      <c r="CD1" s="93"/>
+      <c r="CE1" s="93"/>
+      <c r="CF1" s="93"/>
+      <c r="CG1" s="93"/>
+      <c r="CH1" s="93"/>
+      <c r="CI1" s="93"/>
+      <c r="CJ1" s="93"/>
+      <c r="CK1" s="93"/>
+      <c r="CL1" s="93"/>
+      <c r="CM1" s="93"/>
+      <c r="CN1" s="93"/>
+      <c r="CO1" s="93"/>
+      <c r="CP1" s="93"/>
+      <c r="CQ1" s="93"/>
+      <c r="CR1" s="93"/>
+      <c r="CS1" s="93"/>
+      <c r="CT1" s="93"/>
+      <c r="CU1" s="93"/>
+      <c r="CV1" s="93"/>
+      <c r="CW1" s="93"/>
+      <c r="CX1" s="93"/>
+      <c r="CY1" s="93"/>
+      <c r="CZ1" s="93"/>
+      <c r="DA1" s="93"/>
+      <c r="DB1" s="93"/>
+      <c r="DC1" s="93"/>
+      <c r="DD1" s="93"/>
+      <c r="DE1" s="93"/>
+      <c r="DF1" s="93"/>
+      <c r="DG1" s="93"/>
+      <c r="DH1" s="93"/>
+      <c r="DI1" s="93"/>
+      <c r="DJ1" s="93"/>
+      <c r="DK1" s="93"/>
+      <c r="DL1" s="93"/>
+      <c r="DM1" s="93"/>
+      <c r="DN1" s="93"/>
+      <c r="DO1" s="93"/>
+      <c r="DP1" s="93"/>
+      <c r="DQ1" s="93"/>
+      <c r="DR1" s="93"/>
+      <c r="DS1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="DT1" s="102"/>
-      <c r="DU1" s="102"/>
-      <c r="DV1" s="102"/>
-      <c r="DW1" s="102"/>
-      <c r="DX1" s="102"/>
-      <c r="DY1" s="102"/>
-      <c r="DZ1" s="102"/>
-      <c r="EA1" s="102"/>
-      <c r="EB1" s="102"/>
-      <c r="EC1" s="102"/>
-      <c r="ED1" s="102"/>
-      <c r="EE1" s="102"/>
-      <c r="EF1" s="102"/>
-      <c r="EG1" s="102"/>
-      <c r="EH1" s="102"/>
-      <c r="EI1" s="102"/>
-      <c r="EJ1" s="102"/>
-      <c r="EK1" s="102"/>
-      <c r="EL1" s="102"/>
-      <c r="EM1" s="102"/>
-      <c r="EN1" s="102"/>
-      <c r="EO1" s="102"/>
-      <c r="EP1" s="102"/>
-      <c r="EQ1" s="102"/>
-      <c r="ER1" s="102"/>
-      <c r="ES1" s="102"/>
-      <c r="ET1" s="102"/>
-      <c r="EU1" s="102"/>
-      <c r="EV1" s="102"/>
-      <c r="EW1" s="102"/>
-      <c r="EX1" s="102"/>
-      <c r="EY1" s="102"/>
-      <c r="EZ1" s="102"/>
-      <c r="FA1" s="102"/>
-      <c r="FB1" s="102"/>
-      <c r="FC1" s="102"/>
-      <c r="FD1" s="102"/>
-      <c r="FE1" s="106"/>
+      <c r="DT1" s="93"/>
+      <c r="DU1" s="93"/>
+      <c r="DV1" s="93"/>
+      <c r="DW1" s="93"/>
+      <c r="DX1" s="93"/>
+      <c r="DY1" s="93"/>
+      <c r="DZ1" s="93"/>
+      <c r="EA1" s="93"/>
+      <c r="EB1" s="93"/>
+      <c r="EC1" s="93"/>
+      <c r="ED1" s="93"/>
+      <c r="EE1" s="93"/>
+      <c r="EF1" s="93"/>
+      <c r="EG1" s="93"/>
+      <c r="EH1" s="93"/>
+      <c r="EI1" s="93"/>
+      <c r="EJ1" s="93"/>
+      <c r="EK1" s="93"/>
+      <c r="EL1" s="93"/>
+      <c r="EM1" s="93"/>
+      <c r="EN1" s="93"/>
+      <c r="EO1" s="93"/>
+      <c r="EP1" s="93"/>
+      <c r="EQ1" s="93"/>
+      <c r="ER1" s="93"/>
+      <c r="ES1" s="93"/>
+      <c r="ET1" s="93"/>
+      <c r="EU1" s="93"/>
+      <c r="EV1" s="93"/>
+      <c r="EW1" s="93"/>
+      <c r="EX1" s="93"/>
+      <c r="EY1" s="93"/>
+      <c r="EZ1" s="93"/>
+      <c r="FA1" s="93"/>
+      <c r="FB1" s="93"/>
+      <c r="FC1" s="93"/>
+      <c r="FD1" s="93"/>
+      <c r="FE1" s="94"/>
     </row>
     <row r="2" spans="1:161" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="96"/>
       <c r="C2" s="1" t="s">
         <v>569</v>
       </c>
@@ -29381,8 +29352,8 @@
       <c r="FE2" s="8"/>
     </row>
     <row r="3" spans="1:161" x14ac:dyDescent="0.2">
-      <c r="A3" s="97"/>
-      <c r="B3" s="94"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="1" t="s">
         <v>570</v>
       </c>
@@ -29796,8 +29767,8 @@
       <c r="FE3" s="8"/>
     </row>
     <row r="4" spans="1:161" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="32" t="s">
         <v>571</v>
       </c>
@@ -30225,181 +30196,181 @@
       <c r="FE4" s="12"/>
     </row>
     <row r="5" spans="1:161" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="99"/>
     </row>
     <row r="6" spans="1:161" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
-      <c r="B6" s="93" t="s">
+      <c r="A6" s="99"/>
+      <c r="B6" s="95" t="s">
         <v>641</v>
       </c>
       <c r="C6" s="41"/>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="93" t="s">
         <v>592</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="102"/>
-      <c r="AO6" s="102"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="102"/>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="102"/>
-      <c r="AU6" s="102"/>
-      <c r="AV6" s="102"/>
-      <c r="AW6" s="102"/>
-      <c r="AX6" s="102"/>
-      <c r="AY6" s="102"/>
-      <c r="AZ6" s="102"/>
-      <c r="BA6" s="102"/>
-      <c r="BB6" s="102"/>
-      <c r="BC6" s="102"/>
-      <c r="BD6" s="102"/>
-      <c r="BE6" s="102"/>
-      <c r="BF6" s="102" t="s">
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="93"/>
+      <c r="AW6" s="93"/>
+      <c r="AX6" s="93"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="93"/>
+      <c r="BA6" s="93"/>
+      <c r="BB6" s="93"/>
+      <c r="BC6" s="93"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="93"/>
+      <c r="BF6" s="93" t="s">
         <v>593</v>
       </c>
-      <c r="BG6" s="102"/>
-      <c r="BH6" s="102"/>
-      <c r="BI6" s="102"/>
-      <c r="BJ6" s="102"/>
-      <c r="BK6" s="102"/>
-      <c r="BL6" s="102"/>
-      <c r="BM6" s="102"/>
-      <c r="BN6" s="102"/>
-      <c r="BO6" s="102"/>
-      <c r="BP6" s="102"/>
-      <c r="BQ6" s="102"/>
-      <c r="BR6" s="102"/>
-      <c r="BS6" s="102"/>
-      <c r="BT6" s="102"/>
-      <c r="BU6" s="102"/>
-      <c r="BV6" s="102"/>
-      <c r="BW6" s="102"/>
-      <c r="BX6" s="102"/>
-      <c r="BY6" s="102"/>
-      <c r="BZ6" s="102"/>
-      <c r="CA6" s="102"/>
-      <c r="CB6" s="102"/>
-      <c r="CC6" s="102"/>
-      <c r="CD6" s="102"/>
-      <c r="CE6" s="102"/>
-      <c r="CF6" s="102"/>
-      <c r="CG6" s="102"/>
-      <c r="CH6" s="102"/>
-      <c r="CI6" s="102"/>
-      <c r="CJ6" s="102"/>
-      <c r="CK6" s="102"/>
-      <c r="CL6" s="102"/>
-      <c r="CM6" s="102"/>
-      <c r="CN6" s="102"/>
-      <c r="CO6" s="102"/>
-      <c r="CP6" s="102"/>
-      <c r="CQ6" s="102"/>
-      <c r="CR6" s="102"/>
-      <c r="CS6" s="102"/>
-      <c r="CT6" s="102"/>
-      <c r="CU6" s="102"/>
-      <c r="CV6" s="102"/>
-      <c r="CW6" s="102"/>
-      <c r="CX6" s="102"/>
-      <c r="CY6" s="102"/>
-      <c r="CZ6" s="102"/>
-      <c r="DA6" s="102"/>
-      <c r="DB6" s="102"/>
-      <c r="DC6" s="102"/>
-      <c r="DD6" s="102"/>
-      <c r="DE6" s="102"/>
-      <c r="DF6" s="102"/>
-      <c r="DG6" s="102"/>
-      <c r="DH6" s="102"/>
-      <c r="DI6" s="102" t="s">
+      <c r="BG6" s="93"/>
+      <c r="BH6" s="93"/>
+      <c r="BI6" s="93"/>
+      <c r="BJ6" s="93"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="93"/>
+      <c r="BM6" s="93"/>
+      <c r="BN6" s="93"/>
+      <c r="BO6" s="93"/>
+      <c r="BP6" s="93"/>
+      <c r="BQ6" s="93"/>
+      <c r="BR6" s="93"/>
+      <c r="BS6" s="93"/>
+      <c r="BT6" s="93"/>
+      <c r="BU6" s="93"/>
+      <c r="BV6" s="93"/>
+      <c r="BW6" s="93"/>
+      <c r="BX6" s="93"/>
+      <c r="BY6" s="93"/>
+      <c r="BZ6" s="93"/>
+      <c r="CA6" s="93"/>
+      <c r="CB6" s="93"/>
+      <c r="CC6" s="93"/>
+      <c r="CD6" s="93"/>
+      <c r="CE6" s="93"/>
+      <c r="CF6" s="93"/>
+      <c r="CG6" s="93"/>
+      <c r="CH6" s="93"/>
+      <c r="CI6" s="93"/>
+      <c r="CJ6" s="93"/>
+      <c r="CK6" s="93"/>
+      <c r="CL6" s="93"/>
+      <c r="CM6" s="93"/>
+      <c r="CN6" s="93"/>
+      <c r="CO6" s="93"/>
+      <c r="CP6" s="93"/>
+      <c r="CQ6" s="93"/>
+      <c r="CR6" s="93"/>
+      <c r="CS6" s="93"/>
+      <c r="CT6" s="93"/>
+      <c r="CU6" s="93"/>
+      <c r="CV6" s="93"/>
+      <c r="CW6" s="93"/>
+      <c r="CX6" s="93"/>
+      <c r="CY6" s="93"/>
+      <c r="CZ6" s="93"/>
+      <c r="DA6" s="93"/>
+      <c r="DB6" s="93"/>
+      <c r="DC6" s="93"/>
+      <c r="DD6" s="93"/>
+      <c r="DE6" s="93"/>
+      <c r="DF6" s="93"/>
+      <c r="DG6" s="93"/>
+      <c r="DH6" s="93"/>
+      <c r="DI6" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="DJ6" s="102"/>
-      <c r="DK6" s="102"/>
-      <c r="DL6" s="102"/>
-      <c r="DM6" s="102"/>
-      <c r="DN6" s="102"/>
-      <c r="DO6" s="102"/>
-      <c r="DP6" s="102"/>
-      <c r="DQ6" s="102"/>
-      <c r="DR6" s="102"/>
-      <c r="DS6" s="102"/>
-      <c r="DT6" s="102"/>
-      <c r="DU6" s="102"/>
-      <c r="DV6" s="102"/>
-      <c r="DW6" s="102"/>
-      <c r="DX6" s="102"/>
-      <c r="DY6" s="102"/>
-      <c r="DZ6" s="102"/>
-      <c r="EA6" s="102"/>
-      <c r="EB6" s="102"/>
-      <c r="EC6" s="102"/>
-      <c r="ED6" s="102"/>
-      <c r="EE6" s="102"/>
-      <c r="EF6" s="102"/>
-      <c r="EG6" s="102"/>
-      <c r="EH6" s="102"/>
-      <c r="EI6" s="102"/>
-      <c r="EJ6" s="102"/>
-      <c r="EK6" s="102"/>
-      <c r="EL6" s="102"/>
-      <c r="EM6" s="102"/>
-      <c r="EN6" s="102"/>
-      <c r="EO6" s="102"/>
-      <c r="EP6" s="102"/>
-      <c r="EQ6" s="102"/>
-      <c r="ER6" s="102"/>
-      <c r="ES6" s="102"/>
-      <c r="ET6" s="102"/>
-      <c r="EU6" s="102"/>
-      <c r="EV6" s="102"/>
-      <c r="EW6" s="102"/>
-      <c r="EX6" s="102"/>
-      <c r="EY6" s="102"/>
-      <c r="EZ6" s="102"/>
-      <c r="FA6" s="102"/>
-      <c r="FB6" s="102"/>
-      <c r="FC6" s="102"/>
-      <c r="FD6" s="106"/>
+      <c r="DJ6" s="93"/>
+      <c r="DK6" s="93"/>
+      <c r="DL6" s="93"/>
+      <c r="DM6" s="93"/>
+      <c r="DN6" s="93"/>
+      <c r="DO6" s="93"/>
+      <c r="DP6" s="93"/>
+      <c r="DQ6" s="93"/>
+      <c r="DR6" s="93"/>
+      <c r="DS6" s="93"/>
+      <c r="DT6" s="93"/>
+      <c r="DU6" s="93"/>
+      <c r="DV6" s="93"/>
+      <c r="DW6" s="93"/>
+      <c r="DX6" s="93"/>
+      <c r="DY6" s="93"/>
+      <c r="DZ6" s="93"/>
+      <c r="EA6" s="93"/>
+      <c r="EB6" s="93"/>
+      <c r="EC6" s="93"/>
+      <c r="ED6" s="93"/>
+      <c r="EE6" s="93"/>
+      <c r="EF6" s="93"/>
+      <c r="EG6" s="93"/>
+      <c r="EH6" s="93"/>
+      <c r="EI6" s="93"/>
+      <c r="EJ6" s="93"/>
+      <c r="EK6" s="93"/>
+      <c r="EL6" s="93"/>
+      <c r="EM6" s="93"/>
+      <c r="EN6" s="93"/>
+      <c r="EO6" s="93"/>
+      <c r="EP6" s="93"/>
+      <c r="EQ6" s="93"/>
+      <c r="ER6" s="93"/>
+      <c r="ES6" s="93"/>
+      <c r="ET6" s="93"/>
+      <c r="EU6" s="93"/>
+      <c r="EV6" s="93"/>
+      <c r="EW6" s="93"/>
+      <c r="EX6" s="93"/>
+      <c r="EY6" s="93"/>
+      <c r="EZ6" s="93"/>
+      <c r="FA6" s="93"/>
+      <c r="FB6" s="93"/>
+      <c r="FC6" s="93"/>
+      <c r="FD6" s="94"/>
     </row>
     <row r="7" spans="1:161" x14ac:dyDescent="0.2">
-      <c r="A7" s="97"/>
-      <c r="B7" s="94"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="5" t="s">
         <v>296</v>
       </c>
@@ -30776,8 +30747,8 @@
       <c r="FD7" s="8"/>
     </row>
     <row r="8" spans="1:161" x14ac:dyDescent="0.2">
-      <c r="A8" s="97"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="5" t="s">
         <v>297</v>
       </c>
@@ -31144,8 +31115,8 @@
       <c r="FD8" s="8"/>
     </row>
     <row r="9" spans="1:161" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="95"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="20" t="s">
         <v>298</v>
       </c>
@@ -31518,10 +31489,10 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:161" x14ac:dyDescent="0.2">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="101" t="s">
         <v>572</v>
       </c>
       <c r="C11" s="49" t="s">
@@ -31537,7 +31508,7 @@
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="43"/>
-      <c r="M11" s="99" t="s">
+      <c r="M11" s="101" t="s">
         <v>595</v>
       </c>
       <c r="N11" s="33" t="s">
@@ -31569,8 +31540,8 @@
       <c r="AF11" s="43"/>
     </row>
     <row r="12" spans="1:161" x14ac:dyDescent="0.2">
-      <c r="A12" s="104"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -31578,7 +31549,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="K12" s="44"/>
-      <c r="M12" s="100"/>
+      <c r="M12" s="102"/>
       <c r="N12" s="5"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -31594,8 +31565,8 @@
       <c r="AF12" s="44"/>
     </row>
     <row r="13" spans="1:161" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="1" t="s">
         <v>92</v>
       </c>
@@ -31607,7 +31578,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="K13" s="44"/>
-      <c r="M13" s="100"/>
+      <c r="M13" s="102"/>
       <c r="N13" s="5" t="s">
         <v>92</v>
       </c>
@@ -31631,8 +31602,8 @@
       <c r="AF13" s="44"/>
     </row>
     <row r="14" spans="1:161" x14ac:dyDescent="0.2">
-      <c r="A14" s="104"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
@@ -31644,7 +31615,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="K14" s="44"/>
-      <c r="M14" s="100"/>
+      <c r="M14" s="102"/>
       <c r="N14" s="5" t="s">
         <v>5</v>
       </c>
@@ -31668,8 +31639,8 @@
       <c r="AF14" s="44"/>
     </row>
     <row r="15" spans="1:161" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -31677,7 +31648,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="K15" s="44"/>
-      <c r="M15" s="100"/>
+      <c r="M15" s="102"/>
       <c r="N15" s="5"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -31693,8 +31664,8 @@
       <c r="AF15" s="44"/>
     </row>
     <row r="16" spans="1:161" x14ac:dyDescent="0.2">
-      <c r="A16" s="104"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="1" t="s">
         <v>94</v>
       </c>
@@ -31712,7 +31683,7 @@
       </c>
       <c r="H16" s="2"/>
       <c r="K16" s="44"/>
-      <c r="M16" s="100"/>
+      <c r="M16" s="102"/>
       <c r="N16" s="5" t="s">
         <v>94</v>
       </c>
@@ -31748,8 +31719,8 @@
       <c r="AF16" s="44"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="1" t="s">
         <v>96</v>
       </c>
@@ -31767,7 +31738,7 @@
       </c>
       <c r="H17" s="2"/>
       <c r="K17" s="44"/>
-      <c r="M17" s="100"/>
+      <c r="M17" s="102"/>
       <c r="N17" s="5" t="s">
         <v>96</v>
       </c>
@@ -31803,8 +31774,8 @@
       <c r="AF17" s="44"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" s="104"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="1" t="s">
         <v>574</v>
       </c>
@@ -31822,7 +31793,7 @@
       </c>
       <c r="H18" s="2"/>
       <c r="K18" s="44"/>
-      <c r="M18" s="100"/>
+      <c r="M18" s="102"/>
       <c r="N18" s="5" t="s">
         <v>574</v>
       </c>
@@ -31858,8 +31829,8 @@
       <c r="AF18" s="44"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A19" s="104"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="1" t="s">
         <v>99</v>
       </c>
@@ -31877,7 +31848,7 @@
       </c>
       <c r="H19" s="2"/>
       <c r="K19" s="44"/>
-      <c r="M19" s="100"/>
+      <c r="M19" s="102"/>
       <c r="N19" s="5" t="s">
         <v>99</v>
       </c>
@@ -31913,8 +31884,8 @@
       <c r="AF19" s="44"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A20" s="104"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -31922,7 +31893,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="K20" s="44"/>
-      <c r="M20" s="100"/>
+      <c r="M20" s="102"/>
       <c r="N20" s="5"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -31938,8 +31909,8 @@
       <c r="AF20" s="44"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
-      <c r="B21" s="100"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="1" t="s">
         <v>100</v>
       </c>
@@ -31959,7 +31930,7 @@
         <v>34</v>
       </c>
       <c r="K21" s="44"/>
-      <c r="M21" s="100"/>
+      <c r="M21" s="102"/>
       <c r="N21" s="5" t="s">
         <v>100</v>
       </c>
@@ -31999,8 +31970,8 @@
       <c r="AF21" s="44"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
-      <c r="B22" s="100"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="1" t="s">
         <v>96</v>
       </c>
@@ -32020,7 +31991,7 @@
         <v>194</v>
       </c>
       <c r="K22" s="44"/>
-      <c r="M22" s="100"/>
+      <c r="M22" s="102"/>
       <c r="N22" s="5" t="s">
         <v>96</v>
       </c>
@@ -32060,8 +32031,8 @@
       <c r="AF22" s="44"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
-      <c r="B23" s="100"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="1" t="s">
         <v>574</v>
       </c>
@@ -32081,7 +32052,7 @@
         <v>194</v>
       </c>
       <c r="K23" s="44"/>
-      <c r="M23" s="100"/>
+      <c r="M23" s="102"/>
       <c r="N23" s="5" t="s">
         <v>574</v>
       </c>
@@ -32121,8 +32092,8 @@
       <c r="AF23" s="44"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
-      <c r="B24" s="100"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="1" t="s">
         <v>99</v>
       </c>
@@ -32142,7 +32113,7 @@
         <v>194</v>
       </c>
       <c r="K24" s="44"/>
-      <c r="M24" s="100"/>
+      <c r="M24" s="102"/>
       <c r="N24" s="5" t="s">
         <v>99</v>
       </c>
@@ -32182,8 +32153,8 @@
       <c r="AF24" s="44"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="1" t="s">
         <v>111</v>
       </c>
@@ -32199,7 +32170,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="K25" s="44"/>
-      <c r="M25" s="100"/>
+      <c r="M25" s="102"/>
       <c r="N25" s="5" t="s">
         <v>111</v>
       </c>
@@ -32231,8 +32202,8 @@
       <c r="AF25" s="44"/>
     </row>
     <row r="26" spans="1:32" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="104"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -32240,7 +32211,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="K26" s="44"/>
-      <c r="M26" s="100"/>
+      <c r="M26" s="102"/>
       <c r="N26" s="5"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -32256,8 +32227,8 @@
       <c r="AF26" s="44"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
-      <c r="B27" s="100"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="1" t="s">
         <v>41</v>
       </c>
@@ -32267,7 +32238,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="K27" s="44"/>
-      <c r="M27" s="100"/>
+      <c r="M27" s="102"/>
       <c r="N27" s="5" t="s">
         <v>41</v>
       </c>
@@ -32287,8 +32258,8 @@
       <c r="AF27" s="44"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A28" s="104"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="1" t="s">
         <v>130</v>
       </c>
@@ -32300,7 +32271,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="K28" s="44"/>
-      <c r="M28" s="100"/>
+      <c r="M28" s="102"/>
       <c r="N28" s="5" t="s">
         <v>130</v>
       </c>
@@ -32324,8 +32295,8 @@
       <c r="AF28" s="44"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29" s="104"/>
-      <c r="B29" s="100"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="102"/>
       <c r="C29" s="1" t="s">
         <v>578</v>
       </c>
@@ -32337,7 +32308,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="K29" s="44"/>
-      <c r="M29" s="100"/>
+      <c r="M29" s="102"/>
       <c r="N29" s="5" t="s">
         <v>578</v>
       </c>
@@ -32361,8 +32332,8 @@
       <c r="AF29" s="44"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A30" s="104"/>
-      <c r="B30" s="100"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="1" t="s">
         <v>132</v>
       </c>
@@ -32374,7 +32345,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="K30" s="44"/>
-      <c r="M30" s="100"/>
+      <c r="M30" s="102"/>
       <c r="N30" s="5" t="s">
         <v>132</v>
       </c>
@@ -32398,8 +32369,8 @@
       <c r="AF30" s="44"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A31" s="104"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -32409,7 +32380,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="19"/>
-      <c r="M31" s="100"/>
+      <c r="M31" s="102"/>
       <c r="N31" s="18"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -32430,8 +32401,8 @@
       <c r="AF31" s="19"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A32" s="104"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="102"/>
       <c r="C32" s="1" t="s">
         <v>579</v>
       </c>
@@ -32443,7 +32414,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="8"/>
-      <c r="M32" s="100"/>
+      <c r="M32" s="102"/>
       <c r="N32" s="5" t="s">
         <v>579</v>
       </c>
@@ -32468,8 +32439,8 @@
       <c r="AF32" s="8"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -32479,7 +32450,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="8"/>
-      <c r="M33" s="100"/>
+      <c r="M33" s="102"/>
       <c r="N33" s="5"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -32500,8 +32471,8 @@
       <c r="AF33" s="8"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
-      <c r="B34" s="100"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="102"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -32515,7 +32486,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="8"/>
-      <c r="M34" s="100"/>
+      <c r="M34" s="102"/>
       <c r="N34" s="5" t="s">
         <v>3</v>
       </c>
@@ -32544,8 +32515,8 @@
       <c r="AF34" s="8"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
@@ -32559,7 +32530,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="8"/>
-      <c r="M35" s="100"/>
+      <c r="M35" s="102"/>
       <c r="N35" s="5" t="s">
         <v>4</v>
       </c>
@@ -32588,8 +32559,8 @@
       <c r="AF35" s="8"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A36" s="104"/>
-      <c r="B36" s="100"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="102"/>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
@@ -32603,7 +32574,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="8"/>
-      <c r="M36" s="100"/>
+      <c r="M36" s="102"/>
       <c r="N36" s="5" t="s">
         <v>5</v>
       </c>
@@ -32632,8 +32603,8 @@
       <c r="AF36" s="8"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A37" s="104"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="102"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -32643,7 +32614,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="8"/>
-      <c r="M37" s="100"/>
+      <c r="M37" s="102"/>
       <c r="N37" s="5"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -32664,8 +32635,8 @@
       <c r="AF37" s="8"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A38" s="104"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="102"/>
       <c r="C38" s="1" t="s">
         <v>205</v>
       </c>
@@ -32687,7 +32658,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="8"/>
-      <c r="M38" s="100"/>
+      <c r="M38" s="102"/>
       <c r="N38" s="5" t="s">
         <v>205</v>
       </c>
@@ -32732,8 +32703,8 @@
       <c r="AF38" s="8"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A39" s="104"/>
-      <c r="B39" s="100"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -32743,7 +32714,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="8"/>
-      <c r="M39" s="100"/>
+      <c r="M39" s="102"/>
       <c r="N39" s="5"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -32764,8 +32735,8 @@
       <c r="AF39" s="8"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A40" s="104"/>
-      <c r="B40" s="100"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="102"/>
       <c r="C40" s="1" t="s">
         <v>0</v>
       </c>
@@ -32777,7 +32748,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="8"/>
-      <c r="M40" s="100"/>
+      <c r="M40" s="102"/>
       <c r="N40" s="5" t="s">
         <v>592</v>
       </c>
@@ -32802,8 +32773,8 @@
       <c r="AF40" s="8"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="104"/>
-      <c r="B41" s="100"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="102"/>
       <c r="C41" s="1" t="s">
         <v>580</v>
       </c>
@@ -32825,7 +32796,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="8"/>
-      <c r="M41" s="100"/>
+      <c r="M41" s="102"/>
       <c r="N41" s="5" t="s">
         <v>600</v>
       </c>
@@ -32870,8 +32841,8 @@
       <c r="AF41" s="8"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="104"/>
-      <c r="B42" s="100"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="102"/>
       <c r="C42" s="1" t="s">
         <v>582</v>
       </c>
@@ -32893,7 +32864,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="8"/>
-      <c r="M42" s="100"/>
+      <c r="M42" s="102"/>
       <c r="N42" s="5" t="s">
         <v>602</v>
       </c>
@@ -32938,8 +32909,8 @@
       <c r="AF42" s="8"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="104"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="1" t="s">
         <v>584</v>
       </c>
@@ -32961,7 +32932,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="8"/>
-      <c r="M43" s="100"/>
+      <c r="M43" s="102"/>
       <c r="N43" s="5" t="s">
         <v>604</v>
       </c>
@@ -33006,8 +32977,8 @@
       <c r="AF43" s="8"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="104"/>
-      <c r="B44" s="100"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -33017,7 +32988,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="8"/>
-      <c r="M44" s="100"/>
+      <c r="M44" s="102"/>
       <c r="N44" s="5"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -33038,8 +33009,8 @@
       <c r="AF44" s="8"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="104"/>
-      <c r="B45" s="100"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="1" t="s">
         <v>1</v>
       </c>
@@ -33051,7 +33022,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="8"/>
-      <c r="M45" s="100"/>
+      <c r="M45" s="102"/>
       <c r="N45" s="5" t="s">
         <v>593</v>
       </c>
@@ -33076,8 +33047,8 @@
       <c r="AF45" s="8"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="104"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="1" t="s">
         <v>580</v>
       </c>
@@ -33099,7 +33070,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="8"/>
-      <c r="M46" s="100"/>
+      <c r="M46" s="102"/>
       <c r="N46" s="5" t="s">
         <v>600</v>
       </c>
@@ -33144,8 +33115,8 @@
       <c r="AF46" s="8"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A47" s="104"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="1" t="s">
         <v>582</v>
       </c>
@@ -33167,7 +33138,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="8"/>
-      <c r="M47" s="100"/>
+      <c r="M47" s="102"/>
       <c r="N47" s="5" t="s">
         <v>602</v>
       </c>
@@ -33212,8 +33183,8 @@
       <c r="AF47" s="8"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A48" s="104"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="1" t="s">
         <v>584</v>
       </c>
@@ -33235,7 +33206,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="8"/>
-      <c r="M48" s="100"/>
+      <c r="M48" s="102"/>
       <c r="N48" s="5" t="s">
         <v>604</v>
       </c>
@@ -33280,8 +33251,8 @@
       <c r="AF48" s="8"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A49" s="104"/>
-      <c r="B49" s="100"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -33291,7 +33262,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="8"/>
-      <c r="M49" s="100"/>
+      <c r="M49" s="102"/>
       <c r="N49" s="5"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -33312,8 +33283,8 @@
       <c r="AF49" s="8"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A50" s="104"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="105"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
@@ -33325,7 +33296,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="8"/>
-      <c r="M50" s="100"/>
+      <c r="M50" s="102"/>
       <c r="N50" s="5" t="s">
         <v>594</v>
       </c>
@@ -33350,8 +33321,8 @@
       <c r="AF50" s="8"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A51" s="104"/>
-      <c r="B51" s="100"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="102"/>
       <c r="C51" s="1" t="s">
         <v>580</v>
       </c>
@@ -33373,7 +33344,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="8"/>
-      <c r="M51" s="100"/>
+      <c r="M51" s="102"/>
       <c r="N51" s="5" t="s">
         <v>600</v>
       </c>
@@ -33418,8 +33389,8 @@
       <c r="AF51" s="8"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A52" s="104"/>
-      <c r="B52" s="100"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="102"/>
       <c r="C52" s="1" t="s">
         <v>582</v>
       </c>
@@ -33441,7 +33412,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="8"/>
-      <c r="M52" s="100"/>
+      <c r="M52" s="102"/>
       <c r="N52" s="5" t="s">
         <v>602</v>
       </c>
@@ -33486,8 +33457,8 @@
       <c r="AF52" s="8"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A53" s="104"/>
-      <c r="B53" s="100"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="102"/>
       <c r="C53" s="1" t="s">
         <v>584</v>
       </c>
@@ -33509,7 +33480,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="8"/>
-      <c r="M53" s="100"/>
+      <c r="M53" s="102"/>
       <c r="N53" s="5" t="s">
         <v>604</v>
       </c>
@@ -33554,8 +33525,8 @@
       <c r="AF53" s="8"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A54" s="104"/>
-      <c r="B54" s="100"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="102"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -33565,7 +33536,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="8"/>
-      <c r="M54" s="100"/>
+      <c r="M54" s="102"/>
       <c r="N54" s="5"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -33586,8 +33557,8 @@
       <c r="AF54" s="8"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A55" s="104"/>
-      <c r="B55" s="100"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="102"/>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -33597,7 +33568,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="8"/>
-      <c r="M55" s="100"/>
+      <c r="M55" s="102"/>
       <c r="N55" s="5"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -33618,8 +33589,8 @@
       <c r="AF55" s="8"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A56" s="104"/>
-      <c r="B56" s="100"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="102"/>
       <c r="C56" s="1" t="s">
         <v>20</v>
       </c>
@@ -33647,7 +33618,7 @@
       <c r="K56" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M56" s="100"/>
+      <c r="M56" s="102"/>
       <c r="N56" s="5" t="s">
         <v>20</v>
       </c>
@@ -33704,8 +33675,8 @@
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A57" s="104"/>
-      <c r="B57" s="100"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="102"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -33715,7 +33686,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="8"/>
-      <c r="M57" s="100"/>
+      <c r="M57" s="102"/>
       <c r="N57" s="5"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -33736,8 +33707,8 @@
       <c r="AF57" s="8"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A58" s="104"/>
-      <c r="B58" s="100"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="102"/>
       <c r="C58" s="1" t="s">
         <v>0</v>
       </c>
@@ -33749,7 +33720,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="8"/>
-      <c r="M58" s="100"/>
+      <c r="M58" s="102"/>
       <c r="N58" s="5" t="s">
         <v>592</v>
       </c>
@@ -33774,8 +33745,8 @@
       <c r="AF58" s="8"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A59" s="104"/>
-      <c r="B59" s="100"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="102"/>
       <c r="C59" s="1" t="s">
         <v>580</v>
       </c>
@@ -33803,7 +33774,7 @@
       <c r="K59" s="8">
         <v>347</v>
       </c>
-      <c r="M59" s="100"/>
+      <c r="M59" s="102"/>
       <c r="N59" s="5" t="s">
         <v>600</v>
       </c>
@@ -33860,8 +33831,8 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A60" s="104"/>
-      <c r="B60" s="100"/>
+      <c r="A60" s="105"/>
+      <c r="B60" s="102"/>
       <c r="C60" s="1" t="s">
         <v>582</v>
       </c>
@@ -33889,7 +33860,7 @@
       <c r="K60" s="8">
         <v>347</v>
       </c>
-      <c r="M60" s="100"/>
+      <c r="M60" s="102"/>
       <c r="N60" s="5" t="s">
         <v>602</v>
       </c>
@@ -33946,8 +33917,8 @@
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A61" s="104"/>
-      <c r="B61" s="100"/>
+      <c r="A61" s="105"/>
+      <c r="B61" s="102"/>
       <c r="C61" s="1" t="s">
         <v>584</v>
       </c>
@@ -33975,7 +33946,7 @@
       <c r="K61" s="8">
         <v>347</v>
       </c>
-      <c r="M61" s="100"/>
+      <c r="M61" s="102"/>
       <c r="N61" s="5" t="s">
         <v>604</v>
       </c>
@@ -34032,8 +34003,8 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A62" s="104"/>
-      <c r="B62" s="100"/>
+      <c r="A62" s="105"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -34043,7 +34014,7 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="8"/>
-      <c r="M62" s="100"/>
+      <c r="M62" s="102"/>
       <c r="N62" s="5"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -34064,8 +34035,8 @@
       <c r="AF62" s="8"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A63" s="104"/>
-      <c r="B63" s="100"/>
+      <c r="A63" s="105"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="1" t="s">
         <v>1</v>
       </c>
@@ -34077,7 +34048,7 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="8"/>
-      <c r="M63" s="100"/>
+      <c r="M63" s="102"/>
       <c r="N63" s="5" t="s">
         <v>593</v>
       </c>
@@ -34102,8 +34073,8 @@
       <c r="AF63" s="8"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A64" s="104"/>
-      <c r="B64" s="100"/>
+      <c r="A64" s="105"/>
+      <c r="B64" s="102"/>
       <c r="C64" s="1" t="s">
         <v>580</v>
       </c>
@@ -34131,7 +34102,7 @@
       <c r="K64" s="8">
         <v>347</v>
       </c>
-      <c r="M64" s="100"/>
+      <c r="M64" s="102"/>
       <c r="N64" s="5" t="s">
         <v>600</v>
       </c>
@@ -34188,8 +34159,8 @@
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A65" s="104"/>
-      <c r="B65" s="100"/>
+      <c r="A65" s="105"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="1" t="s">
         <v>582</v>
       </c>
@@ -34217,7 +34188,7 @@
       <c r="K65" s="8">
         <v>347</v>
       </c>
-      <c r="M65" s="100"/>
+      <c r="M65" s="102"/>
       <c r="N65" s="5" t="s">
         <v>602</v>
       </c>
@@ -34274,8 +34245,8 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A66" s="104"/>
-      <c r="B66" s="100"/>
+      <c r="A66" s="105"/>
+      <c r="B66" s="102"/>
       <c r="C66" s="1" t="s">
         <v>584</v>
       </c>
@@ -34303,7 +34274,7 @@
       <c r="K66" s="8">
         <v>347</v>
       </c>
-      <c r="M66" s="100"/>
+      <c r="M66" s="102"/>
       <c r="N66" s="5" t="s">
         <v>604</v>
       </c>
@@ -34360,8 +34331,8 @@
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A67" s="104"/>
-      <c r="B67" s="100"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="102"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -34371,7 +34342,7 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="8"/>
-      <c r="M67" s="100"/>
+      <c r="M67" s="102"/>
       <c r="N67" s="5"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -34392,8 +34363,8 @@
       <c r="AF67" s="8"/>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A68" s="104"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="102"/>
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
@@ -34405,7 +34376,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="8"/>
-      <c r="M68" s="100"/>
+      <c r="M68" s="102"/>
       <c r="N68" s="5" t="s">
         <v>594</v>
       </c>
@@ -34430,8 +34401,8 @@
       <c r="AF68" s="8"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A69" s="104"/>
-      <c r="B69" s="100"/>
+      <c r="A69" s="105"/>
+      <c r="B69" s="102"/>
       <c r="C69" s="1" t="s">
         <v>580</v>
       </c>
@@ -34459,7 +34430,7 @@
       <c r="K69" s="8">
         <v>347</v>
       </c>
-      <c r="M69" s="100"/>
+      <c r="M69" s="102"/>
       <c r="N69" s="5" t="s">
         <v>600</v>
       </c>
@@ -34516,8 +34487,8 @@
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A70" s="104"/>
-      <c r="B70" s="100"/>
+      <c r="A70" s="105"/>
+      <c r="B70" s="102"/>
       <c r="C70" s="1" t="s">
         <v>582</v>
       </c>
@@ -34545,7 +34516,7 @@
       <c r="K70" s="8">
         <v>347</v>
       </c>
-      <c r="M70" s="100"/>
+      <c r="M70" s="102"/>
       <c r="N70" s="5" t="s">
         <v>602</v>
       </c>
@@ -34602,8 +34573,8 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="105"/>
-      <c r="B71" s="101"/>
+      <c r="A71" s="106"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="32" t="s">
         <v>584</v>
       </c>
@@ -34631,7 +34602,7 @@
       <c r="K71" s="12">
         <v>347</v>
       </c>
-      <c r="M71" s="101"/>
+      <c r="M71" s="103"/>
       <c r="N71" s="20" t="s">
         <v>604</v>
       </c>
@@ -34690,11 +34661,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="BF6:DH6"/>
-    <mergeCell ref="DI6:FD6"/>
-    <mergeCell ref="D1:BJ1"/>
-    <mergeCell ref="BK1:DR1"/>
-    <mergeCell ref="DS1:FE1"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A1:A9"/>
     <mergeCell ref="M11:M71"/>
@@ -34702,6 +34668,11 @@
     <mergeCell ref="D6:BE6"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="A11:A71"/>
+    <mergeCell ref="BF6:DH6"/>
+    <mergeCell ref="DI6:FD6"/>
+    <mergeCell ref="D1:BJ1"/>
+    <mergeCell ref="BK1:DR1"/>
+    <mergeCell ref="DS1:FE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34924,157 +34895,157 @@
       <c r="EJ1" s="28"/>
     </row>
     <row r="2" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="110" t="s">
         <v>147</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="102"/>
-      <c r="AP2" s="102"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
-      <c r="BJ2" s="102"/>
-      <c r="BK2" s="102"/>
-      <c r="BL2" s="102"/>
-      <c r="BM2" s="102"/>
-      <c r="BN2" s="102"/>
-      <c r="BO2" s="102"/>
-      <c r="BP2" s="102"/>
-      <c r="BQ2" s="102"/>
-      <c r="BR2" s="102"/>
-      <c r="BS2" s="102"/>
-      <c r="BT2" s="102"/>
-      <c r="BU2" s="102"/>
-      <c r="BV2" s="102"/>
-      <c r="BW2" s="102"/>
-      <c r="BX2" s="102"/>
-      <c r="BY2" s="102"/>
-      <c r="BZ2" s="102"/>
-      <c r="CA2" s="102"/>
-      <c r="CB2" s="102"/>
-      <c r="CC2" s="102" t="s">
+      <c r="D2" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AW2" s="93"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
+      <c r="BJ2" s="93"/>
+      <c r="BK2" s="93"/>
+      <c r="BL2" s="93"/>
+      <c r="BM2" s="93"/>
+      <c r="BN2" s="93"/>
+      <c r="BO2" s="93"/>
+      <c r="BP2" s="93"/>
+      <c r="BQ2" s="93"/>
+      <c r="BR2" s="93"/>
+      <c r="BS2" s="93"/>
+      <c r="BT2" s="93"/>
+      <c r="BU2" s="93"/>
+      <c r="BV2" s="93"/>
+      <c r="BW2" s="93"/>
+      <c r="BX2" s="93"/>
+      <c r="BY2" s="93"/>
+      <c r="BZ2" s="93"/>
+      <c r="CA2" s="93"/>
+      <c r="CB2" s="93"/>
+      <c r="CC2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="CD2" s="102"/>
-      <c r="CE2" s="102"/>
-      <c r="CF2" s="102"/>
-      <c r="CG2" s="102"/>
-      <c r="CH2" s="102"/>
-      <c r="CI2" s="102"/>
-      <c r="CJ2" s="102"/>
-      <c r="CK2" s="102"/>
-      <c r="CL2" s="102"/>
-      <c r="CM2" s="102"/>
-      <c r="CN2" s="102"/>
-      <c r="CO2" s="102"/>
-      <c r="CP2" s="102"/>
-      <c r="CQ2" s="102"/>
-      <c r="CR2" s="102"/>
-      <c r="CS2" s="102"/>
-      <c r="CT2" s="102"/>
-      <c r="CU2" s="102"/>
-      <c r="CV2" s="102"/>
-      <c r="CW2" s="102"/>
-      <c r="CX2" s="102"/>
-      <c r="CY2" s="102"/>
-      <c r="CZ2" s="102"/>
-      <c r="DA2" s="102"/>
-      <c r="DB2" s="102"/>
-      <c r="DC2" s="102"/>
-      <c r="DD2" s="102"/>
-      <c r="DE2" s="102"/>
-      <c r="DF2" s="102"/>
-      <c r="DG2" s="102"/>
-      <c r="DH2" s="102"/>
-      <c r="DI2" s="102"/>
-      <c r="DJ2" s="102"/>
-      <c r="DK2" s="102"/>
-      <c r="DL2" s="102"/>
-      <c r="DM2" s="102"/>
-      <c r="DN2" s="102"/>
-      <c r="DO2" s="102"/>
-      <c r="DP2" s="102"/>
-      <c r="DQ2" s="102"/>
-      <c r="DR2" s="102"/>
-      <c r="DS2" s="102"/>
-      <c r="DT2" s="102"/>
-      <c r="DU2" s="102"/>
-      <c r="DV2" s="102"/>
-      <c r="DW2" s="102"/>
-      <c r="DX2" s="102"/>
-      <c r="DY2" s="102"/>
-      <c r="DZ2" s="102"/>
-      <c r="EA2" s="102"/>
-      <c r="EB2" s="102"/>
-      <c r="EC2" s="102"/>
-      <c r="ED2" s="102"/>
-      <c r="EE2" s="102"/>
-      <c r="EF2" s="102"/>
-      <c r="EG2" s="102"/>
-      <c r="EH2" s="102"/>
-      <c r="EI2" s="102"/>
-      <c r="EJ2" s="106"/>
+      <c r="CD2" s="93"/>
+      <c r="CE2" s="93"/>
+      <c r="CF2" s="93"/>
+      <c r="CG2" s="93"/>
+      <c r="CH2" s="93"/>
+      <c r="CI2" s="93"/>
+      <c r="CJ2" s="93"/>
+      <c r="CK2" s="93"/>
+      <c r="CL2" s="93"/>
+      <c r="CM2" s="93"/>
+      <c r="CN2" s="93"/>
+      <c r="CO2" s="93"/>
+      <c r="CP2" s="93"/>
+      <c r="CQ2" s="93"/>
+      <c r="CR2" s="93"/>
+      <c r="CS2" s="93"/>
+      <c r="CT2" s="93"/>
+      <c r="CU2" s="93"/>
+      <c r="CV2" s="93"/>
+      <c r="CW2" s="93"/>
+      <c r="CX2" s="93"/>
+      <c r="CY2" s="93"/>
+      <c r="CZ2" s="93"/>
+      <c r="DA2" s="93"/>
+      <c r="DB2" s="93"/>
+      <c r="DC2" s="93"/>
+      <c r="DD2" s="93"/>
+      <c r="DE2" s="93"/>
+      <c r="DF2" s="93"/>
+      <c r="DG2" s="93"/>
+      <c r="DH2" s="93"/>
+      <c r="DI2" s="93"/>
+      <c r="DJ2" s="93"/>
+      <c r="DK2" s="93"/>
+      <c r="DL2" s="93"/>
+      <c r="DM2" s="93"/>
+      <c r="DN2" s="93"/>
+      <c r="DO2" s="93"/>
+      <c r="DP2" s="93"/>
+      <c r="DQ2" s="93"/>
+      <c r="DR2" s="93"/>
+      <c r="DS2" s="93"/>
+      <c r="DT2" s="93"/>
+      <c r="DU2" s="93"/>
+      <c r="DV2" s="93"/>
+      <c r="DW2" s="93"/>
+      <c r="DX2" s="93"/>
+      <c r="DY2" s="93"/>
+      <c r="DZ2" s="93"/>
+      <c r="EA2" s="93"/>
+      <c r="EB2" s="93"/>
+      <c r="EC2" s="93"/>
+      <c r="ED2" s="93"/>
+      <c r="EE2" s="93"/>
+      <c r="EF2" s="93"/>
+      <c r="EG2" s="93"/>
+      <c r="EH2" s="93"/>
+      <c r="EI2" s="93"/>
+      <c r="EJ2" s="94"/>
     </row>
     <row r="3" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A3" s="97"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="111"/>
       <c r="C3" s="1" t="s">
         <v>89</v>
@@ -35488,7 +35459,7 @@
       <c r="EJ3" s="8"/>
     </row>
     <row r="4" spans="1:140" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="112"/>
       <c r="C4" s="32" t="s">
         <v>90</v>
@@ -35828,7 +35799,7 @@
       <c r="EJ4" s="12"/>
     </row>
     <row r="5" spans="1:140" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="99"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -35969,155 +35940,155 @@
       <c r="EJ5" s="2"/>
     </row>
     <row r="6" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="110" t="s">
         <v>148</v>
       </c>
       <c r="C6" s="30"/>
-      <c r="D6" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="102"/>
-      <c r="AO6" s="102"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="102"/>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="102"/>
-      <c r="AU6" s="102"/>
-      <c r="AV6" s="102"/>
-      <c r="AW6" s="102"/>
-      <c r="AX6" s="102"/>
-      <c r="AY6" s="102"/>
-      <c r="AZ6" s="102"/>
-      <c r="BA6" s="102"/>
-      <c r="BB6" s="102"/>
-      <c r="BC6" s="102"/>
-      <c r="BD6" s="102"/>
-      <c r="BE6" s="102"/>
-      <c r="BF6" s="102"/>
-      <c r="BG6" s="102"/>
-      <c r="BH6" s="102"/>
-      <c r="BI6" s="102"/>
-      <c r="BJ6" s="102"/>
-      <c r="BK6" s="102"/>
-      <c r="BL6" s="102"/>
-      <c r="BM6" s="102"/>
-      <c r="BN6" s="102"/>
-      <c r="BO6" s="102"/>
-      <c r="BP6" s="102"/>
-      <c r="BQ6" s="102"/>
-      <c r="BR6" s="102"/>
-      <c r="BS6" s="102"/>
-      <c r="BT6" s="102"/>
-      <c r="BU6" s="102"/>
-      <c r="BV6" s="102"/>
-      <c r="BW6" s="102"/>
-      <c r="BX6" s="102"/>
-      <c r="BY6" s="102"/>
-      <c r="BZ6" s="102"/>
-      <c r="CA6" s="102"/>
-      <c r="CB6" s="102"/>
-      <c r="CC6" s="102" t="s">
+      <c r="D6" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="93"/>
+      <c r="AW6" s="93"/>
+      <c r="AX6" s="93"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="93"/>
+      <c r="BA6" s="93"/>
+      <c r="BB6" s="93"/>
+      <c r="BC6" s="93"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="93"/>
+      <c r="BF6" s="93"/>
+      <c r="BG6" s="93"/>
+      <c r="BH6" s="93"/>
+      <c r="BI6" s="93"/>
+      <c r="BJ6" s="93"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="93"/>
+      <c r="BM6" s="93"/>
+      <c r="BN6" s="93"/>
+      <c r="BO6" s="93"/>
+      <c r="BP6" s="93"/>
+      <c r="BQ6" s="93"/>
+      <c r="BR6" s="93"/>
+      <c r="BS6" s="93"/>
+      <c r="BT6" s="93"/>
+      <c r="BU6" s="93"/>
+      <c r="BV6" s="93"/>
+      <c r="BW6" s="93"/>
+      <c r="BX6" s="93"/>
+      <c r="BY6" s="93"/>
+      <c r="BZ6" s="93"/>
+      <c r="CA6" s="93"/>
+      <c r="CB6" s="93"/>
+      <c r="CC6" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="CD6" s="102"/>
-      <c r="CE6" s="102"/>
-      <c r="CF6" s="102"/>
-      <c r="CG6" s="102"/>
-      <c r="CH6" s="102"/>
-      <c r="CI6" s="102"/>
-      <c r="CJ6" s="102"/>
-      <c r="CK6" s="102"/>
-      <c r="CL6" s="102"/>
-      <c r="CM6" s="102"/>
-      <c r="CN6" s="102"/>
-      <c r="CO6" s="102"/>
-      <c r="CP6" s="102"/>
-      <c r="CQ6" s="102"/>
-      <c r="CR6" s="102"/>
-      <c r="CS6" s="102"/>
-      <c r="CT6" s="102"/>
-      <c r="CU6" s="102"/>
-      <c r="CV6" s="102"/>
-      <c r="CW6" s="102"/>
-      <c r="CX6" s="102"/>
-      <c r="CY6" s="102"/>
-      <c r="CZ6" s="102"/>
-      <c r="DA6" s="102"/>
-      <c r="DB6" s="102"/>
-      <c r="DC6" s="102"/>
-      <c r="DD6" s="102"/>
-      <c r="DE6" s="102"/>
-      <c r="DF6" s="102"/>
-      <c r="DG6" s="102"/>
-      <c r="DH6" s="102"/>
-      <c r="DI6" s="102"/>
-      <c r="DJ6" s="102"/>
-      <c r="DK6" s="102"/>
-      <c r="DL6" s="102"/>
-      <c r="DM6" s="102"/>
-      <c r="DN6" s="102"/>
-      <c r="DO6" s="102"/>
-      <c r="DP6" s="102"/>
-      <c r="DQ6" s="102"/>
-      <c r="DR6" s="102"/>
-      <c r="DS6" s="102"/>
-      <c r="DT6" s="102"/>
-      <c r="DU6" s="102"/>
-      <c r="DV6" s="102"/>
-      <c r="DW6" s="102"/>
-      <c r="DX6" s="102"/>
-      <c r="DY6" s="102"/>
-      <c r="DZ6" s="102"/>
-      <c r="EA6" s="102"/>
-      <c r="EB6" s="102"/>
-      <c r="EC6" s="102"/>
-      <c r="ED6" s="102"/>
-      <c r="EE6" s="102"/>
-      <c r="EF6" s="102"/>
-      <c r="EG6" s="102"/>
-      <c r="EH6" s="102"/>
-      <c r="EI6" s="102"/>
-      <c r="EJ6" s="106"/>
+      <c r="CD6" s="93"/>
+      <c r="CE6" s="93"/>
+      <c r="CF6" s="93"/>
+      <c r="CG6" s="93"/>
+      <c r="CH6" s="93"/>
+      <c r="CI6" s="93"/>
+      <c r="CJ6" s="93"/>
+      <c r="CK6" s="93"/>
+      <c r="CL6" s="93"/>
+      <c r="CM6" s="93"/>
+      <c r="CN6" s="93"/>
+      <c r="CO6" s="93"/>
+      <c r="CP6" s="93"/>
+      <c r="CQ6" s="93"/>
+      <c r="CR6" s="93"/>
+      <c r="CS6" s="93"/>
+      <c r="CT6" s="93"/>
+      <c r="CU6" s="93"/>
+      <c r="CV6" s="93"/>
+      <c r="CW6" s="93"/>
+      <c r="CX6" s="93"/>
+      <c r="CY6" s="93"/>
+      <c r="CZ6" s="93"/>
+      <c r="DA6" s="93"/>
+      <c r="DB6" s="93"/>
+      <c r="DC6" s="93"/>
+      <c r="DD6" s="93"/>
+      <c r="DE6" s="93"/>
+      <c r="DF6" s="93"/>
+      <c r="DG6" s="93"/>
+      <c r="DH6" s="93"/>
+      <c r="DI6" s="93"/>
+      <c r="DJ6" s="93"/>
+      <c r="DK6" s="93"/>
+      <c r="DL6" s="93"/>
+      <c r="DM6" s="93"/>
+      <c r="DN6" s="93"/>
+      <c r="DO6" s="93"/>
+      <c r="DP6" s="93"/>
+      <c r="DQ6" s="93"/>
+      <c r="DR6" s="93"/>
+      <c r="DS6" s="93"/>
+      <c r="DT6" s="93"/>
+      <c r="DU6" s="93"/>
+      <c r="DV6" s="93"/>
+      <c r="DW6" s="93"/>
+      <c r="DX6" s="93"/>
+      <c r="DY6" s="93"/>
+      <c r="DZ6" s="93"/>
+      <c r="EA6" s="93"/>
+      <c r="EB6" s="93"/>
+      <c r="EC6" s="93"/>
+      <c r="ED6" s="93"/>
+      <c r="EE6" s="93"/>
+      <c r="EF6" s="93"/>
+      <c r="EG6" s="93"/>
+      <c r="EH6" s="93"/>
+      <c r="EI6" s="93"/>
+      <c r="EJ6" s="94"/>
     </row>
     <row r="7" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A7" s="97"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="111"/>
       <c r="C7" s="1" t="s">
         <v>89</v>
@@ -36531,7 +36502,7 @@
       <c r="EJ7" s="8"/>
     </row>
     <row r="8" spans="1:140" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="112"/>
       <c r="C8" s="32" t="s">
         <v>90</v>
@@ -36871,7 +36842,7 @@
       <c r="EJ8" s="12"/>
     </row>
     <row r="9" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A9" s="97"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="29"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -37013,7 +36984,7 @@
       <c r="EJ9" s="2"/>
     </row>
     <row r="10" spans="1:140" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="29"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -37155,7 +37126,7 @@
       <c r="EJ10" s="2"/>
     </row>
     <row r="11" spans="1:140" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="97"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="107" t="s">
         <v>164</v>
       </c>
@@ -37305,7 +37276,7 @@
       <c r="EJ11" s="2"/>
     </row>
     <row r="12" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A12" s="97"/>
+      <c r="A12" s="99"/>
       <c r="B12" s="108"/>
       <c r="C12" s="1" t="s">
         <v>162</v>
@@ -37455,7 +37426,7 @@
       <c r="EJ12" s="2"/>
     </row>
     <row r="13" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A13" s="97"/>
+      <c r="A13" s="99"/>
       <c r="B13" s="108"/>
       <c r="C13" s="1" t="s">
         <v>49</v>
@@ -37605,7 +37576,7 @@
       <c r="EJ13" s="2"/>
     </row>
     <row r="14" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="108"/>
       <c r="C14" s="1" t="s">
         <v>163</v>
@@ -37755,7 +37726,7 @@
       <c r="EJ14" s="2"/>
     </row>
     <row r="15" spans="1:140" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="109"/>
       <c r="C15" s="32" t="s">
         <v>48</v>
@@ -38187,7 +38158,7 @@
       <c r="EJ17" s="2"/>
     </row>
     <row r="18" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A18" s="103" t="s">
+      <c r="A18" s="104" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -38340,7 +38311,7 @@
       <c r="EJ18" s="2"/>
     </row>
     <row r="19" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A19" s="104"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -38476,7 +38447,7 @@
       <c r="EJ19" s="2"/>
     </row>
     <row r="20" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A20" s="104"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="5" t="s">
         <v>92</v>
       </c>
@@ -38622,7 +38593,7 @@
       <c r="EJ20" s="2"/>
     </row>
     <row r="21" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
@@ -38770,7 +38741,7 @@
       <c r="EJ21" s="2"/>
     </row>
     <row r="22" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -38910,7 +38881,7 @@
       <c r="EJ22" s="2"/>
     </row>
     <row r="23" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="5" t="s">
         <v>94</v>
       </c>
@@ -39070,7 +39041,7 @@
       <c r="EJ23" s="2"/>
     </row>
     <row r="24" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="5" t="s">
         <v>96</v>
       </c>
@@ -39230,7 +39201,7 @@
       <c r="EJ24" s="2"/>
     </row>
     <row r="25" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="5" t="s">
         <v>97</v>
       </c>
@@ -39390,7 +39361,7 @@
       <c r="EJ25" s="2"/>
     </row>
     <row r="26" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A26" s="104"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="5" t="s">
         <v>99</v>
       </c>
@@ -39546,7 +39517,7 @@
       <c r="EJ26" s="2"/>
     </row>
     <row r="27" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -39684,7 +39655,7 @@
       <c r="EJ27" s="2"/>
     </row>
     <row r="28" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A28" s="104"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="5" t="s">
         <v>100</v>
       </c>
@@ -39848,7 +39819,7 @@
       <c r="EJ28" s="2"/>
     </row>
     <row r="29" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A29" s="104"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="5" t="s">
         <v>96</v>
       </c>
@@ -40012,7 +39983,7 @@
       <c r="EJ29" s="2"/>
     </row>
     <row r="30" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A30" s="104"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="5" t="s">
         <v>97</v>
       </c>
@@ -40055,7 +40026,7 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A31" s="104"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="5" t="s">
         <v>99</v>
       </c>
@@ -40103,7 +40074,7 @@
       <c r="Z31" s="6"/>
     </row>
     <row r="32" spans="1:140" x14ac:dyDescent="0.2">
-      <c r="A32" s="104"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="5" t="s">
         <v>111</v>
       </c>
@@ -40139,7 +40110,7 @@
       <c r="Z32" s="6"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -40161,7 +40132,7 @@
       <c r="Z33" s="6"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="5" t="s">
         <v>112</v>
       </c>
@@ -40189,7 +40160,7 @@
       <c r="Z34" s="6"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="5" t="s">
         <v>113</v>
       </c>
@@ -40221,7 +40192,7 @@
       <c r="Z35" s="6"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="104"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="5" t="s">
         <v>114</v>
       </c>
@@ -40253,7 +40224,7 @@
       <c r="Z36" s="6"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="104"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="5" t="s">
         <v>115</v>
       </c>
@@ -40285,7 +40256,7 @@
       <c r="Z37" s="6"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="104"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="5" t="s">
         <v>116</v>
       </c>
@@ -40317,7 +40288,7 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="104"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="5" t="s">
         <v>117</v>
       </c>
@@ -40345,7 +40316,7 @@
       <c r="Z39" s="6"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="104"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -40367,7 +40338,7 @@
       <c r="Z40" s="6"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="104"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="5" t="s">
         <v>119</v>
       </c>
@@ -40395,7 +40366,7 @@
       <c r="Z41" s="6"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A42" s="104"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="5" t="s">
         <v>120</v>
       </c>
@@ -40427,7 +40398,7 @@
       <c r="Z42" s="6"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A43" s="104"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="5" t="s">
         <v>121</v>
       </c>
@@ -40454,7 +40425,7 @@
       <c r="Z43" s="6"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A44" s="104"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="5" t="s">
         <v>115</v>
       </c>
@@ -40486,7 +40457,7 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A45" s="104"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="5" t="s">
         <v>116</v>
       </c>
@@ -40514,7 +40485,7 @@
       <c r="Z45" s="6"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A46" s="104"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="5" t="s">
         <v>117</v>
       </c>
@@ -40544,7 +40515,7 @@
       <c r="Z46" s="6"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A47" s="104"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -40568,7 +40539,7 @@
       <c r="Z47" s="6"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A48" s="104"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="5" t="s">
         <v>123</v>
       </c>
@@ -40596,7 +40567,7 @@
       <c r="Z48" s="6"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A49" s="104"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="5" t="s">
         <v>124</v>
       </c>
@@ -40628,7 +40599,7 @@
       <c r="Z49" s="6"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A50" s="104"/>
+      <c r="A50" s="105"/>
       <c r="B50" s="5" t="s">
         <v>125</v>
       </c>
@@ -40660,7 +40631,7 @@
       <c r="Z50" s="6"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A51" s="104"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="5" t="s">
         <v>126</v>
       </c>
@@ -40692,7 +40663,7 @@
       <c r="Z51" s="6"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A52" s="104"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="5" t="s">
         <v>117</v>
       </c>
@@ -40720,7 +40691,7 @@
       <c r="Z52" s="6"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A53" s="104"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="5" t="s">
         <v>128</v>
       </c>
@@ -40750,7 +40721,7 @@
       <c r="Z53" s="6"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A54" s="104"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="5" t="s">
         <v>117</v>
       </c>
@@ -40782,7 +40753,7 @@
       <c r="Z54" s="6"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55" s="104"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -40806,7 +40777,7 @@
       <c r="Z55" s="6"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A56" s="104"/>
+      <c r="A56" s="105"/>
       <c r="B56" s="5" t="s">
         <v>41</v>
       </c>
@@ -40829,7 +40800,7 @@
       <c r="Z56" s="6"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A57" s="104"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="5" t="s">
         <v>130</v>
       </c>
@@ -40864,7 +40835,7 @@
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A58" s="104"/>
+      <c r="A58" s="105"/>
       <c r="B58" s="5" t="s">
         <v>131</v>
       </c>
@@ -40901,7 +40872,7 @@
       </c>
     </row>
     <row r="59" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="104"/>
+      <c r="A59" s="105"/>
       <c r="B59" s="5" t="s">
         <v>132</v>
       </c>
@@ -40938,14 +40909,14 @@
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A60" s="104"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="7"/>
       <c r="J60" s="6"/>
       <c r="M60" s="7"/>
       <c r="U60" s="6"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A61" s="104"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="18"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -40966,7 +40937,7 @@
       <c r="U61" s="19"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A62" s="104"/>
+      <c r="A62" s="105"/>
       <c r="B62" s="5" t="s">
         <v>133</v>
       </c>
@@ -40991,7 +40962,7 @@
       <c r="U62" s="8"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A63" s="104"/>
+      <c r="A63" s="105"/>
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -41012,7 +40983,7 @@
       <c r="U63" s="8"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A64" s="104"/>
+      <c r="A64" s="105"/>
       <c r="B64" s="5" t="s">
         <v>3</v>
       </c>
@@ -41041,7 +41012,7 @@
       <c r="U64" s="8"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="104"/>
+      <c r="A65" s="105"/>
       <c r="B65" s="5" t="s">
         <v>4</v>
       </c>
@@ -41070,7 +41041,7 @@
       <c r="U65" s="8"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66" s="104"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="5" t="s">
         <v>5</v>
       </c>
@@ -41099,7 +41070,7 @@
       <c r="U66" s="8"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="104"/>
+      <c r="A67" s="105"/>
       <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -41120,7 +41091,7 @@
       <c r="U67" s="8"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="104"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="5" t="s">
         <v>134</v>
       </c>
@@ -41165,7 +41136,7 @@
       <c r="U68" s="8"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="104"/>
+      <c r="A69" s="105"/>
       <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -41186,7 +41157,7 @@
       <c r="U69" s="8"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70" s="104"/>
+      <c r="A70" s="105"/>
       <c r="B70" s="5" t="s">
         <v>137</v>
       </c>
@@ -41211,7 +41182,7 @@
       <c r="U70" s="8"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71" s="104"/>
+      <c r="A71" s="105"/>
       <c r="B71" s="5" t="s">
         <v>1</v>
       </c>
@@ -41256,7 +41227,7 @@
       <c r="U71" s="8"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" s="104"/>
+      <c r="A72" s="105"/>
       <c r="B72" s="5" t="s">
         <v>2</v>
       </c>
@@ -41301,7 +41272,7 @@
       <c r="U72" s="8"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73" s="104"/>
+      <c r="A73" s="105"/>
       <c r="B73" s="5"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -41322,7 +41293,7 @@
       <c r="U73" s="8"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A74" s="104"/>
+      <c r="A74" s="105"/>
       <c r="B74" s="5"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -41343,7 +41314,7 @@
       <c r="U74" s="8"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75" s="104"/>
+      <c r="A75" s="105"/>
       <c r="B75" s="5" t="s">
         <v>20</v>
       </c>
@@ -41400,7 +41371,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76" s="104"/>
+      <c r="A76" s="105"/>
       <c r="B76" s="5"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -41421,7 +41392,7 @@
       <c r="U76" s="8"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77" s="104"/>
+      <c r="A77" s="105"/>
       <c r="B77" s="5" t="s">
         <v>137</v>
       </c>
@@ -41446,7 +41417,7 @@
       <c r="U77" s="8"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78" s="104"/>
+      <c r="A78" s="105"/>
       <c r="B78" s="5" t="s">
         <v>1</v>
       </c>
@@ -41503,7 +41474,7 @@
       </c>
     </row>
     <row r="79" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="105"/>
+      <c r="A79" s="106"/>
       <c r="B79" s="20" t="s">
         <v>2</v>
       </c>
@@ -41952,117 +41923,117 @@
   <sheetData>
     <row r="1" spans="1:100" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="110" t="s">
         <v>184</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="102"/>
-      <c r="AP2" s="102"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
-      <c r="BJ2" s="102"/>
-      <c r="BK2" s="102"/>
-      <c r="BL2" s="102"/>
-      <c r="BM2" s="102"/>
-      <c r="BN2" s="102"/>
-      <c r="BO2" s="102"/>
-      <c r="BP2" s="102"/>
-      <c r="BQ2" s="102"/>
-      <c r="BR2" s="102" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="93"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="93"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="93"/>
+      <c r="AS2" s="93"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="93"/>
+      <c r="AW2" s="93"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
+      <c r="BJ2" s="93"/>
+      <c r="BK2" s="93"/>
+      <c r="BL2" s="93"/>
+      <c r="BM2" s="93"/>
+      <c r="BN2" s="93"/>
+      <c r="BO2" s="93"/>
+      <c r="BP2" s="93"/>
+      <c r="BQ2" s="93"/>
+      <c r="BR2" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="BS2" s="102"/>
-      <c r="BT2" s="102"/>
-      <c r="BU2" s="102"/>
-      <c r="BV2" s="102"/>
-      <c r="BW2" s="102"/>
-      <c r="BX2" s="102"/>
-      <c r="BY2" s="102"/>
-      <c r="BZ2" s="102"/>
-      <c r="CA2" s="102"/>
-      <c r="CB2" s="102"/>
-      <c r="CC2" s="102"/>
-      <c r="CD2" s="102"/>
-      <c r="CE2" s="102"/>
-      <c r="CF2" s="102"/>
-      <c r="CG2" s="102"/>
-      <c r="CH2" s="102"/>
-      <c r="CI2" s="102"/>
-      <c r="CJ2" s="102"/>
-      <c r="CK2" s="102"/>
-      <c r="CL2" s="102"/>
-      <c r="CM2" s="102"/>
-      <c r="CN2" s="102"/>
-      <c r="CO2" s="102"/>
-      <c r="CP2" s="102"/>
-      <c r="CQ2" s="102"/>
-      <c r="CR2" s="102"/>
-      <c r="CS2" s="102"/>
-      <c r="CT2" s="102"/>
-      <c r="CU2" s="102"/>
-      <c r="CV2" s="106"/>
+      <c r="BS2" s="93"/>
+      <c r="BT2" s="93"/>
+      <c r="BU2" s="93"/>
+      <c r="BV2" s="93"/>
+      <c r="BW2" s="93"/>
+      <c r="BX2" s="93"/>
+      <c r="BY2" s="93"/>
+      <c r="BZ2" s="93"/>
+      <c r="CA2" s="93"/>
+      <c r="CB2" s="93"/>
+      <c r="CC2" s="93"/>
+      <c r="CD2" s="93"/>
+      <c r="CE2" s="93"/>
+      <c r="CF2" s="93"/>
+      <c r="CG2" s="93"/>
+      <c r="CH2" s="93"/>
+      <c r="CI2" s="93"/>
+      <c r="CJ2" s="93"/>
+      <c r="CK2" s="93"/>
+      <c r="CL2" s="93"/>
+      <c r="CM2" s="93"/>
+      <c r="CN2" s="93"/>
+      <c r="CO2" s="93"/>
+      <c r="CP2" s="93"/>
+      <c r="CQ2" s="93"/>
+      <c r="CR2" s="93"/>
+      <c r="CS2" s="93"/>
+      <c r="CT2" s="93"/>
+      <c r="CU2" s="93"/>
+      <c r="CV2" s="94"/>
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A3" s="97"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="111"/>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -42356,7 +42327,7 @@
       <c r="CV3" s="8"/>
     </row>
     <row r="4" spans="1:100" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="112"/>
       <c r="C4" s="20" t="s">
         <v>2</v>
@@ -42614,119 +42585,119 @@
       <c r="CV4" s="12"/>
     </row>
     <row r="5" spans="1:100" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="110" t="s">
         <v>185</v>
       </c>
       <c r="C6" s="41"/>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="102"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="102"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="102"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="102"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="102"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="102"/>
-      <c r="AK6" s="102"/>
-      <c r="AL6" s="102"/>
-      <c r="AM6" s="102"/>
-      <c r="AN6" s="102"/>
-      <c r="AO6" s="102"/>
-      <c r="AP6" s="102"/>
-      <c r="AQ6" s="102"/>
-      <c r="AR6" s="102"/>
-      <c r="AS6" s="102"/>
-      <c r="AT6" s="102"/>
-      <c r="AU6" s="102"/>
-      <c r="AV6" s="102"/>
-      <c r="AW6" s="102"/>
-      <c r="AX6" s="102"/>
-      <c r="AY6" s="102"/>
-      <c r="AZ6" s="102"/>
-      <c r="BA6" s="102"/>
-      <c r="BB6" s="102"/>
-      <c r="BC6" s="102"/>
-      <c r="BD6" s="102"/>
-      <c r="BE6" s="102"/>
-      <c r="BF6" s="102"/>
-      <c r="BG6" s="102"/>
-      <c r="BH6" s="102"/>
-      <c r="BI6" s="102"/>
-      <c r="BJ6" s="102"/>
-      <c r="BK6" s="102"/>
-      <c r="BL6" s="102"/>
-      <c r="BM6" s="102"/>
-      <c r="BN6" s="102"/>
-      <c r="BO6" s="102"/>
-      <c r="BP6" s="102"/>
-      <c r="BQ6" s="102"/>
-      <c r="BR6" s="102" t="s">
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="93"/>
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="93"/>
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="93"/>
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="93"/>
+      <c r="AW6" s="93"/>
+      <c r="AX6" s="93"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="93"/>
+      <c r="BA6" s="93"/>
+      <c r="BB6" s="93"/>
+      <c r="BC6" s="93"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="93"/>
+      <c r="BF6" s="93"/>
+      <c r="BG6" s="93"/>
+      <c r="BH6" s="93"/>
+      <c r="BI6" s="93"/>
+      <c r="BJ6" s="93"/>
+      <c r="BK6" s="93"/>
+      <c r="BL6" s="93"/>
+      <c r="BM6" s="93"/>
+      <c r="BN6" s="93"/>
+      <c r="BO6" s="93"/>
+      <c r="BP6" s="93"/>
+      <c r="BQ6" s="93"/>
+      <c r="BR6" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="BS6" s="102"/>
-      <c r="BT6" s="102"/>
-      <c r="BU6" s="102"/>
-      <c r="BV6" s="102"/>
-      <c r="BW6" s="102"/>
-      <c r="BX6" s="102"/>
-      <c r="BY6" s="102"/>
-      <c r="BZ6" s="102"/>
-      <c r="CA6" s="102"/>
-      <c r="CB6" s="102"/>
-      <c r="CC6" s="102"/>
-      <c r="CD6" s="102"/>
-      <c r="CE6" s="102"/>
-      <c r="CF6" s="102"/>
-      <c r="CG6" s="102"/>
-      <c r="CH6" s="102"/>
-      <c r="CI6" s="102"/>
-      <c r="CJ6" s="102"/>
-      <c r="CK6" s="102"/>
-      <c r="CL6" s="102"/>
-      <c r="CM6" s="102"/>
-      <c r="CN6" s="102"/>
-      <c r="CO6" s="102"/>
-      <c r="CP6" s="102"/>
-      <c r="CQ6" s="102"/>
-      <c r="CR6" s="102"/>
-      <c r="CS6" s="102"/>
-      <c r="CT6" s="102"/>
-      <c r="CU6" s="102"/>
-      <c r="CV6" s="106"/>
+      <c r="BS6" s="93"/>
+      <c r="BT6" s="93"/>
+      <c r="BU6" s="93"/>
+      <c r="BV6" s="93"/>
+      <c r="BW6" s="93"/>
+      <c r="BX6" s="93"/>
+      <c r="BY6" s="93"/>
+      <c r="BZ6" s="93"/>
+      <c r="CA6" s="93"/>
+      <c r="CB6" s="93"/>
+      <c r="CC6" s="93"/>
+      <c r="CD6" s="93"/>
+      <c r="CE6" s="93"/>
+      <c r="CF6" s="93"/>
+      <c r="CG6" s="93"/>
+      <c r="CH6" s="93"/>
+      <c r="CI6" s="93"/>
+      <c r="CJ6" s="93"/>
+      <c r="CK6" s="93"/>
+      <c r="CL6" s="93"/>
+      <c r="CM6" s="93"/>
+      <c r="CN6" s="93"/>
+      <c r="CO6" s="93"/>
+      <c r="CP6" s="93"/>
+      <c r="CQ6" s="93"/>
+      <c r="CR6" s="93"/>
+      <c r="CS6" s="93"/>
+      <c r="CT6" s="93"/>
+      <c r="CU6" s="93"/>
+      <c r="CV6" s="94"/>
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A7" s="97"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="111"/>
       <c r="C7" s="5" t="s">
         <v>1</v>
@@ -43020,7 +42991,7 @@
       <c r="CV7" s="8"/>
     </row>
     <row r="8" spans="1:100" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="112"/>
       <c r="C8" s="20" t="s">
         <v>2</v>
@@ -43278,119 +43249,119 @@
       <c r="CV8" s="12"/>
     </row>
     <row r="9" spans="1:100" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="29"/>
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A10" s="97"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="110" t="s">
         <v>186</v>
       </c>
       <c r="C10" s="41"/>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="93" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
-      <c r="AJ10" s="102"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="102"/>
-      <c r="AM10" s="102"/>
-      <c r="AN10" s="102"/>
-      <c r="AO10" s="102"/>
-      <c r="AP10" s="102"/>
-      <c r="AQ10" s="102"/>
-      <c r="AR10" s="102"/>
-      <c r="AS10" s="102"/>
-      <c r="AT10" s="102"/>
-      <c r="AU10" s="102"/>
-      <c r="AV10" s="102"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="102"/>
-      <c r="BC10" s="102"/>
-      <c r="BD10" s="102"/>
-      <c r="BE10" s="102"/>
-      <c r="BF10" s="102"/>
-      <c r="BG10" s="102"/>
-      <c r="BH10" s="102"/>
-      <c r="BI10" s="102"/>
-      <c r="BJ10" s="102"/>
-      <c r="BK10" s="102"/>
-      <c r="BL10" s="102"/>
-      <c r="BM10" s="102"/>
-      <c r="BN10" s="102"/>
-      <c r="BO10" s="102"/>
-      <c r="BP10" s="102"/>
-      <c r="BQ10" s="102"/>
-      <c r="BR10" s="102" t="s">
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93"/>
+      <c r="O10" s="93"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="93"/>
+      <c r="AG10" s="93"/>
+      <c r="AH10" s="93"/>
+      <c r="AI10" s="93"/>
+      <c r="AJ10" s="93"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="93"/>
+      <c r="AO10" s="93"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="93"/>
+      <c r="AS10" s="93"/>
+      <c r="AT10" s="93"/>
+      <c r="AU10" s="93"/>
+      <c r="AV10" s="93"/>
+      <c r="AW10" s="93"/>
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="93"/>
+      <c r="BA10" s="93"/>
+      <c r="BB10" s="93"/>
+      <c r="BC10" s="93"/>
+      <c r="BD10" s="93"/>
+      <c r="BE10" s="93"/>
+      <c r="BF10" s="93"/>
+      <c r="BG10" s="93"/>
+      <c r="BH10" s="93"/>
+      <c r="BI10" s="93"/>
+      <c r="BJ10" s="93"/>
+      <c r="BK10" s="93"/>
+      <c r="BL10" s="93"/>
+      <c r="BM10" s="93"/>
+      <c r="BN10" s="93"/>
+      <c r="BO10" s="93"/>
+      <c r="BP10" s="93"/>
+      <c r="BQ10" s="93"/>
+      <c r="BR10" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="BS10" s="102"/>
-      <c r="BT10" s="102"/>
-      <c r="BU10" s="102"/>
-      <c r="BV10" s="102"/>
-      <c r="BW10" s="102"/>
-      <c r="BX10" s="102"/>
-      <c r="BY10" s="102"/>
-      <c r="BZ10" s="102"/>
-      <c r="CA10" s="102"/>
-      <c r="CB10" s="102"/>
-      <c r="CC10" s="102"/>
-      <c r="CD10" s="102"/>
-      <c r="CE10" s="102"/>
-      <c r="CF10" s="102"/>
-      <c r="CG10" s="102"/>
-      <c r="CH10" s="102"/>
-      <c r="CI10" s="102"/>
-      <c r="CJ10" s="102"/>
-      <c r="CK10" s="102"/>
-      <c r="CL10" s="102"/>
-      <c r="CM10" s="102"/>
-      <c r="CN10" s="102"/>
-      <c r="CO10" s="102"/>
-      <c r="CP10" s="102"/>
-      <c r="CQ10" s="102"/>
-      <c r="CR10" s="102"/>
-      <c r="CS10" s="102"/>
-      <c r="CT10" s="102"/>
-      <c r="CU10" s="102"/>
-      <c r="CV10" s="106"/>
+      <c r="BS10" s="93"/>
+      <c r="BT10" s="93"/>
+      <c r="BU10" s="93"/>
+      <c r="BV10" s="93"/>
+      <c r="BW10" s="93"/>
+      <c r="BX10" s="93"/>
+      <c r="BY10" s="93"/>
+      <c r="BZ10" s="93"/>
+      <c r="CA10" s="93"/>
+      <c r="CB10" s="93"/>
+      <c r="CC10" s="93"/>
+      <c r="CD10" s="93"/>
+      <c r="CE10" s="93"/>
+      <c r="CF10" s="93"/>
+      <c r="CG10" s="93"/>
+      <c r="CH10" s="93"/>
+      <c r="CI10" s="93"/>
+      <c r="CJ10" s="93"/>
+      <c r="CK10" s="93"/>
+      <c r="CL10" s="93"/>
+      <c r="CM10" s="93"/>
+      <c r="CN10" s="93"/>
+      <c r="CO10" s="93"/>
+      <c r="CP10" s="93"/>
+      <c r="CQ10" s="93"/>
+      <c r="CR10" s="93"/>
+      <c r="CS10" s="93"/>
+      <c r="CT10" s="93"/>
+      <c r="CU10" s="93"/>
+      <c r="CV10" s="94"/>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A11" s="97"/>
+      <c r="A11" s="99"/>
       <c r="B11" s="111"/>
       <c r="C11" s="5" t="s">
         <v>1</v>
@@ -43684,7 +43655,7 @@
       <c r="CV11" s="8"/>
     </row>
     <row r="12" spans="1:100" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="112"/>
       <c r="C12" s="20" t="s">
         <v>2</v>
@@ -43957,7 +43928,7 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="104" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="33" t="s">
@@ -44002,7 +43973,7 @@
       <c r="AE15" s="43"/>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A16" s="104"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="5"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -44026,7 +43997,7 @@
       <c r="AE16" s="44"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="5" t="s">
         <v>92</v>
       </c>
@@ -44062,7 +44033,7 @@
       <c r="AE17" s="44"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="104"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="5" t="s">
         <v>5</v>
       </c>
@@ -44098,7 +44069,7 @@
       <c r="AE18" s="44"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="104"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -44122,7 +44093,7 @@
       <c r="AE19" s="44"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="104"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="5" t="s">
         <v>94</v>
       </c>
@@ -44176,7 +44147,7 @@
       <c r="AE20" s="44"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="5" t="s">
         <v>96</v>
       </c>
@@ -44230,7 +44201,7 @@
       <c r="AE21" s="44"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="5" t="s">
         <v>99</v>
       </c>
@@ -44284,7 +44255,7 @@
       <c r="AE22" s="44"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="5" t="s">
         <v>190</v>
       </c>
@@ -44338,7 +44309,7 @@
       <c r="AE23" s="44"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -44362,7 +44333,7 @@
       <c r="AE24" s="44"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="5" t="s">
         <v>100</v>
       </c>
@@ -44422,7 +44393,7 @@
       <c r="AE25" s="44"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="104"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="5" t="s">
         <v>96</v>
       </c>
@@ -44482,7 +44453,7 @@
       <c r="AE26" s="44"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="5" t="s">
         <v>99</v>
       </c>
@@ -44542,7 +44513,7 @@
       <c r="AE27" s="44"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="104"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="5" t="s">
         <v>190</v>
       </c>
@@ -44602,7 +44573,7 @@
       <c r="AE28" s="44"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="104"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="5" t="s">
         <v>111</v>
       </c>
@@ -44650,7 +44621,7 @@
       <c r="AE29" s="44"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="104"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -44674,7 +44645,7 @@
       <c r="AE30" s="44"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="104"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="5" t="s">
         <v>112</v>
       </c>
@@ -44704,7 +44675,7 @@
       <c r="AE31" s="44"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="104"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="5" t="s">
         <v>196</v>
       </c>
@@ -44740,7 +44711,7 @@
       <c r="AE32" s="44"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="5" t="s">
         <v>197</v>
       </c>
@@ -44776,7 +44747,7 @@
       <c r="AE33" s="44"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="5" t="s">
         <v>115</v>
       </c>
@@ -44812,7 +44783,7 @@
       <c r="AE34" s="44"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="5" t="s">
         <v>116</v>
       </c>
@@ -44848,7 +44819,7 @@
       <c r="AE35" s="44"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="104"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="5" t="s">
         <v>117</v>
       </c>
@@ -44884,7 +44855,7 @@
       <c r="AE36" s="44"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="104"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -44908,7 +44879,7 @@
       <c r="AE37" s="44"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="104"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="5" t="s">
         <v>119</v>
       </c>
@@ -44938,7 +44909,7 @@
       <c r="AE38" s="44"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39" s="104"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="5" t="s">
         <v>113</v>
       </c>
@@ -44974,7 +44945,7 @@
       <c r="AE39" s="44"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="104"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="5" t="s">
         <v>114</v>
       </c>
@@ -45010,7 +44981,7 @@
       <c r="AE40" s="44"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="104"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="5" t="s">
         <v>115</v>
       </c>
@@ -45046,7 +45017,7 @@
       <c r="AE41" s="44"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="104"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="5" t="s">
         <v>116</v>
       </c>
@@ -45082,7 +45053,7 @@
       <c r="AE42" s="44"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="104"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
@@ -45118,7 +45089,7 @@
       <c r="AE43" s="44"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="104"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -45142,7 +45113,7 @@
       <c r="AE44" s="44"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="104"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="5" t="s">
         <v>123</v>
       </c>
@@ -45172,7 +45143,7 @@
       <c r="AE45" s="44"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="104"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="5" t="s">
         <v>124</v>
       </c>
@@ -45208,7 +45179,7 @@
       <c r="AE46" s="44"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="104"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="5" t="s">
         <v>125</v>
       </c>
@@ -45244,7 +45215,7 @@
       <c r="AE47" s="44"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="104"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="5" t="s">
         <v>126</v>
       </c>
@@ -45280,7 +45251,7 @@
       <c r="AE48" s="44"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49" s="104"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="5" t="s">
         <v>117</v>
       </c>
@@ -45316,7 +45287,7 @@
       <c r="AE49" s="44"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A50" s="104"/>
+      <c r="A50" s="105"/>
       <c r="B50" s="5" t="s">
         <v>128</v>
       </c>
@@ -45352,7 +45323,7 @@
       <c r="AE50" s="44"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51" s="104"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="5" t="s">
         <v>117</v>
       </c>
@@ -45388,7 +45359,7 @@
       <c r="AE51" s="44"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52" s="104"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -45412,7 +45383,7 @@
       <c r="AE52" s="44"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53" s="104"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="5" t="s">
         <v>41</v>
       </c>
@@ -45442,7 +45413,7 @@
       <c r="AE53" s="44"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54" s="104"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="5" t="s">
         <v>202</v>
       </c>
@@ -45478,7 +45449,7 @@
       <c r="AE54" s="44"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55" s="104"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="5" t="s">
         <v>203</v>
       </c>
@@ -45514,7 +45485,7 @@
       <c r="AE55" s="44"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56" s="104"/>
+      <c r="A56" s="105"/>
       <c r="B56" s="5" t="s">
         <v>132</v>
       </c>
@@ -45550,7 +45521,7 @@
       <c r="AE56" s="44"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57" s="104"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="18"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -45581,7 +45552,7 @@
       <c r="AE57" s="19"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58" s="104"/>
+      <c r="A58" s="105"/>
       <c r="B58" s="5" t="s">
         <v>204</v>
       </c>
@@ -45618,7 +45589,7 @@
       <c r="AE58" s="8"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59" s="104"/>
+      <c r="A59" s="105"/>
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -45649,7 +45620,7 @@
       <c r="AE59" s="8"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60" s="104"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="5" t="s">
         <v>3</v>
       </c>
@@ -45692,7 +45663,7 @@
       <c r="AE60" s="8"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61" s="104"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="5" t="s">
         <v>4</v>
       </c>
@@ -45735,7 +45706,7 @@
       <c r="AE61" s="8"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A62" s="104"/>
+      <c r="A62" s="105"/>
       <c r="B62" s="5" t="s">
         <v>5</v>
       </c>
@@ -45778,7 +45749,7 @@
       <c r="AE62" s="8"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63" s="104"/>
+      <c r="A63" s="105"/>
       <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -45809,7 +45780,7 @@
       <c r="AE63" s="8"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A64" s="104"/>
+      <c r="A64" s="105"/>
       <c r="B64" s="5" t="s">
         <v>205</v>
       </c>
@@ -45876,7 +45847,7 @@
       <c r="AE64" s="8"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A65" s="104"/>
+      <c r="A65" s="105"/>
       <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -45907,7 +45878,7 @@
       <c r="AE65" s="8"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A66" s="104"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="5" t="s">
         <v>206</v>
       </c>
@@ -45974,7 +45945,7 @@
       <c r="AE66" s="8"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A67" s="104"/>
+      <c r="A67" s="105"/>
       <c r="B67" s="5" t="s">
         <v>208</v>
       </c>
@@ -46041,7 +46012,7 @@
       <c r="AE67" s="8"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A68" s="104"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="5" t="s">
         <v>210</v>
       </c>
@@ -46108,7 +46079,7 @@
       <c r="AE68" s="8"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A69" s="104"/>
+      <c r="A69" s="105"/>
       <c r="B69" s="5" t="s">
         <v>212</v>
       </c>
@@ -46175,7 +46146,7 @@
       <c r="AE69" s="8"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A70" s="104"/>
+      <c r="A70" s="105"/>
       <c r="B70" s="5" t="s">
         <v>214</v>
       </c>
@@ -46242,7 +46213,7 @@
       <c r="AE70" s="8"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A71" s="104"/>
+      <c r="A71" s="105"/>
       <c r="B71" s="5" t="s">
         <v>216</v>
       </c>
@@ -46309,7 +46280,7 @@
       <c r="AE71" s="8"/>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A72" s="104"/>
+      <c r="A72" s="105"/>
       <c r="B72" s="5"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -46340,7 +46311,7 @@
       <c r="AE72" s="8"/>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A73" s="104"/>
+      <c r="A73" s="105"/>
       <c r="B73" s="5"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -46371,7 +46342,7 @@
       <c r="AE73" s="8"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A74" s="104"/>
+      <c r="A74" s="105"/>
       <c r="B74" s="5" t="s">
         <v>20</v>
       </c>
@@ -46456,7 +46427,7 @@
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A75" s="104"/>
+      <c r="A75" s="105"/>
       <c r="B75" s="5"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -46487,7 +46458,7 @@
       <c r="AE75" s="8"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A76" s="104"/>
+      <c r="A76" s="105"/>
       <c r="B76" s="5" t="s">
         <v>206</v>
       </c>
@@ -46572,7 +46543,7 @@
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A77" s="104"/>
+      <c r="A77" s="105"/>
       <c r="B77" s="5" t="s">
         <v>208</v>
       </c>
@@ -46657,7 +46628,7 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A78" s="104"/>
+      <c r="A78" s="105"/>
       <c r="B78" s="5" t="s">
         <v>210</v>
       </c>
@@ -46742,7 +46713,7 @@
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A79" s="104"/>
+      <c r="A79" s="105"/>
       <c r="B79" s="5" t="s">
         <v>212</v>
       </c>
@@ -46827,7 +46798,7 @@
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A80" s="104"/>
+      <c r="A80" s="105"/>
       <c r="B80" s="5" t="s">
         <v>214</v>
       </c>
@@ -46912,7 +46883,7 @@
       </c>
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A81" s="104"/>
+      <c r="A81" s="105"/>
       <c r="B81" s="5" t="s">
         <v>216</v>
       </c>
@@ -46997,7 +46968,7 @@
       </c>
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A82" s="104"/>
+      <c r="A82" s="105"/>
       <c r="B82" s="5"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -47028,7 +46999,7 @@
       <c r="AE82" s="8"/>
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A83" s="104"/>
+      <c r="A83" s="105"/>
       <c r="B83" s="5" t="s">
         <v>26</v>
       </c>
@@ -47065,7 +47036,7 @@
       <c r="AE83" s="8"/>
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A84" s="104"/>
+      <c r="A84" s="105"/>
       <c r="B84" s="5" t="s">
         <v>219</v>
       </c>
@@ -47108,7 +47079,7 @@
       <c r="AE84" s="8"/>
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A85" s="104"/>
+      <c r="A85" s="105"/>
       <c r="B85" s="5" t="s">
         <v>220</v>
       </c>
@@ -47151,7 +47122,7 @@
       <c r="AE85" s="8"/>
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A86" s="104"/>
+      <c r="A86" s="105"/>
       <c r="B86" s="5" t="s">
         <v>222</v>
       </c>
@@ -47194,7 +47165,7 @@
       <c r="AE86" s="8"/>
     </row>
     <row r="87" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="105"/>
+      <c r="A87" s="106"/>
       <c r="B87" s="20" t="s">
         <v>223</v>
       </c>
@@ -47238,17 +47209,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A15:A87"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="D2:BQ2"/>
     <mergeCell ref="BR2:CV2"/>
     <mergeCell ref="D6:BQ6"/>
     <mergeCell ref="BR6:CV6"/>
     <mergeCell ref="D10:BQ10"/>
     <mergeCell ref="BR10:CV10"/>
+    <mergeCell ref="A15:A87"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47301,7 +47272,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="110" t="s">
@@ -47414,7 +47385,7 @@
       <c r="CY1" s="114"/>
     </row>
     <row r="2" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A2" s="97"/>
+      <c r="A2" s="99"/>
       <c r="B2" s="111"/>
       <c r="C2" s="5" t="s">
         <v>89</v>
@@ -47721,7 +47692,7 @@
       </c>
     </row>
     <row r="3" spans="1:103" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="112"/>
       <c r="C3" s="20" t="s">
         <v>257</v>
@@ -47948,11 +47919,11 @@
       <c r="CY3" s="12"/>
     </row>
     <row r="4" spans="1:103" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
+      <c r="A5" s="99"/>
       <c r="B5" s="107" t="s">
         <v>256</v>
       </c>
@@ -47969,7 +47940,7 @@
       <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
+      <c r="A6" s="99"/>
       <c r="B6" s="108"/>
       <c r="C6" s="5" t="s">
         <v>258</v>
@@ -47986,7 +47957,7 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A7" s="97"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="108"/>
       <c r="C7" s="5" t="s">
         <v>49</v>
@@ -48003,7 +47974,7 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A8" s="97"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="108"/>
       <c r="C8" s="5" t="s">
         <v>259</v>
@@ -48020,7 +47991,7 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:103" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="109"/>
       <c r="C9" s="20" t="s">
         <v>48</v>
@@ -48049,7 +48020,7 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -48076,7 +48047,7 @@
       <c r="P11" s="43"/>
     </row>
     <row r="12" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A12" s="104"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -48091,7 +48062,7 @@
       <c r="P12" s="44"/>
     </row>
     <row r="13" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="5" t="s">
         <v>92</v>
       </c>
@@ -48112,7 +48083,7 @@
       <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A14" s="104"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
@@ -48135,7 +48106,7 @@
       <c r="P14" s="44"/>
     </row>
     <row r="15" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A15" s="104"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -48154,7 +48125,7 @@
       <c r="P15" s="44"/>
     </row>
     <row r="16" spans="1:103" x14ac:dyDescent="0.2">
-      <c r="A16" s="104"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="5" t="s">
         <v>94</v>
       </c>
@@ -48183,7 +48154,7 @@
       <c r="P16" s="44"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="104"/>
+      <c r="A17" s="105"/>
       <c r="B17" s="5" t="s">
         <v>96</v>
       </c>
@@ -48212,7 +48183,7 @@
       <c r="P17" s="44"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="104"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="5" t="s">
         <v>97</v>
       </c>
@@ -48241,7 +48212,7 @@
       <c r="P18" s="44"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="104"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="5" t="s">
         <v>99</v>
       </c>
@@ -48266,7 +48237,7 @@
       <c r="P19" s="44"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="104"/>
+      <c r="A20" s="105"/>
       <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -48283,7 +48254,7 @@
       <c r="P20" s="44"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="104"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="5" t="s">
         <v>100</v>
       </c>
@@ -48314,7 +48285,7 @@
       <c r="P21" s="44"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="104"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="5" t="s">
         <v>96</v>
       </c>
@@ -48345,7 +48316,7 @@
       <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="104"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="5" t="s">
         <v>97</v>
       </c>
@@ -48369,7 +48340,7 @@
       <c r="P23" s="44"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="104"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="5" t="s">
         <v>99</v>
       </c>
@@ -48396,7 +48367,7 @@
       <c r="P24" s="44"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="104"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="5" t="s">
         <v>111</v>
       </c>
@@ -48423,7 +48394,7 @@
       <c r="P25" s="44"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="104"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -48438,7 +48409,7 @@
       <c r="P26" s="44"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="104"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="5" t="s">
         <v>112</v>
       </c>
@@ -48457,7 +48428,7 @@
       <c r="P27" s="44"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="104"/>
+      <c r="A28" s="105"/>
       <c r="B28" s="5" t="s">
         <v>277</v>
       </c>
@@ -48480,7 +48451,7 @@
       <c r="P28" s="44"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="104"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="5" t="s">
         <v>278</v>
       </c>
@@ -48503,7 +48474,7 @@
       <c r="P29" s="44"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="104"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="5" t="s">
         <v>115</v>
       </c>
@@ -48526,7 +48497,7 @@
       <c r="P30" s="44"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="104"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="5" t="s">
         <v>116</v>
       </c>
@@ -48549,7 +48520,7 @@
       <c r="P31" s="44"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="104"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="5" t="s">
         <v>117</v>
       </c>
@@ -48572,7 +48543,7 @@
       <c r="P32" s="44"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -48587,7 +48558,7 @@
       <c r="P33" s="44"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="5" t="s">
         <v>119</v>
       </c>
@@ -48606,7 +48577,7 @@
       <c r="P34" s="44"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="104"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="5" t="s">
         <v>120</v>
       </c>
@@ -48629,7 +48600,7 @@
       <c r="P35" s="44"/>
     </row>
     <row r="36" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="104"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="5" t="s">
         <v>265</v>
       </c>
@@ -48652,7 +48623,7 @@
       <c r="P36" s="45"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="104"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="5" t="s">
         <v>115</v>
       </c>
@@ -48666,7 +48637,7 @@
       <c r="J37" s="44"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="104"/>
+      <c r="A38" s="105"/>
       <c r="B38" s="5" t="s">
         <v>116</v>
       </c>
@@ -48680,7 +48651,7 @@
       <c r="J38" s="44"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="104"/>
+      <c r="A39" s="105"/>
       <c r="B39" s="5" t="s">
         <v>117</v>
       </c>
@@ -48694,7 +48665,7 @@
       <c r="J39" s="44"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="104"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -48704,7 +48675,7 @@
       <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="104"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="5" t="s">
         <v>123</v>
       </c>
@@ -48716,7 +48687,7 @@
       <c r="J41" s="44"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="104"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="5" t="s">
         <v>124</v>
       </c>
@@ -48730,7 +48701,7 @@
       <c r="J42" s="44"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="104"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="5" t="s">
         <v>125</v>
       </c>
@@ -48744,7 +48715,7 @@
       <c r="J43" s="44"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="104"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="5" t="s">
         <v>126</v>
       </c>
@@ -48758,7 +48729,7 @@
       <c r="J44" s="44"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="104"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="5" t="s">
         <v>117</v>
       </c>
@@ -48772,7 +48743,7 @@
       <c r="J45" s="44"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="104"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="5" t="s">
         <v>128</v>
       </c>
@@ -48786,7 +48757,7 @@
       <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="104"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="5" t="s">
         <v>117</v>
       </c>
@@ -48800,7 +48771,7 @@
       <c r="J47" s="44"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="104"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -48810,7 +48781,7 @@
       <c r="J48" s="44"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="104"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="5" t="s">
         <v>41</v>
       </c>
@@ -48822,7 +48793,7 @@
       <c r="J49" s="44"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="104"/>
+      <c r="A50" s="105"/>
       <c r="B50" s="5" t="s">
         <v>130</v>
       </c>
@@ -48836,7 +48807,7 @@
       <c r="J50" s="44"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="104"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="5" t="s">
         <v>131</v>
       </c>
@@ -48850,7 +48821,7 @@
       <c r="J51" s="44"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="104"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="5" t="s">
         <v>132</v>
       </c>
@@ -48864,7 +48835,7 @@
       <c r="J52" s="44"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="104"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="18"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -48876,7 +48847,7 @@
       <c r="J53" s="19"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="104"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="5" t="s">
         <v>204</v>
       </c>
@@ -48890,7 +48861,7 @@
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="104"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -48902,7 +48873,7 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="104"/>
+      <c r="A56" s="105"/>
       <c r="B56" s="5" t="s">
         <v>3</v>
       </c>
@@ -48918,7 +48889,7 @@
       <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="104"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="5" t="s">
         <v>4</v>
       </c>
@@ -48934,7 +48905,7 @@
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="104"/>
+      <c r="A58" s="105"/>
       <c r="B58" s="5" t="s">
         <v>5</v>
       </c>
@@ -48950,7 +48921,7 @@
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="104"/>
+      <c r="A59" s="105"/>
       <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -48962,7 +48933,7 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="104"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="5" t="s">
         <v>205</v>
       </c>
@@ -48986,7 +48957,7 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="104"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -48998,7 +48969,7 @@
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="104"/>
+      <c r="A62" s="105"/>
       <c r="B62" s="5" t="s">
         <v>279</v>
       </c>
@@ -49022,7 +48993,7 @@
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="104"/>
+      <c r="A63" s="105"/>
       <c r="B63" s="5" t="s">
         <v>280</v>
       </c>
@@ -49046,7 +49017,7 @@
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="104"/>
+      <c r="A64" s="105"/>
       <c r="B64" s="5" t="s">
         <v>281</v>
       </c>
@@ -49070,7 +49041,7 @@
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="104"/>
+      <c r="A65" s="105"/>
       <c r="B65" s="5" t="s">
         <v>282</v>
       </c>
@@ -49094,7 +49065,7 @@
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="104"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="5" t="s">
         <v>283</v>
       </c>
@@ -49118,7 +49089,7 @@
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="104"/>
+      <c r="A67" s="105"/>
       <c r="B67" s="5" t="s">
         <v>284</v>
       </c>
@@ -49142,7 +49113,7 @@
       <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="104"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -49154,7 +49125,7 @@
       <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="104"/>
+      <c r="A69" s="105"/>
       <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -49166,7 +49137,7 @@
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="104"/>
+      <c r="A70" s="105"/>
       <c r="B70" s="5" t="s">
         <v>20</v>
       </c>
@@ -49196,7 +49167,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="104"/>
+      <c r="A71" s="105"/>
       <c r="B71" s="5"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -49208,7 +49179,7 @@
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="104"/>
+      <c r="A72" s="105"/>
       <c r="B72" s="5" t="s">
         <v>279</v>
       </c>
@@ -49238,7 +49209,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="104"/>
+      <c r="A73" s="105"/>
       <c r="B73" s="5" t="s">
         <v>280</v>
       </c>
@@ -49268,7 +49239,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="104"/>
+      <c r="A74" s="105"/>
       <c r="B74" s="5" t="s">
         <v>281</v>
       </c>
@@ -49298,7 +49269,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="104"/>
+      <c r="A75" s="105"/>
       <c r="B75" s="5" t="s">
         <v>282</v>
       </c>
@@ -49328,7 +49299,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="104"/>
+      <c r="A76" s="105"/>
       <c r="B76" s="5" t="s">
         <v>283</v>
       </c>
@@ -49358,7 +49329,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="104"/>
+      <c r="A77" s="105"/>
       <c r="B77" s="5" t="s">
         <v>284</v>
       </c>
@@ -49388,7 +49359,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="104"/>
+      <c r="A78" s="105"/>
       <c r="B78" s="5"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -49400,7 +49371,7 @@
       <c r="J78" s="8"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="104"/>
+      <c r="A79" s="105"/>
       <c r="B79" s="5" t="s">
         <v>26</v>
       </c>
@@ -49414,7 +49385,7 @@
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="104"/>
+      <c r="A80" s="105"/>
       <c r="B80" s="5" t="s">
         <v>285</v>
       </c>
@@ -49430,7 +49401,7 @@
       <c r="J80" s="8"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="104"/>
+      <c r="A81" s="105"/>
       <c r="B81" s="5" t="s">
         <v>286</v>
       </c>
@@ -49446,7 +49417,7 @@
       <c r="J81" s="8"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="104"/>
+      <c r="A82" s="105"/>
       <c r="B82" s="5" t="s">
         <v>287</v>
       </c>
@@ -49462,7 +49433,7 @@
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="105"/>
+      <c r="A83" s="106"/>
       <c r="B83" s="20" t="s">
         <v>288</v>
       </c>
@@ -49500,6 +49471,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="88aa3869-98f9-4908-a489-f8878ed2c440" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="551b5dbc-b282-4cf7-a165-021979898c41">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100121D3B32D0B255459F320FF71A23B496" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1c178aecbdcb2b595406747fb0fe15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="551b5dbc-b282-4cf7-a165-021979898c41" xmlns:ns3="88aa3869-98f9-4908-a489-f8878ed2c440" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0de7f1b69ddedf32808c92edbd6b9f8e" ns2:_="" ns3:_="">
     <xsd:import namespace="551b5dbc-b282-4cf7-a165-021979898c41"/>
@@ -49728,17 +49710,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="88aa3869-98f9-4908-a489-f8878ed2c440" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="551b5dbc-b282-4cf7-a165-021979898c41">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5660D0D4-CD4E-4DC3-87B4-DB207FAEC36D}">
   <ds:schemaRefs>
@@ -49748,6 +49719,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2CEC08C-C2FB-4569-B41E-1D535FC18EA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="88aa3869-98f9-4908-a489-f8878ed2c440"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="551b5dbc-b282-4cf7-a165-021979898c41"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55E8097-B2F2-4D13-B7FA-265F41255740}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -49766,23 +49754,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2CEC08C-C2FB-4569-B41E-1D535FC18EA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="88aa3869-98f9-4908-a489-f8878ed2c440"/>
-    <ds:schemaRef ds:uri="551b5dbc-b282-4cf7-a165-021979898c41"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f6b6dd5b-f02f-441a-99a0-162ac5060bd2}" enabled="0" method="" siteId="{f6b6dd5b-f02f-441a-99a0-162ac5060bd2}" removed="1"/>
